--- a/Test Case/Rijo/Test Case - Theatre.xlsx
+++ b/Test Case/Rijo/Test Case - Theatre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\Mediware\CentralRepository-Mediware\Test Case\Rijo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EF3C2D-3FA0-4E69-996B-DE1ABDA720D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E47A71C-AE5E-4166-B17F-1F1D870B235E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="502">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1941,6 +1941,93 @@
   </si>
   <si>
     <t>MED_THEATRE_TC_077</t>
+  </si>
+  <si>
+    <t>MED_THEATRE_TC_078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify whether user is able to mark issued items </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate to Theatre&gt;&gt;Menu&gt;&gt;Transations&gt;&gt;Store Receipt Marking </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item issue marking page should be displayed </t>
+  </si>
+  <si>
+    <t>Select the item for marking based on the requisition number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item should be selected for marking </t>
+  </si>
+  <si>
+    <t>Mark the items by clicking on the check box</t>
+  </si>
+  <si>
+    <t>User should be able to mark the item</t>
+  </si>
+  <si>
+    <t>MED_THEATRE_TC_079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that user is able to create a store return request </t>
+  </si>
+  <si>
+    <t>Navigate to Theatre&gt;&gt;Menu&gt;&gt;Transations&gt;&gt;Store Return</t>
+  </si>
+  <si>
+    <t>Item return form should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select the store </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store should be selected </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store: </t>
+  </si>
+  <si>
+    <t>Enter the return item details 
+Category
+Item
+Return Qty and click on add button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return item request should be created </t>
+  </si>
+  <si>
+    <t>MED_THEATRE_TC_080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return item should be added </t>
+  </si>
+  <si>
+    <t>Click Save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that user is able to cancel store return request </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now click on cancel </t>
+  </si>
+  <si>
+    <t>Store return request  should be created</t>
+  </si>
+  <si>
+    <t>Store return request  should be cancelled</t>
+  </si>
+  <si>
+    <t>MED_THEATRE_TC_081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that user is able to record the stock consumption of the patient </t>
+  </si>
+  <si>
+    <t>Navigate to Theatre&gt;&gt;Menu&gt;&gt;Transations&gt;&gt;Patient Consumption</t>
+  </si>
+  <si>
+    <t>Stock consumption form should be displayed</t>
   </si>
 </sst>
 </file>
@@ -2081,7 +2168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2192,6 +2279,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2337,7 +2430,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3514,7 +3607,7 @@
       </c>
       <c r="B5" s="18">
         <f>Theatre!O2</f>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C5" s="18">
         <f>Theatre!O3</f>
@@ -3572,7 +3665,7 @@
       </c>
       <c r="B7" s="6">
         <f t="shared" ref="B7:G7" si="0">SUM(B2:B6)</f>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6">
         <f t="shared" si="0"/>
@@ -3608,16 +3701,16 @@
       <c r="B10" s="15"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J12" s="38" t="s">
+      <c r="J12" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3631,11 +3724,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R716"/>
+  <dimension ref="A1:R714"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A594" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A595" sqref="A595"/>
+      <pane ySplit="1" topLeftCell="A610" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G617" sqref="G617"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3710,7 +3803,7 @@
       <c r="C2" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="42" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="19">
@@ -3732,7 +3825,7 @@
       </c>
       <c r="O2" s="17">
         <f>COUNTA(A:A)-1</f>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q2" s="27" t="s">
         <v>12</v>
@@ -3746,7 +3839,7 @@
       <c r="A3" s="29"/>
       <c r="B3" s="33"/>
       <c r="C3" s="26"/>
-      <c r="D3" s="41"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="19">
         <v>2</v>
       </c>
@@ -3782,7 +3875,7 @@
       <c r="A4" s="29"/>
       <c r="B4" s="33"/>
       <c r="C4" s="26"/>
-      <c r="D4" s="41"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="19">
         <v>3</v>
       </c>
@@ -3812,7 +3905,7 @@
     <row r="5" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="29"/>
       <c r="B5" s="33"/>
-      <c r="D5" s="41"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="19">
         <v>4</v>
       </c>
@@ -3838,7 +3931,7 @@
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
       <c r="B6" s="33"/>
-      <c r="D6" s="41"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="19">
         <v>5</v>
       </c>
@@ -3945,7 +4038,7 @@
       <c r="C13" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="41" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="19">
@@ -3959,7 +4052,7 @@
     </row>
     <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="33"/>
-      <c r="D14" s="39"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="19">
         <v>2</v>
       </c>
@@ -3974,7 +4067,7 @@
     </row>
     <row r="15" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
-      <c r="D15" s="39"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="19">
         <v>3</v>
       </c>
@@ -3992,7 +4085,7 @@
     </row>
     <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
-      <c r="D16" s="39"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="19">
         <v>5</v>
       </c>
@@ -4020,7 +4113,7 @@
       <c r="C18" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="41" t="s">
         <v>48</v>
       </c>
       <c r="E18" s="19">
@@ -4035,7 +4128,7 @@
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="36"/>
       <c r="B19" s="33"/>
-      <c r="D19" s="39"/>
+      <c r="D19" s="41"/>
       <c r="E19" s="19">
         <v>2</v>
       </c>
@@ -4051,7 +4144,7 @@
     <row r="20" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="B20" s="33"/>
-      <c r="D20" s="39"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="19">
         <v>3</v>
       </c>
@@ -4070,7 +4163,7 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="36"/>
       <c r="B21" s="33"/>
-      <c r="D21" s="39"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="19">
         <v>4</v>
       </c>
@@ -4086,7 +4179,7 @@
     <row r="22" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36"/>
       <c r="B22" s="33"/>
-      <c r="D22" s="39"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="19">
         <v>5</v>
       </c>
@@ -4114,7 +4207,7 @@
       <c r="C24" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="41" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="19">
@@ -4128,7 +4221,7 @@
     </row>
     <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="33"/>
-      <c r="D25" s="39"/>
+      <c r="D25" s="41"/>
       <c r="E25" s="19">
         <v>2</v>
       </c>
@@ -4143,7 +4236,7 @@
     </row>
     <row r="26" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B26" s="33"/>
-      <c r="D26" s="39"/>
+      <c r="D26" s="41"/>
       <c r="E26" s="19">
         <v>3</v>
       </c>
@@ -4161,7 +4254,7 @@
     </row>
     <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="33"/>
-      <c r="D27" s="39"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="19">
         <v>4</v>
       </c>
@@ -4176,7 +4269,7 @@
     </row>
     <row r="28" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B28" s="33"/>
-      <c r="D28" s="39"/>
+      <c r="D28" s="41"/>
       <c r="E28" s="19">
         <v>5</v>
       </c>
@@ -4191,7 +4284,7 @@
     </row>
     <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="33"/>
-      <c r="D29" s="39"/>
+      <c r="D29" s="41"/>
       <c r="E29" s="19">
         <v>6</v>
       </c>
@@ -4206,7 +4299,7 @@
     </row>
     <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="D30" s="39"/>
+      <c r="D30" s="41"/>
       <c r="E30" s="19">
         <v>7</v>
       </c>
@@ -4234,7 +4327,7 @@
       <c r="C32" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="41" t="s">
         <v>58</v>
       </c>
       <c r="E32" s="19">
@@ -4248,7 +4341,7 @@
     </row>
     <row r="33" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
-      <c r="D33" s="39"/>
+      <c r="D33" s="41"/>
       <c r="E33" s="19">
         <v>2</v>
       </c>
@@ -4263,7 +4356,7 @@
     </row>
     <row r="34" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B34" s="33"/>
-      <c r="D34" s="39"/>
+      <c r="D34" s="41"/>
       <c r="E34" s="19">
         <v>3</v>
       </c>
@@ -4281,7 +4374,7 @@
     </row>
     <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="33"/>
-      <c r="D35" s="39"/>
+      <c r="D35" s="41"/>
       <c r="E35" s="19">
         <v>4</v>
       </c>
@@ -4296,7 +4389,7 @@
     </row>
     <row r="36" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B36" s="33"/>
-      <c r="D36" s="39"/>
+      <c r="D36" s="41"/>
       <c r="E36" s="19">
         <v>5</v>
       </c>
@@ -4311,7 +4404,7 @@
     </row>
     <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="33"/>
-      <c r="D37" s="39"/>
+      <c r="D37" s="41"/>
       <c r="E37" s="19">
         <v>6</v>
       </c>
@@ -4326,7 +4419,7 @@
     </row>
     <row r="38" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B38" s="33"/>
-      <c r="D38" s="39"/>
+      <c r="D38" s="41"/>
       <c r="E38" s="19">
         <v>7</v>
       </c>
@@ -4341,7 +4434,7 @@
     </row>
     <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="33"/>
-      <c r="D39" s="39"/>
+      <c r="D39" s="41"/>
       <c r="E39" s="19">
         <v>8</v>
       </c>
@@ -4356,7 +4449,7 @@
     </row>
     <row r="40" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="33"/>
-      <c r="D40" s="39"/>
+      <c r="D40" s="41"/>
       <c r="E40" s="19">
         <v>9</v>
       </c>
@@ -4384,7 +4477,7 @@
       <c r="C42" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="39" t="s">
+      <c r="D42" s="41" t="s">
         <v>83</v>
       </c>
       <c r="E42" s="19">
@@ -4398,7 +4491,7 @@
     </row>
     <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="33"/>
-      <c r="D43" s="39"/>
+      <c r="D43" s="41"/>
       <c r="E43" s="19">
         <v>2</v>
       </c>
@@ -4413,7 +4506,7 @@
     </row>
     <row r="44" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="33"/>
-      <c r="D44" s="39"/>
+      <c r="D44" s="41"/>
       <c r="E44" s="19">
         <v>3</v>
       </c>
@@ -4428,7 +4521,7 @@
     </row>
     <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="33"/>
-      <c r="D45" s="39"/>
+      <c r="D45" s="41"/>
       <c r="E45" s="19">
         <v>4</v>
       </c>
@@ -4443,7 +4536,7 @@
     </row>
     <row r="46" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B46" s="33"/>
-      <c r="D46" s="39"/>
+      <c r="D46" s="41"/>
       <c r="E46" s="19">
         <v>5</v>
       </c>
@@ -4461,7 +4554,7 @@
     </row>
     <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="33"/>
-      <c r="D47" s="39"/>
+      <c r="D47" s="41"/>
       <c r="E47" s="19">
         <v>6</v>
       </c>
@@ -4479,7 +4572,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B48" s="33"/>
-      <c r="D48" s="39"/>
+      <c r="D48" s="41"/>
       <c r="E48" s="19">
         <v>7</v>
       </c>
@@ -4494,7 +4587,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B49" s="33"/>
-      <c r="D49" s="39"/>
+      <c r="D49" s="41"/>
       <c r="E49" s="19">
         <v>8</v>
       </c>
@@ -4509,7 +4602,7 @@
     </row>
     <row r="50" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="33"/>
-      <c r="D50" s="39"/>
+      <c r="D50" s="41"/>
       <c r="E50" s="19">
         <v>9</v>
       </c>
@@ -4537,7 +4630,7 @@
       <c r="C52" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="39" t="s">
+      <c r="D52" s="41" t="s">
         <v>84</v>
       </c>
       <c r="E52" s="19">
@@ -4551,7 +4644,7 @@
     </row>
     <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="33"/>
-      <c r="D53" s="39"/>
+      <c r="D53" s="41"/>
       <c r="E53" s="19">
         <v>2</v>
       </c>
@@ -4566,7 +4659,7 @@
     </row>
     <row r="54" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="33"/>
-      <c r="D54" s="39"/>
+      <c r="D54" s="41"/>
       <c r="E54" s="19">
         <v>3</v>
       </c>
@@ -4581,7 +4674,7 @@
     </row>
     <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" s="33"/>
-      <c r="D55" s="39"/>
+      <c r="D55" s="41"/>
       <c r="E55" s="19">
         <v>4</v>
       </c>
@@ -4596,7 +4689,7 @@
     </row>
     <row r="56" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B56" s="33"/>
-      <c r="D56" s="39"/>
+      <c r="D56" s="41"/>
       <c r="E56" s="19">
         <v>5</v>
       </c>
@@ -4614,7 +4707,7 @@
     </row>
     <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B57" s="33"/>
-      <c r="D57" s="39"/>
+      <c r="D57" s="41"/>
       <c r="E57" s="19">
         <v>6</v>
       </c>
@@ -4632,7 +4725,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B58" s="33"/>
-      <c r="D58" s="39"/>
+      <c r="D58" s="41"/>
       <c r="E58" s="19">
         <v>7</v>
       </c>
@@ -4647,7 +4740,7 @@
     </row>
     <row r="59" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="33"/>
-      <c r="D59" s="39"/>
+      <c r="D59" s="41"/>
       <c r="E59" s="19">
         <v>8</v>
       </c>
@@ -4662,7 +4755,7 @@
     </row>
     <row r="60" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="33"/>
-      <c r="D60" s="39"/>
+      <c r="D60" s="41"/>
       <c r="E60" s="19">
         <v>9</v>
       </c>
@@ -4677,7 +4770,7 @@
     </row>
     <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B61" s="33"/>
-      <c r="D61" s="39"/>
+      <c r="D61" s="41"/>
       <c r="E61" s="19">
         <v>10</v>
       </c>
@@ -4705,7 +4798,7 @@
       <c r="C63" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D63" s="39" t="s">
+      <c r="D63" s="41" t="s">
         <v>91</v>
       </c>
       <c r="E63" s="19">
@@ -4719,7 +4812,7 @@
     </row>
     <row r="64" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="33"/>
-      <c r="D64" s="39"/>
+      <c r="D64" s="41"/>
       <c r="E64" s="19">
         <v>2</v>
       </c>
@@ -4734,7 +4827,7 @@
     </row>
     <row r="65" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B65" s="33"/>
-      <c r="D65" s="39"/>
+      <c r="D65" s="41"/>
       <c r="E65" s="19">
         <v>3</v>
       </c>
@@ -4749,7 +4842,7 @@
     </row>
     <row r="66" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B66" s="33"/>
-      <c r="D66" s="39"/>
+      <c r="D66" s="41"/>
       <c r="E66" s="19">
         <v>4</v>
       </c>
@@ -4764,7 +4857,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B67" s="33"/>
-      <c r="D67" s="39"/>
+      <c r="D67" s="41"/>
       <c r="E67" s="19">
         <v>5</v>
       </c>
@@ -4792,7 +4885,7 @@
       <c r="C69" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D69" s="39" t="s">
+      <c r="D69" s="41" t="s">
         <v>93</v>
       </c>
       <c r="E69" s="19">
@@ -4806,7 +4899,7 @@
     </row>
     <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B70" s="33"/>
-      <c r="D70" s="39"/>
+      <c r="D70" s="41"/>
       <c r="E70" s="19">
         <v>2</v>
       </c>
@@ -4821,7 +4914,7 @@
     </row>
     <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B71" s="33"/>
-      <c r="D71" s="39"/>
+      <c r="D71" s="41"/>
       <c r="E71" s="19">
         <v>3</v>
       </c>
@@ -4836,7 +4929,7 @@
     </row>
     <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B72" s="33"/>
-      <c r="D72" s="39"/>
+      <c r="D72" s="41"/>
       <c r="E72" s="19">
         <v>4</v>
       </c>
@@ -4851,7 +4944,7 @@
     </row>
     <row r="73" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="33"/>
-      <c r="D73" s="39"/>
+      <c r="D73" s="41"/>
       <c r="E73" s="19">
         <v>5</v>
       </c>
@@ -4866,7 +4959,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B74" s="33"/>
-      <c r="D74" s="39"/>
+      <c r="D74" s="41"/>
       <c r="E74" s="19">
         <v>6</v>
       </c>
@@ -4894,7 +4987,7 @@
       <c r="C76" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D76" s="39" t="s">
+      <c r="D76" s="41" t="s">
         <v>98</v>
       </c>
       <c r="E76" s="19">
@@ -4908,7 +5001,7 @@
     </row>
     <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B77" s="33"/>
-      <c r="D77" s="39"/>
+      <c r="D77" s="41"/>
       <c r="E77" s="19">
         <v>2</v>
       </c>
@@ -4923,7 +5016,7 @@
     </row>
     <row r="78" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="33"/>
-      <c r="D78" s="39"/>
+      <c r="D78" s="41"/>
       <c r="E78" s="19">
         <v>3</v>
       </c>
@@ -4938,7 +5031,7 @@
     </row>
     <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B79" s="33"/>
-      <c r="D79" s="39"/>
+      <c r="D79" s="41"/>
       <c r="E79" s="19">
         <v>4</v>
       </c>
@@ -4966,7 +5059,7 @@
       <c r="C81" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D81" s="39" t="s">
+      <c r="D81" s="41" t="s">
         <v>101</v>
       </c>
       <c r="E81" s="19">
@@ -4980,7 +5073,7 @@
     </row>
     <row r="82" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B82" s="33"/>
-      <c r="D82" s="39"/>
+      <c r="D82" s="41"/>
       <c r="E82" s="19">
         <v>2</v>
       </c>
@@ -4995,7 +5088,7 @@
     </row>
     <row r="83" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="33"/>
-      <c r="D83" s="39"/>
+      <c r="D83" s="41"/>
       <c r="E83" s="19">
         <v>3</v>
       </c>
@@ -5010,7 +5103,7 @@
     </row>
     <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B84" s="33"/>
-      <c r="D84" s="39"/>
+      <c r="D84" s="41"/>
       <c r="E84" s="19">
         <v>4</v>
       </c>
@@ -5039,7 +5132,7 @@
       <c r="C86" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D86" s="39" t="s">
+      <c r="D86" s="41" t="s">
         <v>107</v>
       </c>
       <c r="E86" s="19">
@@ -5053,7 +5146,7 @@
     </row>
     <row r="87" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B87" s="33"/>
-      <c r="D87" s="39"/>
+      <c r="D87" s="41"/>
       <c r="E87" s="19">
         <v>2</v>
       </c>
@@ -5068,7 +5161,7 @@
     </row>
     <row r="88" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="33"/>
-      <c r="D88" s="39"/>
+      <c r="D88" s="41"/>
       <c r="E88" s="19">
         <v>3</v>
       </c>
@@ -5083,7 +5176,7 @@
     </row>
     <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B89" s="33"/>
-      <c r="D89" s="39"/>
+      <c r="D89" s="41"/>
       <c r="E89" s="19">
         <v>4</v>
       </c>
@@ -5098,7 +5191,7 @@
     </row>
     <row r="90" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B90" s="33"/>
-      <c r="D90" s="39"/>
+      <c r="D90" s="41"/>
       <c r="E90" s="19">
         <v>5</v>
       </c>
@@ -5116,7 +5209,7 @@
     </row>
     <row r="91" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B91" s="33"/>
-      <c r="D91" s="39"/>
+      <c r="D91" s="41"/>
       <c r="E91" s="19">
         <v>6</v>
       </c>
@@ -5134,7 +5227,7 @@
     </row>
     <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B92" s="33"/>
-      <c r="D92" s="39"/>
+      <c r="D92" s="41"/>
       <c r="E92" s="19">
         <v>7</v>
       </c>
@@ -5162,7 +5255,7 @@
       <c r="C94" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D94" s="39" t="s">
+      <c r="D94" s="41" t="s">
         <v>115</v>
       </c>
       <c r="E94" s="19">
@@ -5176,7 +5269,7 @@
     </row>
     <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B95" s="33"/>
-      <c r="D95" s="39"/>
+      <c r="D95" s="41"/>
       <c r="E95" s="19">
         <v>2</v>
       </c>
@@ -5191,7 +5284,7 @@
     </row>
     <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B96" s="33"/>
-      <c r="D96" s="39"/>
+      <c r="D96" s="41"/>
       <c r="E96" s="19">
         <v>3</v>
       </c>
@@ -5206,7 +5299,7 @@
     </row>
     <row r="97" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B97" s="33"/>
-      <c r="D97" s="39"/>
+      <c r="D97" s="41"/>
       <c r="E97" s="19">
         <v>4</v>
       </c>
@@ -5221,7 +5314,7 @@
     </row>
     <row r="98" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B98" s="33"/>
-      <c r="D98" s="39"/>
+      <c r="D98" s="41"/>
       <c r="E98" s="19">
         <v>5</v>
       </c>
@@ -5239,7 +5332,7 @@
     </row>
     <row r="99" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="33"/>
-      <c r="D99" s="39"/>
+      <c r="D99" s="41"/>
       <c r="E99" s="19">
         <v>6</v>
       </c>
@@ -5257,7 +5350,7 @@
     </row>
     <row r="100" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B100" s="33"/>
-      <c r="D100" s="39"/>
+      <c r="D100" s="41"/>
       <c r="E100" s="19">
         <v>7</v>
       </c>
@@ -5272,7 +5365,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B101" s="33"/>
-      <c r="D101" s="39"/>
+      <c r="D101" s="41"/>
       <c r="E101" s="19">
         <v>8</v>
       </c>
@@ -5300,7 +5393,7 @@
       <c r="C103" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D103" s="39" t="s">
+      <c r="D103" s="41" t="s">
         <v>115</v>
       </c>
       <c r="E103" s="19">
@@ -5314,7 +5407,7 @@
     </row>
     <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B104" s="33"/>
-      <c r="D104" s="39"/>
+      <c r="D104" s="41"/>
       <c r="E104" s="19">
         <v>2</v>
       </c>
@@ -5329,7 +5422,7 @@
     </row>
     <row r="105" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="33"/>
-      <c r="D105" s="39"/>
+      <c r="D105" s="41"/>
       <c r="E105" s="19">
         <v>3</v>
       </c>
@@ -5344,7 +5437,7 @@
     </row>
     <row r="106" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B106" s="33"/>
-      <c r="D106" s="39"/>
+      <c r="D106" s="41"/>
       <c r="E106" s="19">
         <v>4</v>
       </c>
@@ -5359,7 +5452,7 @@
     </row>
     <row r="107" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B107" s="33"/>
-      <c r="D107" s="39"/>
+      <c r="D107" s="41"/>
       <c r="E107" s="19">
         <v>5</v>
       </c>
@@ -5377,7 +5470,7 @@
     </row>
     <row r="108" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B108" s="33"/>
-      <c r="D108" s="39"/>
+      <c r="D108" s="41"/>
       <c r="E108" s="19">
         <v>6</v>
       </c>
@@ -5395,7 +5488,7 @@
     </row>
     <row r="109" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="33"/>
-      <c r="D109" s="39"/>
+      <c r="D109" s="41"/>
       <c r="E109" s="19">
         <v>7</v>
       </c>
@@ -5410,7 +5503,7 @@
     </row>
     <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B110" s="33"/>
-      <c r="D110" s="39"/>
+      <c r="D110" s="41"/>
       <c r="E110" s="19">
         <v>8</v>
       </c>
@@ -5438,7 +5531,7 @@
       <c r="C112" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D112" s="39" t="s">
+      <c r="D112" s="41" t="s">
         <v>121</v>
       </c>
       <c r="E112" s="19">
@@ -5452,7 +5545,7 @@
     </row>
     <row r="113" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B113" s="33"/>
-      <c r="D113" s="39"/>
+      <c r="D113" s="41"/>
       <c r="E113" s="19">
         <v>2</v>
       </c>
@@ -5467,7 +5560,7 @@
     </row>
     <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B114" s="33"/>
-      <c r="D114" s="39"/>
+      <c r="D114" s="41"/>
       <c r="E114" s="19">
         <v>3</v>
       </c>
@@ -5482,7 +5575,7 @@
     </row>
     <row r="115" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="33"/>
-      <c r="D115" s="39"/>
+      <c r="D115" s="41"/>
       <c r="E115" s="19">
         <v>4</v>
       </c>
@@ -5497,7 +5590,7 @@
     </row>
     <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B116" s="33"/>
-      <c r="D116" s="39"/>
+      <c r="D116" s="41"/>
       <c r="E116" s="19">
         <v>5</v>
       </c>
@@ -5512,7 +5605,7 @@
     </row>
     <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B117" s="33"/>
-      <c r="D117" s="39"/>
+      <c r="D117" s="41"/>
       <c r="E117" s="19">
         <v>6</v>
       </c>
@@ -5540,7 +5633,7 @@
       <c r="C119" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D119" s="39" t="s">
+      <c r="D119" s="41" t="s">
         <v>123</v>
       </c>
       <c r="E119" s="19">
@@ -5554,7 +5647,7 @@
     </row>
     <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B120" s="33"/>
-      <c r="D120" s="39"/>
+      <c r="D120" s="41"/>
       <c r="E120" s="19">
         <v>2</v>
       </c>
@@ -5569,7 +5662,7 @@
     </row>
     <row r="121" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B121" s="33"/>
-      <c r="D121" s="39"/>
+      <c r="D121" s="41"/>
       <c r="E121" s="19">
         <v>3</v>
       </c>
@@ -5584,7 +5677,7 @@
     </row>
     <row r="122" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B122" s="33"/>
-      <c r="D122" s="39"/>
+      <c r="D122" s="41"/>
       <c r="E122" s="19">
         <v>4</v>
       </c>
@@ -5599,7 +5692,7 @@
     </row>
     <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="33"/>
-      <c r="D123" s="39"/>
+      <c r="D123" s="41"/>
       <c r="E123" s="19">
         <v>5</v>
       </c>
@@ -5614,7 +5707,7 @@
     </row>
     <row r="124" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="33"/>
-      <c r="D124" s="39"/>
+      <c r="D124" s="41"/>
       <c r="E124" s="19">
         <v>6</v>
       </c>
@@ -5629,7 +5722,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B125" s="33"/>
-      <c r="D125" s="39"/>
+      <c r="D125" s="41"/>
       <c r="E125" s="19">
         <v>7</v>
       </c>
@@ -5657,7 +5750,7 @@
       <c r="C127" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D127" s="39" t="s">
+      <c r="D127" s="41" t="s">
         <v>123</v>
       </c>
       <c r="E127" s="19">
@@ -5671,7 +5764,7 @@
     </row>
     <row r="128" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B128" s="33"/>
-      <c r="D128" s="39"/>
+      <c r="D128" s="41"/>
       <c r="E128" s="19">
         <v>2</v>
       </c>
@@ -5686,7 +5779,7 @@
     </row>
     <row r="129" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="33"/>
-      <c r="D129" s="39"/>
+      <c r="D129" s="41"/>
       <c r="E129" s="19">
         <v>3</v>
       </c>
@@ -5701,7 +5794,7 @@
     </row>
     <row r="130" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B130" s="33"/>
-      <c r="D130" s="39"/>
+      <c r="D130" s="41"/>
       <c r="E130" s="19">
         <v>4</v>
       </c>
@@ -5716,7 +5809,7 @@
     </row>
     <row r="131" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B131" s="33"/>
-      <c r="D131" s="39"/>
+      <c r="D131" s="41"/>
       <c r="E131" s="19">
         <v>5</v>
       </c>
@@ -5731,7 +5824,7 @@
     </row>
     <row r="132" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B132" s="33"/>
-      <c r="D132" s="39"/>
+      <c r="D132" s="41"/>
       <c r="E132" s="19">
         <v>6</v>
       </c>
@@ -5746,7 +5839,7 @@
     </row>
     <row r="133" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="33"/>
-      <c r="D133" s="39"/>
+      <c r="D133" s="41"/>
       <c r="E133" s="19">
         <v>7</v>
       </c>
@@ -5774,7 +5867,7 @@
       <c r="C135" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D135" s="39" t="s">
+      <c r="D135" s="41" t="s">
         <v>133</v>
       </c>
       <c r="E135" s="19">
@@ -5788,7 +5881,7 @@
     </row>
     <row r="136" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B136" s="33"/>
-      <c r="D136" s="39"/>
+      <c r="D136" s="41"/>
       <c r="E136" s="19">
         <v>2</v>
       </c>
@@ -5803,7 +5896,7 @@
     </row>
     <row r="137" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B137" s="33"/>
-      <c r="D137" s="39"/>
+      <c r="D137" s="41"/>
       <c r="E137" s="19">
         <v>3</v>
       </c>
@@ -5818,7 +5911,7 @@
     </row>
     <row r="138" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="33"/>
-      <c r="D138" s="39"/>
+      <c r="D138" s="41"/>
       <c r="E138" s="19">
         <v>4</v>
       </c>
@@ -5833,7 +5926,7 @@
     </row>
     <row r="139" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B139" s="33"/>
-      <c r="D139" s="39"/>
+      <c r="D139" s="41"/>
       <c r="E139" s="19">
         <v>5</v>
       </c>
@@ -5851,7 +5944,7 @@
     </row>
     <row r="140" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B140" s="33"/>
-      <c r="D140" s="39"/>
+      <c r="D140" s="41"/>
       <c r="E140" s="19">
         <v>6</v>
       </c>
@@ -5869,7 +5962,7 @@
     </row>
     <row r="141" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B141" s="33"/>
-      <c r="D141" s="39"/>
+      <c r="D141" s="41"/>
       <c r="E141" s="19">
         <v>7</v>
       </c>
@@ -5887,7 +5980,7 @@
     </row>
     <row r="142" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B142" s="33"/>
-      <c r="D142" s="39"/>
+      <c r="D142" s="41"/>
       <c r="E142" s="19">
         <v>8</v>
       </c>
@@ -5905,7 +5998,7 @@
     </row>
     <row r="143" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="33"/>
-      <c r="D143" s="39"/>
+      <c r="D143" s="41"/>
       <c r="E143" s="19">
         <v>9</v>
       </c>
@@ -5923,7 +6016,7 @@
     </row>
     <row r="144" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B144" s="33"/>
-      <c r="D144" s="39"/>
+      <c r="D144" s="41"/>
       <c r="E144" s="19">
         <v>10</v>
       </c>
@@ -5951,7 +6044,7 @@
       <c r="C146" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D146" s="39" t="s">
+      <c r="D146" s="41" t="s">
         <v>137</v>
       </c>
       <c r="E146" s="19">
@@ -5965,7 +6058,7 @@
     </row>
     <row r="147" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B147" s="33"/>
-      <c r="D147" s="39"/>
+      <c r="D147" s="41"/>
       <c r="E147" s="19">
         <v>2</v>
       </c>
@@ -5980,7 +6073,7 @@
     </row>
     <row r="148" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B148" s="33"/>
-      <c r="D148" s="39"/>
+      <c r="D148" s="41"/>
       <c r="E148" s="19">
         <v>3</v>
       </c>
@@ -5995,7 +6088,7 @@
     </row>
     <row r="149" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="33"/>
-      <c r="D149" s="39"/>
+      <c r="D149" s="41"/>
       <c r="E149" s="19">
         <v>4</v>
       </c>
@@ -6010,7 +6103,7 @@
     </row>
     <row r="150" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="33"/>
-      <c r="D150" s="39"/>
+      <c r="D150" s="41"/>
       <c r="E150" s="19">
         <v>5</v>
       </c>
@@ -6028,7 +6121,7 @@
     </row>
     <row r="151" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B151" s="33"/>
-      <c r="D151" s="39"/>
+      <c r="D151" s="41"/>
       <c r="E151" s="19">
         <v>6</v>
       </c>
@@ -6046,7 +6139,7 @@
     </row>
     <row r="152" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B152" s="33"/>
-      <c r="D152" s="39"/>
+      <c r="D152" s="41"/>
       <c r="E152" s="19">
         <v>7</v>
       </c>
@@ -6064,7 +6157,7 @@
     </row>
     <row r="153" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B153" s="33"/>
-      <c r="D153" s="39"/>
+      <c r="D153" s="41"/>
       <c r="E153" s="19">
         <v>8</v>
       </c>
@@ -6082,7 +6175,7 @@
     </row>
     <row r="154" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B154" s="33"/>
-      <c r="D154" s="39"/>
+      <c r="D154" s="41"/>
       <c r="E154" s="19">
         <v>9</v>
       </c>
@@ -6100,7 +6193,7 @@
     </row>
     <row r="155" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B155" s="33"/>
-      <c r="D155" s="39"/>
+      <c r="D155" s="41"/>
       <c r="E155" s="19">
         <v>10</v>
       </c>
@@ -6115,7 +6208,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B156" s="33"/>
-      <c r="D156" s="39"/>
+      <c r="D156" s="41"/>
       <c r="E156" s="19">
         <v>11</v>
       </c>
@@ -6145,7 +6238,7 @@
       <c r="C158" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D158" s="39" t="s">
+      <c r="D158" s="41" t="s">
         <v>154</v>
       </c>
       <c r="E158" s="19">
@@ -6159,7 +6252,7 @@
     </row>
     <row r="159" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B159" s="33"/>
-      <c r="D159" s="39"/>
+      <c r="D159" s="41"/>
       <c r="E159" s="19">
         <v>2</v>
       </c>
@@ -6174,7 +6267,7 @@
     </row>
     <row r="160" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B160" s="33"/>
-      <c r="D160" s="39"/>
+      <c r="D160" s="41"/>
       <c r="E160" s="19">
         <v>3</v>
       </c>
@@ -6189,7 +6282,7 @@
     </row>
     <row r="161" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B161" s="33"/>
-      <c r="D161" s="39"/>
+      <c r="D161" s="41"/>
       <c r="E161" s="19">
         <v>4</v>
       </c>
@@ -6204,7 +6297,7 @@
     </row>
     <row r="162" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B162" s="33"/>
-      <c r="D162" s="39"/>
+      <c r="D162" s="41"/>
       <c r="E162" s="19">
         <v>5</v>
       </c>
@@ -6222,7 +6315,7 @@
     </row>
     <row r="163" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B163" s="33"/>
-      <c r="D163" s="39"/>
+      <c r="D163" s="41"/>
       <c r="E163" s="19">
         <v>6</v>
       </c>
@@ -6240,7 +6333,7 @@
     </row>
     <row r="164" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B164" s="33"/>
-      <c r="D164" s="39"/>
+      <c r="D164" s="41"/>
       <c r="E164" s="19">
         <v>7</v>
       </c>
@@ -6260,7 +6353,7 @@
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
-      <c r="D165" s="39"/>
+      <c r="D165" s="41"/>
       <c r="E165" s="19">
         <v>8</v>
       </c>
@@ -6280,7 +6373,7 @@
       <c r="A166"/>
       <c r="B166"/>
       <c r="C166"/>
-      <c r="D166" s="39"/>
+      <c r="D166" s="41"/>
       <c r="E166" s="19">
         <v>9</v>
       </c>
@@ -6300,7 +6393,7 @@
       <c r="A167"/>
       <c r="B167"/>
       <c r="C167"/>
-      <c r="D167" s="39"/>
+      <c r="D167" s="41"/>
       <c r="E167" s="19">
         <v>10</v>
       </c>
@@ -6317,7 +6410,7 @@
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
-      <c r="D168" s="39"/>
+      <c r="D168" s="41"/>
       <c r="E168" s="19">
         <v>11</v>
       </c>
@@ -6346,7 +6439,7 @@
       <c r="C170" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D170" s="39" t="s">
+      <c r="D170" s="41" t="s">
         <v>199</v>
       </c>
       <c r="E170" s="19">
@@ -6360,7 +6453,7 @@
     </row>
     <row r="171" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B171" s="33"/>
-      <c r="D171" s="39"/>
+      <c r="D171" s="41"/>
       <c r="E171" s="19">
         <v>2</v>
       </c>
@@ -6375,7 +6468,7 @@
     </row>
     <row r="172" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B172" s="33"/>
-      <c r="D172" s="39"/>
+      <c r="D172" s="41"/>
       <c r="E172" s="19">
         <v>3</v>
       </c>
@@ -6390,7 +6483,7 @@
     </row>
     <row r="173" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B173" s="33"/>
-      <c r="D173" s="39"/>
+      <c r="D173" s="41"/>
       <c r="E173" s="19">
         <v>4</v>
       </c>
@@ -6405,7 +6498,7 @@
     </row>
     <row r="174" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B174" s="33"/>
-      <c r="D174" s="39"/>
+      <c r="D174" s="41"/>
       <c r="E174" s="19">
         <v>5</v>
       </c>
@@ -6423,7 +6516,7 @@
     </row>
     <row r="175" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B175" s="33"/>
-      <c r="D175" s="39"/>
+      <c r="D175" s="41"/>
       <c r="E175" s="19">
         <v>6</v>
       </c>
@@ -6441,7 +6534,7 @@
     </row>
     <row r="176" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B176" s="33"/>
-      <c r="D176" s="39"/>
+      <c r="D176" s="41"/>
       <c r="E176" s="19">
         <v>7</v>
       </c>
@@ -6459,7 +6552,7 @@
     </row>
     <row r="177" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B177" s="33"/>
-      <c r="D177" s="39"/>
+      <c r="D177" s="41"/>
       <c r="E177" s="19">
         <v>8</v>
       </c>
@@ -6477,7 +6570,7 @@
     </row>
     <row r="178" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="33"/>
-      <c r="D178" s="39"/>
+      <c r="D178" s="41"/>
       <c r="E178" s="19">
         <v>9</v>
       </c>
@@ -6495,7 +6588,7 @@
     </row>
     <row r="179" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B179" s="33"/>
-      <c r="D179" s="39"/>
+      <c r="D179" s="41"/>
       <c r="E179" s="19">
         <v>10</v>
       </c>
@@ -6510,7 +6603,7 @@
     </row>
     <row r="180" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B180" s="33"/>
-      <c r="D180" s="39"/>
+      <c r="D180" s="41"/>
       <c r="E180" s="19">
         <v>11</v>
       </c>
@@ -6538,7 +6631,7 @@
       <c r="C182" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D182" s="39" t="s">
+      <c r="D182" s="41" t="s">
         <v>202</v>
       </c>
       <c r="E182" s="19">
@@ -6552,7 +6645,7 @@
     </row>
     <row r="183" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B183" s="33"/>
-      <c r="D183" s="39"/>
+      <c r="D183" s="41"/>
       <c r="E183" s="19">
         <v>2</v>
       </c>
@@ -6567,7 +6660,7 @@
     </row>
     <row r="184" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B184" s="33"/>
-      <c r="D184" s="39"/>
+      <c r="D184" s="41"/>
       <c r="E184" s="19">
         <v>3</v>
       </c>
@@ -6582,7 +6675,7 @@
     </row>
     <row r="185" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B185" s="33"/>
-      <c r="D185" s="39"/>
+      <c r="D185" s="41"/>
       <c r="E185" s="19">
         <v>4</v>
       </c>
@@ -6597,7 +6690,7 @@
     </row>
     <row r="186" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B186" s="33"/>
-      <c r="D186" s="39"/>
+      <c r="D186" s="41"/>
       <c r="E186" s="19">
         <v>5</v>
       </c>
@@ -6615,7 +6708,7 @@
     </row>
     <row r="187" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B187" s="33"/>
-      <c r="D187" s="39"/>
+      <c r="D187" s="41"/>
       <c r="E187" s="19">
         <v>6</v>
       </c>
@@ -6633,7 +6726,7 @@
     </row>
     <row r="188" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B188" s="33"/>
-      <c r="D188" s="39"/>
+      <c r="D188" s="41"/>
       <c r="E188" s="19">
         <v>7</v>
       </c>
@@ -6651,7 +6744,7 @@
     </row>
     <row r="189" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="33"/>
-      <c r="D189" s="39"/>
+      <c r="D189" s="41"/>
       <c r="E189" s="19">
         <v>8</v>
       </c>
@@ -6669,7 +6762,7 @@
     </row>
     <row r="190" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="B190" s="33"/>
-      <c r="D190" s="39"/>
+      <c r="D190" s="41"/>
       <c r="E190" s="19">
         <v>9</v>
       </c>
@@ -6687,7 +6780,7 @@
     </row>
     <row r="191" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B191" s="33"/>
-      <c r="D191" s="39"/>
+      <c r="D191" s="41"/>
       <c r="E191" s="19">
         <v>10</v>
       </c>
@@ -6702,7 +6795,7 @@
     </row>
     <row r="192" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B192" s="33"/>
-      <c r="D192" s="39"/>
+      <c r="D192" s="41"/>
       <c r="E192" s="19">
         <v>11</v>
       </c>
@@ -6717,7 +6810,7 @@
     </row>
     <row r="193" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="33"/>
-      <c r="D193" s="39"/>
+      <c r="D193" s="41"/>
       <c r="E193" s="19">
         <v>11</v>
       </c>
@@ -6747,7 +6840,7 @@
       <c r="C195" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D195" s="39" t="s">
+      <c r="D195" s="41" t="s">
         <v>203</v>
       </c>
       <c r="E195" s="19">
@@ -6761,7 +6854,7 @@
     </row>
     <row r="196" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B196" s="33"/>
-      <c r="D196" s="39"/>
+      <c r="D196" s="41"/>
       <c r="E196" s="19">
         <v>2</v>
       </c>
@@ -6776,7 +6869,7 @@
     </row>
     <row r="197" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B197" s="33"/>
-      <c r="D197" s="39"/>
+      <c r="D197" s="41"/>
       <c r="E197" s="19">
         <v>3</v>
       </c>
@@ -6791,7 +6884,7 @@
     </row>
     <row r="198" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="33"/>
-      <c r="D198" s="39"/>
+      <c r="D198" s="41"/>
       <c r="E198" s="19">
         <v>4</v>
       </c>
@@ -6806,7 +6899,7 @@
     </row>
     <row r="199" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B199" s="33"/>
-      <c r="D199" s="39"/>
+      <c r="D199" s="41"/>
       <c r="E199" s="19">
         <v>5</v>
       </c>
@@ -6824,7 +6917,7 @@
     </row>
     <row r="200" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B200" s="33"/>
-      <c r="D200" s="39"/>
+      <c r="D200" s="41"/>
       <c r="E200" s="19">
         <v>6</v>
       </c>
@@ -6842,7 +6935,7 @@
     </row>
     <row r="201" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B201" s="33"/>
-      <c r="D201" s="39"/>
+      <c r="D201" s="41"/>
       <c r="E201" s="19">
         <v>7</v>
       </c>
@@ -6862,7 +6955,7 @@
       <c r="A202"/>
       <c r="B202"/>
       <c r="C202"/>
-      <c r="D202" s="39"/>
+      <c r="D202" s="41"/>
       <c r="E202" s="19">
         <v>8</v>
       </c>
@@ -6882,7 +6975,7 @@
       <c r="A203"/>
       <c r="B203"/>
       <c r="C203"/>
-      <c r="D203" s="39"/>
+      <c r="D203" s="41"/>
       <c r="E203" s="19">
         <v>9</v>
       </c>
@@ -6902,7 +6995,7 @@
       <c r="A204"/>
       <c r="B204"/>
       <c r="C204"/>
-      <c r="D204" s="39"/>
+      <c r="D204" s="41"/>
       <c r="E204" s="19">
         <v>10</v>
       </c>
@@ -6919,7 +7012,7 @@
       <c r="A205"/>
       <c r="B205"/>
       <c r="C205"/>
-      <c r="D205" s="39"/>
+      <c r="D205" s="41"/>
       <c r="E205" s="19">
         <v>11</v>
       </c>
@@ -6936,7 +7029,7 @@
       <c r="A206"/>
       <c r="B206"/>
       <c r="C206"/>
-      <c r="D206" s="39"/>
+      <c r="D206" s="41"/>
       <c r="E206" s="19">
         <v>12</v>
       </c>
@@ -6965,7 +7058,7 @@
       <c r="C208" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D208" s="39" t="s">
+      <c r="D208" s="41" t="s">
         <v>205</v>
       </c>
       <c r="E208" s="19">
@@ -6979,7 +7072,7 @@
     </row>
     <row r="209" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B209" s="33"/>
-      <c r="D209" s="39"/>
+      <c r="D209" s="41"/>
       <c r="E209" s="19">
         <v>2</v>
       </c>
@@ -6994,7 +7087,7 @@
     </row>
     <row r="210" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="33"/>
-      <c r="D210" s="39"/>
+      <c r="D210" s="41"/>
       <c r="E210" s="19">
         <v>3</v>
       </c>
@@ -7009,7 +7102,7 @@
     </row>
     <row r="211" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B211" s="33"/>
-      <c r="D211" s="39"/>
+      <c r="D211" s="41"/>
       <c r="E211" s="19">
         <v>4</v>
       </c>
@@ -7024,7 +7117,7 @@
     </row>
     <row r="212" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B212" s="33"/>
-      <c r="D212" s="39"/>
+      <c r="D212" s="41"/>
       <c r="E212" s="19">
         <v>5</v>
       </c>
@@ -7042,7 +7135,7 @@
     </row>
     <row r="213" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="B213" s="33"/>
-      <c r="D213" s="39"/>
+      <c r="D213" s="41"/>
       <c r="E213" s="19">
         <v>6</v>
       </c>
@@ -7060,7 +7153,7 @@
     </row>
     <row r="214" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B214" s="33"/>
-      <c r="D214" s="39"/>
+      <c r="D214" s="41"/>
       <c r="E214" s="19">
         <v>7</v>
       </c>
@@ -7075,7 +7168,7 @@
     </row>
     <row r="215" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B215" s="33"/>
-      <c r="D215" s="39"/>
+      <c r="D215" s="41"/>
       <c r="E215" s="19">
         <v>8</v>
       </c>
@@ -7090,7 +7183,7 @@
     </row>
     <row r="216" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B216" s="33"/>
-      <c r="D216" s="39"/>
+      <c r="D216" s="41"/>
       <c r="E216" s="19">
         <v>9</v>
       </c>
@@ -7118,7 +7211,7 @@
       <c r="C218" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D218" s="39" t="s">
+      <c r="D218" s="41" t="s">
         <v>208</v>
       </c>
       <c r="E218" s="19">
@@ -7132,7 +7225,7 @@
     </row>
     <row r="219" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B219" s="33"/>
-      <c r="D219" s="39"/>
+      <c r="D219" s="41"/>
       <c r="E219" s="19">
         <v>2</v>
       </c>
@@ -7147,7 +7240,7 @@
     </row>
     <row r="220" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B220" s="33"/>
-      <c r="D220" s="39"/>
+      <c r="D220" s="41"/>
       <c r="E220" s="19">
         <v>3</v>
       </c>
@@ -7162,7 +7255,7 @@
     </row>
     <row r="221" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B221" s="33"/>
-      <c r="D221" s="39"/>
+      <c r="D221" s="41"/>
       <c r="E221" s="19">
         <v>4</v>
       </c>
@@ -7177,7 +7270,7 @@
     </row>
     <row r="222" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B222" s="33"/>
-      <c r="D222" s="39"/>
+      <c r="D222" s="41"/>
       <c r="E222" s="19">
         <v>5</v>
       </c>
@@ -7195,7 +7288,7 @@
     </row>
     <row r="223" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="33"/>
-      <c r="D223" s="39"/>
+      <c r="D223" s="41"/>
       <c r="E223" s="19">
         <v>6</v>
       </c>
@@ -7213,7 +7306,7 @@
     </row>
     <row r="224" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="33"/>
-      <c r="D224" s="39"/>
+      <c r="D224" s="41"/>
       <c r="E224" s="19">
         <v>7</v>
       </c>
@@ -7228,7 +7321,7 @@
     </row>
     <row r="225" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B225" s="33"/>
-      <c r="D225" s="39"/>
+      <c r="D225" s="41"/>
       <c r="E225" s="19">
         <v>8</v>
       </c>
@@ -7243,7 +7336,7 @@
     </row>
     <row r="226" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="33"/>
-      <c r="D226" s="39"/>
+      <c r="D226" s="41"/>
       <c r="E226" s="19">
         <v>9</v>
       </c>
@@ -7258,7 +7351,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B227" s="33"/>
-      <c r="D227" s="39"/>
+      <c r="D227" s="41"/>
       <c r="E227" s="19">
         <v>10</v>
       </c>
@@ -7288,7 +7381,7 @@
       <c r="C229" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D229" s="39" t="s">
+      <c r="D229" s="41" t="s">
         <v>209</v>
       </c>
       <c r="E229" s="19">
@@ -7302,7 +7395,7 @@
     </row>
     <row r="230" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B230" s="33"/>
-      <c r="D230" s="39"/>
+      <c r="D230" s="41"/>
       <c r="E230" s="19">
         <v>2</v>
       </c>
@@ -7317,7 +7410,7 @@
     </row>
     <row r="231" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B231" s="33"/>
-      <c r="D231" s="39"/>
+      <c r="D231" s="41"/>
       <c r="E231" s="19">
         <v>3</v>
       </c>
@@ -7332,7 +7425,7 @@
     </row>
     <row r="232" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B232" s="33"/>
-      <c r="D232" s="39"/>
+      <c r="D232" s="41"/>
       <c r="E232" s="19">
         <v>4</v>
       </c>
@@ -7347,7 +7440,7 @@
     </row>
     <row r="233" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B233" s="33"/>
-      <c r="D233" s="39"/>
+      <c r="D233" s="41"/>
       <c r="E233" s="19">
         <v>5</v>
       </c>
@@ -7365,7 +7458,7 @@
     </row>
     <row r="234" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="B234" s="33"/>
-      <c r="D234" s="39"/>
+      <c r="D234" s="41"/>
       <c r="E234" s="19">
         <v>6</v>
       </c>
@@ -7383,7 +7476,7 @@
     </row>
     <row r="235" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B235" s="33"/>
-      <c r="D235" s="39"/>
+      <c r="D235" s="41"/>
       <c r="E235" s="19">
         <v>7</v>
       </c>
@@ -7400,7 +7493,7 @@
       <c r="A236"/>
       <c r="B236"/>
       <c r="C236"/>
-      <c r="D236" s="39"/>
+      <c r="D236" s="41"/>
       <c r="E236" s="19">
         <v>8</v>
       </c>
@@ -7417,7 +7510,7 @@
       <c r="A237"/>
       <c r="B237"/>
       <c r="C237"/>
-      <c r="D237" s="39"/>
+      <c r="D237" s="41"/>
       <c r="E237" s="19">
         <v>9</v>
       </c>
@@ -7434,7 +7527,7 @@
       <c r="A238"/>
       <c r="B238"/>
       <c r="C238"/>
-      <c r="D238" s="39"/>
+      <c r="D238" s="41"/>
       <c r="E238" s="19">
         <v>10</v>
       </c>
@@ -7463,7 +7556,7 @@
       <c r="C240" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D240" s="39" t="s">
+      <c r="D240" s="41" t="s">
         <v>192</v>
       </c>
       <c r="E240" s="19">
@@ -7477,7 +7570,7 @@
     </row>
     <row r="241" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B241" s="33"/>
-      <c r="D241" s="39"/>
+      <c r="D241" s="41"/>
       <c r="E241" s="19">
         <v>2</v>
       </c>
@@ -7492,7 +7585,7 @@
     </row>
     <row r="242" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B242" s="33"/>
-      <c r="D242" s="39"/>
+      <c r="D242" s="41"/>
       <c r="E242" s="19">
         <v>3</v>
       </c>
@@ -7507,7 +7600,7 @@
     </row>
     <row r="243" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="33"/>
-      <c r="D243" s="39"/>
+      <c r="D243" s="41"/>
       <c r="E243" s="19">
         <v>4</v>
       </c>
@@ -7522,7 +7615,7 @@
     </row>
     <row r="244" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B244" s="33"/>
-      <c r="D244" s="39"/>
+      <c r="D244" s="41"/>
       <c r="E244" s="19">
         <v>5</v>
       </c>
@@ -7540,7 +7633,7 @@
     </row>
     <row r="245" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B245" s="33"/>
-      <c r="D245" s="39"/>
+      <c r="D245" s="41"/>
       <c r="E245" s="19">
         <v>6</v>
       </c>
@@ -7568,7 +7661,7 @@
       <c r="C247" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D247" s="39" t="s">
+      <c r="D247" s="41" t="s">
         <v>196</v>
       </c>
       <c r="E247" s="19">
@@ -7582,7 +7675,7 @@
     </row>
     <row r="248" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B248" s="33"/>
-      <c r="D248" s="39"/>
+      <c r="D248" s="41"/>
       <c r="E248" s="19">
         <v>2</v>
       </c>
@@ -7597,7 +7690,7 @@
     </row>
     <row r="249" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B249" s="33"/>
-      <c r="D249" s="39"/>
+      <c r="D249" s="41"/>
       <c r="E249" s="19">
         <v>3</v>
       </c>
@@ -7612,7 +7705,7 @@
     </row>
     <row r="250" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B250" s="33"/>
-      <c r="D250" s="39"/>
+      <c r="D250" s="41"/>
       <c r="E250" s="19">
         <v>4</v>
       </c>
@@ -7627,7 +7720,7 @@
     </row>
     <row r="251" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B251" s="33"/>
-      <c r="D251" s="39"/>
+      <c r="D251" s="41"/>
       <c r="E251" s="19">
         <v>5</v>
       </c>
@@ -7645,7 +7738,7 @@
     </row>
     <row r="252" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B252" s="33"/>
-      <c r="D252" s="39"/>
+      <c r="D252" s="41"/>
       <c r="E252" s="19">
         <v>6</v>
       </c>
@@ -7660,7 +7753,7 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B253" s="33"/>
-      <c r="D253" s="39"/>
+      <c r="D253" s="41"/>
       <c r="E253" s="19">
         <v>7</v>
       </c>
@@ -7690,7 +7783,7 @@
       <c r="C255" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D255" s="39" t="s">
+      <c r="D255" s="41" t="s">
         <v>197</v>
       </c>
       <c r="E255" s="19">
@@ -7704,7 +7797,7 @@
     </row>
     <row r="256" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B256" s="33"/>
-      <c r="D256" s="39"/>
+      <c r="D256" s="41"/>
       <c r="E256" s="19">
         <v>2</v>
       </c>
@@ -7719,7 +7812,7 @@
     </row>
     <row r="257" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B257" s="33"/>
-      <c r="D257" s="39"/>
+      <c r="D257" s="41"/>
       <c r="E257" s="19">
         <v>3</v>
       </c>
@@ -7734,7 +7827,7 @@
     </row>
     <row r="258" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B258" s="33"/>
-      <c r="D258" s="39"/>
+      <c r="D258" s="41"/>
       <c r="E258" s="19">
         <v>4</v>
       </c>
@@ -7749,7 +7842,7 @@
     </row>
     <row r="259" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B259" s="33"/>
-      <c r="D259" s="39"/>
+      <c r="D259" s="41"/>
       <c r="E259" s="19">
         <v>5</v>
       </c>
@@ -7767,7 +7860,7 @@
     </row>
     <row r="260" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B260" s="33"/>
-      <c r="D260" s="39"/>
+      <c r="D260" s="41"/>
       <c r="E260" s="19">
         <v>6</v>
       </c>
@@ -7784,7 +7877,7 @@
       <c r="A261"/>
       <c r="B261"/>
       <c r="C261"/>
-      <c r="D261" s="39"/>
+      <c r="D261" s="41"/>
       <c r="E261" s="19">
         <v>7</v>
       </c>
@@ -7813,7 +7906,7 @@
       <c r="C263" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D263" s="39" t="s">
+      <c r="D263" s="41" t="s">
         <v>217</v>
       </c>
       <c r="E263" s="19">
@@ -7827,7 +7920,7 @@
     </row>
     <row r="264" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B264" s="33"/>
-      <c r="D264" s="39"/>
+      <c r="D264" s="41"/>
       <c r="E264" s="19">
         <v>2</v>
       </c>
@@ -7842,7 +7935,7 @@
     </row>
     <row r="265" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B265" s="33"/>
-      <c r="D265" s="39"/>
+      <c r="D265" s="41"/>
       <c r="E265" s="19">
         <v>3</v>
       </c>
@@ -7857,7 +7950,7 @@
     </row>
     <row r="266" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B266" s="33"/>
-      <c r="D266" s="39"/>
+      <c r="D266" s="41"/>
       <c r="E266" s="19">
         <v>4</v>
       </c>
@@ -7872,7 +7965,7 @@
     </row>
     <row r="267" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B267" s="33"/>
-      <c r="D267" s="39"/>
+      <c r="D267" s="41"/>
       <c r="E267" s="19">
         <v>5</v>
       </c>
@@ -7890,7 +7983,7 @@
     </row>
     <row r="268" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B268" s="33"/>
-      <c r="D268" s="39"/>
+      <c r="D268" s="41"/>
       <c r="E268" s="19">
         <v>6</v>
       </c>
@@ -7905,7 +7998,7 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B269" s="33"/>
-      <c r="D269" s="39"/>
+      <c r="D269" s="41"/>
       <c r="E269" s="19">
         <v>7</v>
       </c>
@@ -7933,7 +8026,7 @@
       <c r="C271" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D271" s="39" t="s">
+      <c r="D271" s="41" t="s">
         <v>220</v>
       </c>
       <c r="E271" s="19">
@@ -7947,7 +8040,7 @@
     </row>
     <row r="272" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B272" s="33"/>
-      <c r="D272" s="39"/>
+      <c r="D272" s="41"/>
       <c r="E272" s="19">
         <v>2</v>
       </c>
@@ -7962,7 +8055,7 @@
     </row>
     <row r="273" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B273" s="33"/>
-      <c r="D273" s="39"/>
+      <c r="D273" s="41"/>
       <c r="E273" s="19">
         <v>3</v>
       </c>
@@ -7977,7 +8070,7 @@
     </row>
     <row r="274" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B274" s="33"/>
-      <c r="D274" s="39"/>
+      <c r="D274" s="41"/>
       <c r="E274" s="19">
         <v>4</v>
       </c>
@@ -7992,7 +8085,7 @@
     </row>
     <row r="275" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B275" s="33"/>
-      <c r="D275" s="39"/>
+      <c r="D275" s="41"/>
       <c r="E275" s="19">
         <v>5</v>
       </c>
@@ -8010,7 +8103,7 @@
     </row>
     <row r="276" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B276" s="33"/>
-      <c r="D276" s="39"/>
+      <c r="D276" s="41"/>
       <c r="E276" s="19">
         <v>6</v>
       </c>
@@ -8025,7 +8118,7 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B277" s="33"/>
-      <c r="D277" s="39"/>
+      <c r="D277" s="41"/>
       <c r="E277" s="19">
         <v>7</v>
       </c>
@@ -8040,7 +8133,7 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B278" s="33"/>
-      <c r="D278" s="39"/>
+      <c r="D278" s="41"/>
       <c r="E278" s="19">
         <v>8</v>
       </c>
@@ -8070,7 +8163,7 @@
       <c r="C280" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D280" s="39" t="s">
+      <c r="D280" s="41" t="s">
         <v>221</v>
       </c>
       <c r="E280" s="19">
@@ -8084,7 +8177,7 @@
     </row>
     <row r="281" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="33"/>
-      <c r="D281" s="39"/>
+      <c r="D281" s="41"/>
       <c r="E281" s="19">
         <v>2</v>
       </c>
@@ -8099,7 +8192,7 @@
     </row>
     <row r="282" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B282" s="33"/>
-      <c r="D282" s="39"/>
+      <c r="D282" s="41"/>
       <c r="E282" s="19">
         <v>3</v>
       </c>
@@ -8114,7 +8207,7 @@
     </row>
     <row r="283" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B283" s="33"/>
-      <c r="D283" s="39"/>
+      <c r="D283" s="41"/>
       <c r="E283" s="19">
         <v>4</v>
       </c>
@@ -8129,7 +8222,7 @@
     </row>
     <row r="284" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B284" s="33"/>
-      <c r="D284" s="39"/>
+      <c r="D284" s="41"/>
       <c r="E284" s="19">
         <v>5</v>
       </c>
@@ -8147,7 +8240,7 @@
     </row>
     <row r="285" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B285" s="33"/>
-      <c r="D285" s="39"/>
+      <c r="D285" s="41"/>
       <c r="E285" s="19">
         <v>6</v>
       </c>
@@ -8162,7 +8255,7 @@
     </row>
     <row r="286" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="33"/>
-      <c r="D286" s="39"/>
+      <c r="D286" s="41"/>
       <c r="E286" s="19">
         <v>7</v>
       </c>
@@ -8179,7 +8272,7 @@
       <c r="A287"/>
       <c r="B287"/>
       <c r="C287"/>
-      <c r="D287" s="39"/>
+      <c r="D287" s="41"/>
       <c r="E287" s="19">
         <v>8</v>
       </c>
@@ -8208,7 +8301,7 @@
       <c r="C289" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D289" s="39" t="s">
+      <c r="D289" s="41" t="s">
         <v>228</v>
       </c>
       <c r="E289" s="19">
@@ -8222,7 +8315,7 @@
     </row>
     <row r="290" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B290" s="33"/>
-      <c r="D290" s="39"/>
+      <c r="D290" s="41"/>
       <c r="E290" s="19">
         <v>2</v>
       </c>
@@ -8237,7 +8330,7 @@
     </row>
     <row r="291" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B291" s="33"/>
-      <c r="D291" s="39"/>
+      <c r="D291" s="41"/>
       <c r="E291" s="19">
         <v>3</v>
       </c>
@@ -8252,7 +8345,7 @@
     </row>
     <row r="292" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B292" s="33"/>
-      <c r="D292" s="39"/>
+      <c r="D292" s="41"/>
       <c r="E292" s="19">
         <v>4</v>
       </c>
@@ -8267,7 +8360,7 @@
     </row>
     <row r="293" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B293" s="33"/>
-      <c r="D293" s="39"/>
+      <c r="D293" s="41"/>
       <c r="E293" s="19">
         <v>5</v>
       </c>
@@ -8282,7 +8375,7 @@
     </row>
     <row r="294" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B294" s="33"/>
-      <c r="D294" s="39"/>
+      <c r="D294" s="41"/>
       <c r="E294" s="19">
         <v>6</v>
       </c>
@@ -8310,7 +8403,7 @@
       <c r="C296" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D296" s="39" t="s">
+      <c r="D296" s="41" t="s">
         <v>231</v>
       </c>
       <c r="E296" s="19">
@@ -8324,7 +8417,7 @@
     </row>
     <row r="297" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B297" s="33"/>
-      <c r="D297" s="39"/>
+      <c r="D297" s="41"/>
       <c r="E297" s="19">
         <v>2</v>
       </c>
@@ -8339,7 +8432,7 @@
     </row>
     <row r="298" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="33"/>
-      <c r="D298" s="39"/>
+      <c r="D298" s="41"/>
       <c r="E298" s="19">
         <v>3</v>
       </c>
@@ -8354,7 +8447,7 @@
     </row>
     <row r="299" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B299" s="33"/>
-      <c r="D299" s="39"/>
+      <c r="D299" s="41"/>
       <c r="E299" s="19">
         <v>4</v>
       </c>
@@ -8369,7 +8462,7 @@
     </row>
     <row r="300" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B300" s="33"/>
-      <c r="D300" s="39"/>
+      <c r="D300" s="41"/>
       <c r="E300" s="19">
         <v>5</v>
       </c>
@@ -8384,7 +8477,7 @@
     </row>
     <row r="301" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B301" s="33"/>
-      <c r="D301" s="39"/>
+      <c r="D301" s="41"/>
       <c r="E301" s="19">
         <v>6</v>
       </c>
@@ -8399,7 +8492,7 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B302" s="33"/>
-      <c r="D302" s="39"/>
+      <c r="D302" s="41"/>
       <c r="E302" s="19">
         <v>7</v>
       </c>
@@ -8429,7 +8522,7 @@
       <c r="C304" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D304" s="39" t="s">
+      <c r="D304" s="41" t="s">
         <v>232</v>
       </c>
       <c r="E304" s="19">
@@ -8443,7 +8536,7 @@
     </row>
     <row r="305" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="33"/>
-      <c r="D305" s="39"/>
+      <c r="D305" s="41"/>
       <c r="E305" s="19">
         <v>2</v>
       </c>
@@ -8458,7 +8551,7 @@
     </row>
     <row r="306" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B306" s="33"/>
-      <c r="D306" s="39"/>
+      <c r="D306" s="41"/>
       <c r="E306" s="19">
         <v>3</v>
       </c>
@@ -8473,7 +8566,7 @@
     </row>
     <row r="307" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B307" s="33"/>
-      <c r="D307" s="39"/>
+      <c r="D307" s="41"/>
       <c r="E307" s="19">
         <v>4</v>
       </c>
@@ -8488,7 +8581,7 @@
     </row>
     <row r="308" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B308" s="33"/>
-      <c r="D308" s="39"/>
+      <c r="D308" s="41"/>
       <c r="E308" s="19">
         <v>5</v>
       </c>
@@ -8503,7 +8596,7 @@
     </row>
     <row r="309" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B309" s="33"/>
-      <c r="D309" s="39"/>
+      <c r="D309" s="41"/>
       <c r="E309" s="19">
         <v>6</v>
       </c>
@@ -8520,7 +8613,7 @@
       <c r="A310"/>
       <c r="B310"/>
       <c r="C310"/>
-      <c r="D310" s="39"/>
+      <c r="D310" s="41"/>
       <c r="E310" s="19">
         <v>7</v>
       </c>
@@ -8556,7 +8649,7 @@
       <c r="C312" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D312" s="39" t="s">
+      <c r="D312" s="41" t="s">
         <v>242</v>
       </c>
       <c r="E312" s="19">
@@ -8570,7 +8663,7 @@
     </row>
     <row r="313" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="33"/>
-      <c r="D313" s="39"/>
+      <c r="D313" s="41"/>
       <c r="E313" s="19">
         <v>2</v>
       </c>
@@ -8585,7 +8678,7 @@
     </row>
     <row r="314" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B314" s="33"/>
-      <c r="D314" s="39"/>
+      <c r="D314" s="41"/>
       <c r="E314" s="19">
         <v>3</v>
       </c>
@@ -8600,7 +8693,7 @@
     </row>
     <row r="315" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B315" s="33"/>
-      <c r="D315" s="39"/>
+      <c r="D315" s="41"/>
       <c r="E315" s="19">
         <v>4</v>
       </c>
@@ -8615,7 +8708,7 @@
     </row>
     <row r="316" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B316" s="33"/>
-      <c r="D316" s="39"/>
+      <c r="D316" s="41"/>
       <c r="E316" s="19">
         <v>5</v>
       </c>
@@ -8633,7 +8726,7 @@
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B317" s="33"/>
-      <c r="D317" s="39"/>
+      <c r="D317" s="41"/>
       <c r="E317" s="19">
         <v>6</v>
       </c>
@@ -8661,7 +8754,7 @@
       <c r="C319" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D319" s="39" t="s">
+      <c r="D319" s="41" t="s">
         <v>245</v>
       </c>
       <c r="E319" s="19">
@@ -8675,7 +8768,7 @@
     </row>
     <row r="320" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B320" s="33"/>
-      <c r="D320" s="39"/>
+      <c r="D320" s="41"/>
       <c r="E320" s="19">
         <v>2</v>
       </c>
@@ -8690,7 +8783,7 @@
     </row>
     <row r="321" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B321" s="33"/>
-      <c r="D321" s="39"/>
+      <c r="D321" s="41"/>
       <c r="E321" s="19">
         <v>3</v>
       </c>
@@ -8705,7 +8798,7 @@
     </row>
     <row r="322" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="33"/>
-      <c r="D322" s="39"/>
+      <c r="D322" s="41"/>
       <c r="E322" s="19">
         <v>4</v>
       </c>
@@ -8720,7 +8813,7 @@
     </row>
     <row r="323" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B323" s="33"/>
-      <c r="D323" s="39"/>
+      <c r="D323" s="41"/>
       <c r="E323" s="19">
         <v>5</v>
       </c>
@@ -8738,7 +8831,7 @@
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B324" s="33"/>
-      <c r="D324" s="39"/>
+      <c r="D324" s="41"/>
       <c r="E324" s="19">
         <v>6</v>
       </c>
@@ -8753,7 +8846,7 @@
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B325" s="33"/>
-      <c r="D325" s="39"/>
+      <c r="D325" s="41"/>
       <c r="E325" s="19">
         <v>7</v>
       </c>
@@ -8783,7 +8876,7 @@
       <c r="C327" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D327" s="39" t="s">
+      <c r="D327" s="41" t="s">
         <v>246</v>
       </c>
       <c r="E327" s="19">
@@ -8797,7 +8890,7 @@
     </row>
     <row r="328" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B328" s="33"/>
-      <c r="D328" s="39"/>
+      <c r="D328" s="41"/>
       <c r="E328" s="19">
         <v>2</v>
       </c>
@@ -8812,7 +8905,7 @@
     </row>
     <row r="329" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B329" s="33"/>
-      <c r="D329" s="39"/>
+      <c r="D329" s="41"/>
       <c r="E329" s="19">
         <v>3</v>
       </c>
@@ -8827,7 +8920,7 @@
     </row>
     <row r="330" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="33"/>
-      <c r="D330" s="39"/>
+      <c r="D330" s="41"/>
       <c r="E330" s="19">
         <v>4</v>
       </c>
@@ -8842,7 +8935,7 @@
     </row>
     <row r="331" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B331" s="33"/>
-      <c r="D331" s="39"/>
+      <c r="D331" s="41"/>
       <c r="E331" s="19">
         <v>5</v>
       </c>
@@ -8860,7 +8953,7 @@
     </row>
     <row r="332" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="33"/>
-      <c r="D332" s="39"/>
+      <c r="D332" s="41"/>
       <c r="E332" s="19">
         <v>6</v>
       </c>
@@ -8877,7 +8970,7 @@
       <c r="A333"/>
       <c r="B333"/>
       <c r="C333"/>
-      <c r="D333" s="39"/>
+      <c r="D333" s="41"/>
       <c r="E333" s="19">
         <v>7</v>
       </c>
@@ -8906,7 +8999,7 @@
       <c r="C335" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D335" s="39" t="s">
+      <c r="D335" s="41" t="s">
         <v>251</v>
       </c>
       <c r="E335" s="19">
@@ -8920,7 +9013,7 @@
     </row>
     <row r="336" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="33"/>
-      <c r="D336" s="39"/>
+      <c r="D336" s="41"/>
       <c r="E336" s="19">
         <v>2</v>
       </c>
@@ -8935,7 +9028,7 @@
     </row>
     <row r="337" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B337" s="33"/>
-      <c r="D337" s="39"/>
+      <c r="D337" s="41"/>
       <c r="E337" s="19">
         <v>3</v>
       </c>
@@ -8950,7 +9043,7 @@
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B338" s="33"/>
-      <c r="D338" s="39"/>
+      <c r="D338" s="41"/>
       <c r="E338" s="19">
         <v>4</v>
       </c>
@@ -8965,7 +9058,7 @@
     </row>
     <row r="339" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B339" s="33"/>
-      <c r="D339" s="39"/>
+      <c r="D339" s="41"/>
       <c r="E339" s="19">
         <v>5</v>
       </c>
@@ -8980,7 +9073,7 @@
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B340" s="33"/>
-      <c r="D340" s="39"/>
+      <c r="D340" s="41"/>
       <c r="E340" s="19">
         <v>6</v>
       </c>
@@ -9008,7 +9101,7 @@
       <c r="C342" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D342" s="39" t="s">
+      <c r="D342" s="41" t="s">
         <v>253</v>
       </c>
       <c r="E342" s="19">
@@ -9022,7 +9115,7 @@
     </row>
     <row r="343" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="33"/>
-      <c r="D343" s="39"/>
+      <c r="D343" s="41"/>
       <c r="E343" s="19">
         <v>2</v>
       </c>
@@ -9037,7 +9130,7 @@
     </row>
     <row r="344" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B344" s="33"/>
-      <c r="D344" s="39"/>
+      <c r="D344" s="41"/>
       <c r="E344" s="19">
         <v>3</v>
       </c>
@@ -9052,7 +9145,7 @@
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B345" s="33"/>
-      <c r="D345" s="39"/>
+      <c r="D345" s="41"/>
       <c r="E345" s="19">
         <v>4</v>
       </c>
@@ -9067,7 +9160,7 @@
     </row>
     <row r="346" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B346" s="33"/>
-      <c r="D346" s="39"/>
+      <c r="D346" s="41"/>
       <c r="E346" s="19">
         <v>5</v>
       </c>
@@ -9082,7 +9175,7 @@
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B347" s="33"/>
-      <c r="D347" s="39"/>
+      <c r="D347" s="41"/>
       <c r="E347" s="19">
         <v>6</v>
       </c>
@@ -9097,7 +9190,7 @@
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B348" s="33"/>
-      <c r="D348" s="39"/>
+      <c r="D348" s="41"/>
       <c r="E348" s="19">
         <v>7</v>
       </c>
@@ -9127,7 +9220,7 @@
       <c r="C350" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D350" s="39" t="s">
+      <c r="D350" s="41" t="s">
         <v>254</v>
       </c>
       <c r="E350" s="19">
@@ -9141,7 +9234,7 @@
     </row>
     <row r="351" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="33"/>
-      <c r="D351" s="39"/>
+      <c r="D351" s="41"/>
       <c r="E351" s="19">
         <v>2</v>
       </c>
@@ -9156,7 +9249,7 @@
     </row>
     <row r="352" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B352" s="33"/>
-      <c r="D352" s="39"/>
+      <c r="D352" s="41"/>
       <c r="E352" s="19">
         <v>3</v>
       </c>
@@ -9171,7 +9264,7 @@
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B353" s="33"/>
-      <c r="D353" s="39"/>
+      <c r="D353" s="41"/>
       <c r="E353" s="19">
         <v>4</v>
       </c>
@@ -9186,7 +9279,7 @@
     </row>
     <row r="354" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B354" s="33"/>
-      <c r="D354" s="39"/>
+      <c r="D354" s="41"/>
       <c r="E354" s="19">
         <v>5</v>
       </c>
@@ -9201,7 +9294,7 @@
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B355" s="33"/>
-      <c r="D355" s="39"/>
+      <c r="D355" s="41"/>
       <c r="E355" s="19">
         <v>6</v>
       </c>
@@ -9218,7 +9311,7 @@
       <c r="A356"/>
       <c r="B356"/>
       <c r="C356"/>
-      <c r="D356" s="39"/>
+      <c r="D356" s="41"/>
       <c r="E356" s="19">
         <v>7</v>
       </c>
@@ -9246,7 +9339,7 @@
       <c r="C358" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D358" s="39" t="s">
+      <c r="D358" s="41" t="s">
         <v>262</v>
       </c>
       <c r="E358" s="19">
@@ -9260,7 +9353,7 @@
     </row>
     <row r="359" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="33"/>
-      <c r="D359" s="39"/>
+      <c r="D359" s="41"/>
       <c r="E359" s="19">
         <v>2</v>
       </c>
@@ -9275,7 +9368,7 @@
     </row>
     <row r="360" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B360" s="33"/>
-      <c r="D360" s="39"/>
+      <c r="D360" s="41"/>
       <c r="E360" s="19">
         <v>3</v>
       </c>
@@ -9290,7 +9383,7 @@
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B361" s="33"/>
-      <c r="D361" s="39"/>
+      <c r="D361" s="41"/>
       <c r="E361" s="19">
         <v>4</v>
       </c>
@@ -9305,7 +9398,7 @@
     </row>
     <row r="362" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B362" s="33"/>
-      <c r="D362" s="39"/>
+      <c r="D362" s="41"/>
       <c r="E362" s="19">
         <v>5</v>
       </c>
@@ -9320,7 +9413,7 @@
     </row>
     <row r="363" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="33"/>
-      <c r="D363" s="39"/>
+      <c r="D363" s="41"/>
       <c r="E363" s="19">
         <v>6</v>
       </c>
@@ -9348,7 +9441,7 @@
       <c r="C365" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D365" s="39" t="s">
+      <c r="D365" s="41" t="s">
         <v>267</v>
       </c>
       <c r="E365" s="19">
@@ -9362,7 +9455,7 @@
     </row>
     <row r="366" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B366" s="33"/>
-      <c r="D366" s="39"/>
+      <c r="D366" s="41"/>
       <c r="E366" s="19">
         <v>2</v>
       </c>
@@ -9377,7 +9470,7 @@
     </row>
     <row r="367" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B367" s="33"/>
-      <c r="D367" s="39"/>
+      <c r="D367" s="41"/>
       <c r="E367" s="19">
         <v>3</v>
       </c>
@@ -9392,7 +9485,7 @@
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B368" s="33"/>
-      <c r="D368" s="39"/>
+      <c r="D368" s="41"/>
       <c r="E368" s="19">
         <v>4</v>
       </c>
@@ -9407,7 +9500,7 @@
     </row>
     <row r="369" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="33"/>
-      <c r="D369" s="39"/>
+      <c r="D369" s="41"/>
       <c r="E369" s="19">
         <v>5</v>
       </c>
@@ -9422,7 +9515,7 @@
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B370" s="33"/>
-      <c r="D370" s="39"/>
+      <c r="D370" s="41"/>
       <c r="E370" s="19">
         <v>6</v>
       </c>
@@ -9437,7 +9530,7 @@
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B371" s="33"/>
-      <c r="D371" s="39"/>
+      <c r="D371" s="41"/>
       <c r="E371" s="19">
         <v>7</v>
       </c>
@@ -9467,7 +9560,7 @@
       <c r="C373" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D373" s="39" t="s">
+      <c r="D373" s="41" t="s">
         <v>268</v>
       </c>
       <c r="E373" s="19">
@@ -9481,7 +9574,7 @@
     </row>
     <row r="374" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B374" s="33"/>
-      <c r="D374" s="39"/>
+      <c r="D374" s="41"/>
       <c r="E374" s="19">
         <v>2</v>
       </c>
@@ -9496,7 +9589,7 @@
     </row>
     <row r="375" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B375" s="33"/>
-      <c r="D375" s="39"/>
+      <c r="D375" s="41"/>
       <c r="E375" s="19">
         <v>3</v>
       </c>
@@ -9511,7 +9604,7 @@
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B376" s="33"/>
-      <c r="D376" s="39"/>
+      <c r="D376" s="41"/>
       <c r="E376" s="19">
         <v>4</v>
       </c>
@@ -9526,7 +9619,7 @@
     </row>
     <row r="377" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B377" s="33"/>
-      <c r="D377" s="39"/>
+      <c r="D377" s="41"/>
       <c r="E377" s="19">
         <v>5</v>
       </c>
@@ -9541,7 +9634,7 @@
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B378" s="33"/>
-      <c r="D378" s="39"/>
+      <c r="D378" s="41"/>
       <c r="E378" s="19">
         <v>6</v>
       </c>
@@ -9558,7 +9651,7 @@
       <c r="A379"/>
       <c r="B379"/>
       <c r="C379"/>
-      <c r="D379" s="39"/>
+      <c r="D379" s="41"/>
       <c r="E379" s="19">
         <v>7</v>
       </c>
@@ -9586,7 +9679,7 @@
       <c r="C381" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D381" s="39" t="s">
+      <c r="D381" s="41" t="s">
         <v>287</v>
       </c>
       <c r="E381" s="19">
@@ -9600,7 +9693,7 @@
     </row>
     <row r="382" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B382" s="33"/>
-      <c r="D382" s="39"/>
+      <c r="D382" s="41"/>
       <c r="E382" s="19">
         <v>2</v>
       </c>
@@ -9615,7 +9708,7 @@
     </row>
     <row r="383" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B383" s="33"/>
-      <c r="D383" s="39"/>
+      <c r="D383" s="41"/>
       <c r="E383" s="19">
         <v>3</v>
       </c>
@@ -9630,7 +9723,7 @@
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B384" s="33"/>
-      <c r="D384" s="39"/>
+      <c r="D384" s="41"/>
       <c r="E384" s="19">
         <v>4</v>
       </c>
@@ -9645,7 +9738,7 @@
     </row>
     <row r="385" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B385" s="33"/>
-      <c r="D385" s="39"/>
+      <c r="D385" s="41"/>
       <c r="E385" s="19">
         <v>5</v>
       </c>
@@ -9660,7 +9753,7 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B386" s="33"/>
-      <c r="D386" s="39"/>
+      <c r="D386" s="41"/>
       <c r="E386" s="19">
         <v>6</v>
       </c>
@@ -9688,7 +9781,7 @@
       <c r="C388" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D388" s="39" t="s">
+      <c r="D388" s="41" t="s">
         <v>291</v>
       </c>
       <c r="E388" s="19">
@@ -9702,7 +9795,7 @@
     </row>
     <row r="389" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B389" s="33"/>
-      <c r="D389" s="39"/>
+      <c r="D389" s="41"/>
       <c r="E389" s="19">
         <v>2</v>
       </c>
@@ -9717,7 +9810,7 @@
     </row>
     <row r="390" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B390" s="33"/>
-      <c r="D390" s="39"/>
+      <c r="D390" s="41"/>
       <c r="E390" s="19">
         <v>3</v>
       </c>
@@ -9732,7 +9825,7 @@
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B391" s="33"/>
-      <c r="D391" s="39"/>
+      <c r="D391" s="41"/>
       <c r="E391" s="19">
         <v>4</v>
       </c>
@@ -9747,7 +9840,7 @@
     </row>
     <row r="392" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B392" s="33"/>
-      <c r="D392" s="39"/>
+      <c r="D392" s="41"/>
       <c r="E392" s="19">
         <v>5</v>
       </c>
@@ -9762,7 +9855,7 @@
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B393" s="33"/>
-      <c r="D393" s="39"/>
+      <c r="D393" s="41"/>
       <c r="E393" s="19">
         <v>6</v>
       </c>
@@ -9777,7 +9870,7 @@
     </row>
     <row r="394" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="33"/>
-      <c r="D394" s="39"/>
+      <c r="D394" s="41"/>
       <c r="E394" s="19">
         <v>7</v>
       </c>
@@ -9807,7 +9900,7 @@
       <c r="C396" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D396" s="39" t="s">
+      <c r="D396" s="41" t="s">
         <v>294</v>
       </c>
       <c r="E396" s="19">
@@ -9821,7 +9914,7 @@
     </row>
     <row r="397" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B397" s="33"/>
-      <c r="D397" s="39"/>
+      <c r="D397" s="41"/>
       <c r="E397" s="19">
         <v>2</v>
       </c>
@@ -9836,7 +9929,7 @@
     </row>
     <row r="398" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B398" s="33"/>
-      <c r="D398" s="39"/>
+      <c r="D398" s="41"/>
       <c r="E398" s="19">
         <v>3</v>
       </c>
@@ -9851,7 +9944,7 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B399" s="33"/>
-      <c r="D399" s="39"/>
+      <c r="D399" s="41"/>
       <c r="E399" s="19">
         <v>4</v>
       </c>
@@ -9866,7 +9959,7 @@
     </row>
     <row r="400" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B400" s="33"/>
-      <c r="D400" s="39"/>
+      <c r="D400" s="41"/>
       <c r="E400" s="19">
         <v>5</v>
       </c>
@@ -9881,7 +9974,7 @@
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B401" s="33"/>
-      <c r="D401" s="39"/>
+      <c r="D401" s="41"/>
       <c r="E401" s="19">
         <v>6</v>
       </c>
@@ -9898,7 +9991,7 @@
       <c r="A402"/>
       <c r="B402"/>
       <c r="C402"/>
-      <c r="D402" s="39"/>
+      <c r="D402" s="41"/>
       <c r="E402" s="19">
         <v>7</v>
       </c>
@@ -9926,7 +10019,7 @@
       <c r="C404" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D404" s="39" t="s">
+      <c r="D404" s="41" t="s">
         <v>300</v>
       </c>
       <c r="E404" s="19">
@@ -9941,7 +10034,7 @@
     <row r="405" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A405" s="29"/>
       <c r="B405" s="33"/>
-      <c r="D405" s="39"/>
+      <c r="D405" s="41"/>
       <c r="E405" s="19">
         <v>2</v>
       </c>
@@ -9957,7 +10050,7 @@
     <row r="406" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A406" s="29"/>
       <c r="B406" s="33"/>
-      <c r="D406" s="39"/>
+      <c r="D406" s="41"/>
       <c r="E406" s="19">
         <v>3</v>
       </c>
@@ -9973,7 +10066,7 @@
     <row r="407" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A407" s="29"/>
       <c r="B407" s="33"/>
-      <c r="D407" s="39"/>
+      <c r="D407" s="41"/>
       <c r="E407" s="19">
         <v>4</v>
       </c>
@@ -9989,7 +10082,7 @@
     <row r="408" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A408" s="29"/>
       <c r="B408" s="33"/>
-      <c r="D408" s="39"/>
+      <c r="D408" s="41"/>
       <c r="E408" s="19">
         <v>5</v>
       </c>
@@ -10018,7 +10111,7 @@
       <c r="C410" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D410" s="39" t="s">
+      <c r="D410" s="41" t="s">
         <v>306</v>
       </c>
       <c r="E410" s="19">
@@ -10033,7 +10126,7 @@
     <row r="411" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A411" s="29"/>
       <c r="B411" s="33"/>
-      <c r="D411" s="39"/>
+      <c r="D411" s="41"/>
       <c r="E411" s="19">
         <v>2</v>
       </c>
@@ -10049,7 +10142,7 @@
     <row r="412" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A412" s="29"/>
       <c r="B412" s="33"/>
-      <c r="D412" s="39"/>
+      <c r="D412" s="41"/>
       <c r="E412" s="19">
         <v>3</v>
       </c>
@@ -10065,7 +10158,7 @@
     <row r="413" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A413" s="29"/>
       <c r="B413" s="33"/>
-      <c r="D413" s="39"/>
+      <c r="D413" s="41"/>
       <c r="E413" s="19">
         <v>4</v>
       </c>
@@ -10081,7 +10174,7 @@
     <row r="414" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A414" s="29"/>
       <c r="B414" s="33"/>
-      <c r="D414" s="39"/>
+      <c r="D414" s="41"/>
       <c r="E414" s="19">
         <v>5</v>
       </c>
@@ -10111,7 +10204,7 @@
       <c r="C416" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D416" s="39" t="s">
+      <c r="D416" s="41" t="s">
         <v>329</v>
       </c>
       <c r="E416" s="19">
@@ -10126,7 +10219,7 @@
     <row r="417" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A417" s="29"/>
       <c r="B417" s="33"/>
-      <c r="D417" s="39"/>
+      <c r="D417" s="41"/>
       <c r="E417" s="19">
         <v>2</v>
       </c>
@@ -10142,7 +10235,7 @@
     <row r="418" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A418" s="29"/>
       <c r="B418" s="33"/>
-      <c r="D418" s="39"/>
+      <c r="D418" s="41"/>
       <c r="E418" s="19">
         <v>3</v>
       </c>
@@ -10158,7 +10251,7 @@
     <row r="419" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A419" s="29"/>
       <c r="B419" s="33"/>
-      <c r="D419" s="39"/>
+      <c r="D419" s="41"/>
       <c r="E419" s="19">
         <v>4</v>
       </c>
@@ -10174,7 +10267,7 @@
     <row r="420" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A420" s="29"/>
       <c r="B420" s="33"/>
-      <c r="D420" s="39"/>
+      <c r="D420" s="41"/>
       <c r="E420" s="19">
         <v>5</v>
       </c>
@@ -10202,7 +10295,7 @@
       <c r="C422" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D422" s="39" t="s">
+      <c r="D422" s="41" t="s">
         <v>312</v>
       </c>
       <c r="E422" s="19">
@@ -10217,7 +10310,7 @@
     <row r="423" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A423" s="29"/>
       <c r="B423" s="33"/>
-      <c r="D423" s="39"/>
+      <c r="D423" s="41"/>
       <c r="E423" s="19">
         <v>2</v>
       </c>
@@ -10233,7 +10326,7 @@
     <row r="424" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A424" s="29"/>
       <c r="B424" s="33"/>
-      <c r="D424" s="39"/>
+      <c r="D424" s="41"/>
       <c r="E424" s="19">
         <v>3</v>
       </c>
@@ -10249,7 +10342,7 @@
     <row r="425" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A425" s="29"/>
       <c r="B425" s="33"/>
-      <c r="D425" s="39"/>
+      <c r="D425" s="41"/>
       <c r="E425" s="19">
         <v>4</v>
       </c>
@@ -10265,7 +10358,7 @@
     <row r="426" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A426" s="29"/>
       <c r="B426" s="33"/>
-      <c r="D426" s="39"/>
+      <c r="D426" s="41"/>
       <c r="E426" s="19">
         <v>5</v>
       </c>
@@ -10293,7 +10386,7 @@
       <c r="C428" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D428" s="39" t="s">
+      <c r="D428" s="41" t="s">
         <v>315</v>
       </c>
       <c r="E428" s="19">
@@ -10308,7 +10401,7 @@
     <row r="429" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A429" s="29"/>
       <c r="B429" s="33"/>
-      <c r="D429" s="39"/>
+      <c r="D429" s="41"/>
       <c r="E429" s="19">
         <v>2</v>
       </c>
@@ -10324,7 +10417,7 @@
     <row r="430" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A430" s="29"/>
       <c r="B430" s="33"/>
-      <c r="D430" s="39"/>
+      <c r="D430" s="41"/>
       <c r="E430" s="19">
         <v>3</v>
       </c>
@@ -10340,7 +10433,7 @@
     <row r="431" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A431" s="29"/>
       <c r="B431" s="33"/>
-      <c r="D431" s="39"/>
+      <c r="D431" s="41"/>
       <c r="E431" s="19">
         <v>4</v>
       </c>
@@ -10356,7 +10449,7 @@
     <row r="432" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A432" s="29"/>
       <c r="B432" s="33"/>
-      <c r="D432" s="39"/>
+      <c r="D432" s="41"/>
       <c r="E432" s="19">
         <v>5</v>
       </c>
@@ -10386,7 +10479,7 @@
       <c r="C434" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D434" s="39" t="s">
+      <c r="D434" s="41" t="s">
         <v>310</v>
       </c>
       <c r="E434" s="19">
@@ -10400,7 +10493,7 @@
     </row>
     <row r="435" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B435" s="33"/>
-      <c r="D435" s="39"/>
+      <c r="D435" s="41"/>
       <c r="E435" s="19">
         <v>2</v>
       </c>
@@ -10415,7 +10508,7 @@
     </row>
     <row r="436" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B436" s="33"/>
-      <c r="D436" s="39"/>
+      <c r="D436" s="41"/>
       <c r="E436" s="19">
         <v>3</v>
       </c>
@@ -10430,7 +10523,7 @@
     </row>
     <row r="437" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B437" s="33"/>
-      <c r="D437" s="39"/>
+      <c r="D437" s="41"/>
       <c r="E437" s="19">
         <v>4</v>
       </c>
@@ -10445,7 +10538,7 @@
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B438" s="33"/>
-      <c r="D438" s="39"/>
+      <c r="D438" s="41"/>
       <c r="E438" s="19">
         <v>5</v>
       </c>
@@ -10474,7 +10567,7 @@
       <c r="C440" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D440" s="39" t="s">
+      <c r="D440" s="41" t="s">
         <v>325</v>
       </c>
       <c r="E440" s="19">
@@ -10488,7 +10581,7 @@
     </row>
     <row r="441" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B441" s="33"/>
-      <c r="D441" s="39"/>
+      <c r="D441" s="41"/>
       <c r="E441" s="19">
         <v>2</v>
       </c>
@@ -10503,7 +10596,7 @@
     </row>
     <row r="442" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B442" s="33"/>
-      <c r="D442" s="39"/>
+      <c r="D442" s="41"/>
       <c r="E442" s="19">
         <v>3</v>
       </c>
@@ -10518,7 +10611,7 @@
     </row>
     <row r="443" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B443" s="33"/>
-      <c r="D443" s="39"/>
+      <c r="D443" s="41"/>
       <c r="E443" s="19">
         <v>4</v>
       </c>
@@ -10533,7 +10626,7 @@
     </row>
     <row r="444" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B444" s="33"/>
-      <c r="D444" s="39"/>
+      <c r="D444" s="41"/>
       <c r="E444" s="19">
         <v>5</v>
       </c>
@@ -10561,7 +10654,7 @@
       <c r="C446" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D446" s="39" t="s">
+      <c r="D446" s="41" t="s">
         <v>320</v>
       </c>
       <c r="E446" s="19">
@@ -10575,7 +10668,7 @@
     </row>
     <row r="447" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B447" s="33"/>
-      <c r="D447" s="39"/>
+      <c r="D447" s="41"/>
       <c r="E447" s="19">
         <v>2</v>
       </c>
@@ -10590,7 +10683,7 @@
     </row>
     <row r="448" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B448" s="33"/>
-      <c r="D448" s="39"/>
+      <c r="D448" s="41"/>
       <c r="E448" s="19">
         <v>3</v>
       </c>
@@ -10605,7 +10698,7 @@
     </row>
     <row r="449" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B449" s="33"/>
-      <c r="D449" s="39"/>
+      <c r="D449" s="41"/>
       <c r="E449" s="19">
         <v>4</v>
       </c>
@@ -10620,7 +10713,7 @@
     </row>
     <row r="450" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B450" s="33"/>
-      <c r="D450" s="39"/>
+      <c r="D450" s="41"/>
       <c r="E450" s="19">
         <v>5</v>
       </c>
@@ -10648,7 +10741,7 @@
       <c r="C452" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D452" s="39" t="s">
+      <c r="D452" s="41" t="s">
         <v>327</v>
       </c>
       <c r="E452" s="19">
@@ -10662,7 +10755,7 @@
     </row>
     <row r="453" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B453" s="33"/>
-      <c r="D453" s="39"/>
+      <c r="D453" s="41"/>
       <c r="E453" s="19">
         <v>2</v>
       </c>
@@ -10677,7 +10770,7 @@
     </row>
     <row r="454" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B454" s="33"/>
-      <c r="D454" s="39"/>
+      <c r="D454" s="41"/>
       <c r="E454" s="19">
         <v>3</v>
       </c>
@@ -10692,7 +10785,7 @@
     </row>
     <row r="455" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B455" s="33"/>
-      <c r="D455" s="39"/>
+      <c r="D455" s="41"/>
       <c r="E455" s="19">
         <v>4</v>
       </c>
@@ -10707,7 +10800,7 @@
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B456" s="33"/>
-      <c r="D456" s="39"/>
+      <c r="D456" s="41"/>
       <c r="E456" s="19">
         <v>5</v>
       </c>
@@ -10735,7 +10828,7 @@
       <c r="C458" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D458" s="39" t="s">
+      <c r="D458" s="41" t="s">
         <v>335</v>
       </c>
       <c r="E458" s="19">
@@ -10749,7 +10842,7 @@
     </row>
     <row r="459" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B459" s="33"/>
-      <c r="D459" s="39"/>
+      <c r="D459" s="41"/>
       <c r="E459" s="19">
         <v>2</v>
       </c>
@@ -10764,7 +10857,7 @@
     </row>
     <row r="460" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B460" s="33"/>
-      <c r="D460" s="39"/>
+      <c r="D460" s="41"/>
       <c r="E460" s="19">
         <v>3</v>
       </c>
@@ -10779,7 +10872,7 @@
     </row>
     <row r="461" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B461" s="33"/>
-      <c r="D461" s="39"/>
+      <c r="D461" s="41"/>
       <c r="E461" s="19">
         <v>4</v>
       </c>
@@ -10794,7 +10887,7 @@
     </row>
     <row r="462" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B462" s="33"/>
-      <c r="D462" s="39"/>
+      <c r="D462" s="41"/>
       <c r="E462" s="19">
         <v>5</v>
       </c>
@@ -10823,7 +10916,7 @@
       <c r="C464" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D464" s="39" t="s">
+      <c r="D464" s="41" t="s">
         <v>339</v>
       </c>
       <c r="E464" s="19">
@@ -10837,7 +10930,7 @@
     </row>
     <row r="465" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B465" s="33"/>
-      <c r="D465" s="39"/>
+      <c r="D465" s="41"/>
       <c r="E465" s="19">
         <v>2</v>
       </c>
@@ -10852,7 +10945,7 @@
     </row>
     <row r="466" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B466" s="33"/>
-      <c r="D466" s="39"/>
+      <c r="D466" s="41"/>
       <c r="E466" s="19">
         <v>3</v>
       </c>
@@ -10867,7 +10960,7 @@
     </row>
     <row r="467" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B467" s="33"/>
-      <c r="D467" s="39"/>
+      <c r="D467" s="41"/>
       <c r="E467" s="19">
         <v>4</v>
       </c>
@@ -10882,7 +10975,7 @@
     </row>
     <row r="468" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B468" s="33"/>
-      <c r="D468" s="39"/>
+      <c r="D468" s="41"/>
       <c r="E468" s="19">
         <v>5</v>
       </c>
@@ -10910,7 +11003,7 @@
       <c r="C470" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D470" s="39" t="s">
+      <c r="D470" s="41" t="s">
         <v>343</v>
       </c>
       <c r="E470" s="19">
@@ -10924,7 +11017,7 @@
     </row>
     <row r="471" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B471" s="33"/>
-      <c r="D471" s="39"/>
+      <c r="D471" s="41"/>
       <c r="E471" s="19">
         <v>2</v>
       </c>
@@ -10939,7 +11032,7 @@
     </row>
     <row r="472" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B472" s="33"/>
-      <c r="D472" s="39"/>
+      <c r="D472" s="41"/>
       <c r="E472" s="19">
         <v>3</v>
       </c>
@@ -10954,7 +11047,7 @@
     </row>
     <row r="473" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B473" s="33"/>
-      <c r="D473" s="39"/>
+      <c r="D473" s="41"/>
       <c r="E473" s="19">
         <v>4</v>
       </c>
@@ -10969,7 +11062,7 @@
     </row>
     <row r="474" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B474" s="33"/>
-      <c r="D474" s="39"/>
+      <c r="D474" s="41"/>
       <c r="E474" s="19">
         <v>5</v>
       </c>
@@ -10998,7 +11091,7 @@
       <c r="C476" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D476" s="39" t="s">
+      <c r="D476" s="41" t="s">
         <v>347</v>
       </c>
       <c r="E476" s="19">
@@ -11012,7 +11105,7 @@
     </row>
     <row r="477" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B477" s="33"/>
-      <c r="D477" s="39"/>
+      <c r="D477" s="41"/>
       <c r="E477" s="19">
         <v>2</v>
       </c>
@@ -11027,7 +11120,7 @@
     </row>
     <row r="478" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B478" s="33"/>
-      <c r="D478" s="39"/>
+      <c r="D478" s="41"/>
       <c r="E478" s="19">
         <v>3</v>
       </c>
@@ -11042,7 +11135,7 @@
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B479" s="33"/>
-      <c r="D479" s="39"/>
+      <c r="D479" s="41"/>
       <c r="E479" s="19">
         <v>4</v>
       </c>
@@ -11057,7 +11150,7 @@
     </row>
     <row r="480" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B480" s="33"/>
-      <c r="D480" s="39"/>
+      <c r="D480" s="41"/>
       <c r="E480" s="19">
         <v>5</v>
       </c>
@@ -11075,7 +11168,7 @@
     </row>
     <row r="481" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B481" s="33"/>
-      <c r="D481" s="39"/>
+      <c r="D481" s="41"/>
       <c r="E481" s="19">
         <v>6</v>
       </c>
@@ -11094,7 +11187,7 @@
     <row r="482" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A482" s="31"/>
       <c r="B482" s="33"/>
-      <c r="D482" s="39"/>
+      <c r="D482" s="41"/>
       <c r="E482" s="19">
         <v>7</v>
       </c>
@@ -11125,7 +11218,7 @@
       <c r="C484" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D484" s="39" t="s">
+      <c r="D484" s="41" t="s">
         <v>361</v>
       </c>
       <c r="E484" s="19">
@@ -11139,7 +11232,7 @@
     </row>
     <row r="485" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B485" s="33"/>
-      <c r="D485" s="39"/>
+      <c r="D485" s="41"/>
       <c r="E485" s="19">
         <v>2</v>
       </c>
@@ -11154,7 +11247,7 @@
     </row>
     <row r="486" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B486" s="33"/>
-      <c r="D486" s="39"/>
+      <c r="D486" s="41"/>
       <c r="E486" s="19">
         <v>3</v>
       </c>
@@ -11169,7 +11262,7 @@
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B487" s="33"/>
-      <c r="D487" s="39"/>
+      <c r="D487" s="41"/>
       <c r="E487" s="19">
         <v>4</v>
       </c>
@@ -11184,7 +11277,7 @@
     </row>
     <row r="488" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B488" s="33"/>
-      <c r="D488" s="39"/>
+      <c r="D488" s="41"/>
       <c r="E488" s="19">
         <v>5</v>
       </c>
@@ -11202,7 +11295,7 @@
     </row>
     <row r="489" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B489" s="33"/>
-      <c r="D489" s="39"/>
+      <c r="D489" s="41"/>
       <c r="E489" s="19">
         <v>6</v>
       </c>
@@ -11221,7 +11314,7 @@
     <row r="490" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A490" s="31"/>
       <c r="B490" s="33"/>
-      <c r="D490" s="39"/>
+      <c r="D490" s="41"/>
       <c r="E490" s="19">
         <v>7</v>
       </c>
@@ -11252,7 +11345,7 @@
       <c r="C492" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D492" s="39" t="s">
+      <c r="D492" s="41" t="s">
         <v>364</v>
       </c>
       <c r="E492" s="19">
@@ -11266,7 +11359,7 @@
     </row>
     <row r="493" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B493" s="33"/>
-      <c r="D493" s="39"/>
+      <c r="D493" s="41"/>
       <c r="E493" s="19">
         <v>2</v>
       </c>
@@ -11281,7 +11374,7 @@
     </row>
     <row r="494" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B494" s="33"/>
-      <c r="D494" s="39"/>
+      <c r="D494" s="41"/>
       <c r="E494" s="19">
         <v>3</v>
       </c>
@@ -11296,7 +11389,7 @@
     </row>
     <row r="495" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B495" s="33"/>
-      <c r="D495" s="39"/>
+      <c r="D495" s="41"/>
       <c r="E495" s="19">
         <v>4</v>
       </c>
@@ -11311,7 +11404,7 @@
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B496" s="33"/>
-      <c r="D496" s="39"/>
+      <c r="D496" s="41"/>
       <c r="E496" s="19">
         <v>5</v>
       </c>
@@ -11326,7 +11419,7 @@
     </row>
     <row r="497" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B497" s="33"/>
-      <c r="D497" s="39"/>
+      <c r="D497" s="41"/>
       <c r="E497" s="19">
         <v>6</v>
       </c>
@@ -11342,7 +11435,7 @@
     <row r="498" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A498" s="31"/>
       <c r="B498" s="33"/>
-      <c r="D498" s="39"/>
+      <c r="D498" s="41"/>
       <c r="E498" s="19">
         <v>7</v>
       </c>
@@ -11370,7 +11463,7 @@
       <c r="C500" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D500" s="39" t="s">
+      <c r="D500" s="41" t="s">
         <v>375</v>
       </c>
       <c r="E500" s="19">
@@ -11384,7 +11477,7 @@
     </row>
     <row r="501" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B501" s="33"/>
-      <c r="D501" s="39"/>
+      <c r="D501" s="41"/>
       <c r="E501" s="19">
         <v>2</v>
       </c>
@@ -11399,7 +11492,7 @@
     </row>
     <row r="502" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B502" s="33"/>
-      <c r="D502" s="39"/>
+      <c r="D502" s="41"/>
       <c r="E502" s="19">
         <v>3</v>
       </c>
@@ -11414,7 +11507,7 @@
     </row>
     <row r="503" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B503" s="33"/>
-      <c r="D503" s="39"/>
+      <c r="D503" s="41"/>
       <c r="E503" s="19">
         <v>4</v>
       </c>
@@ -11429,7 +11522,7 @@
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B504" s="33"/>
-      <c r="D504" s="39"/>
+      <c r="D504" s="41"/>
       <c r="E504" s="19">
         <v>5</v>
       </c>
@@ -11444,7 +11537,7 @@
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B505" s="33"/>
-      <c r="D505" s="39"/>
+      <c r="D505" s="41"/>
       <c r="E505" s="19">
         <v>6</v>
       </c>
@@ -11473,7 +11566,7 @@
       <c r="C507" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D507" s="39" t="s">
+      <c r="D507" s="41" t="s">
         <v>379</v>
       </c>
       <c r="E507" s="19">
@@ -11487,7 +11580,7 @@
     </row>
     <row r="508" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B508" s="33"/>
-      <c r="D508" s="39"/>
+      <c r="D508" s="41"/>
       <c r="E508" s="19">
         <v>2</v>
       </c>
@@ -11502,7 +11595,7 @@
     </row>
     <row r="509" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B509" s="33"/>
-      <c r="D509" s="39"/>
+      <c r="D509" s="41"/>
       <c r="E509" s="19">
         <v>3</v>
       </c>
@@ -11517,7 +11610,7 @@
     </row>
     <row r="510" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B510" s="33"/>
-      <c r="D510" s="39"/>
+      <c r="D510" s="41"/>
       <c r="E510" s="19">
         <v>4</v>
       </c>
@@ -11532,7 +11625,7 @@
     </row>
     <row r="511" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B511" s="33"/>
-      <c r="D511" s="39"/>
+      <c r="D511" s="41"/>
       <c r="E511" s="19">
         <v>5</v>
       </c>
@@ -11547,7 +11640,7 @@
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B512" s="33"/>
-      <c r="D512" s="39"/>
+      <c r="D512" s="41"/>
       <c r="E512" s="19">
         <v>6</v>
       </c>
@@ -11575,7 +11668,7 @@
       <c r="C514" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D514" s="39" t="s">
+      <c r="D514" s="41" t="s">
         <v>400</v>
       </c>
       <c r="E514" s="19">
@@ -11592,7 +11685,7 @@
     </row>
     <row r="515" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B515" s="33"/>
-      <c r="D515" s="39"/>
+      <c r="D515" s="41"/>
       <c r="E515" s="19">
         <v>2</v>
       </c>
@@ -11610,7 +11703,7 @@
     </row>
     <row r="516" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B516" s="33"/>
-      <c r="D516" s="39"/>
+      <c r="D516" s="41"/>
       <c r="E516" s="19">
         <v>3</v>
       </c>
@@ -11638,7 +11731,7 @@
       <c r="C518" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D518" s="39" t="s">
+      <c r="D518" s="41" t="s">
         <v>410</v>
       </c>
       <c r="E518" s="19">
@@ -11655,7 +11748,7 @@
     </row>
     <row r="519" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B519" s="33"/>
-      <c r="D519" s="39"/>
+      <c r="D519" s="41"/>
       <c r="E519" s="19">
         <v>2</v>
       </c>
@@ -11673,7 +11766,7 @@
     </row>
     <row r="520" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B520" s="33"/>
-      <c r="D520" s="39"/>
+      <c r="D520" s="41"/>
       <c r="E520" s="19">
         <v>3</v>
       </c>
@@ -11688,7 +11781,7 @@
     </row>
     <row r="521" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B521" s="33"/>
-      <c r="D521" s="39"/>
+      <c r="D521" s="41"/>
       <c r="E521" s="19">
         <v>4</v>
       </c>
@@ -11707,7 +11800,7 @@
     <row r="522" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A522" s="31"/>
       <c r="B522" s="33"/>
-      <c r="D522" s="39"/>
+      <c r="D522" s="41"/>
       <c r="E522" s="19">
         <v>5</v>
       </c>
@@ -11722,7 +11815,7 @@
     </row>
     <row r="523" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B523" s="33"/>
-      <c r="D523" s="39"/>
+      <c r="D523" s="41"/>
       <c r="E523" s="19">
         <v>6</v>
       </c>
@@ -11740,7 +11833,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B524" s="33"/>
-      <c r="D524" s="39"/>
+      <c r="D524" s="41"/>
       <c r="E524" s="19">
         <v>7</v>
       </c>
@@ -11768,7 +11861,7 @@
       <c r="C526" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D526" s="39" t="s">
+      <c r="D526" s="41" t="s">
         <v>413</v>
       </c>
       <c r="E526" s="19">
@@ -11785,7 +11878,7 @@
     </row>
     <row r="527" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B527" s="33"/>
-      <c r="D527" s="39"/>
+      <c r="D527" s="41"/>
       <c r="E527" s="19">
         <v>2</v>
       </c>
@@ -11803,7 +11896,7 @@
     </row>
     <row r="528" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B528" s="33"/>
-      <c r="D528" s="39"/>
+      <c r="D528" s="41"/>
       <c r="E528" s="19">
         <v>3</v>
       </c>
@@ -11831,7 +11924,7 @@
       <c r="C530" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D530" s="39" t="s">
+      <c r="D530" s="41" t="s">
         <v>416</v>
       </c>
       <c r="E530" s="19">
@@ -11848,7 +11941,7 @@
     </row>
     <row r="531" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B531" s="33"/>
-      <c r="D531" s="39"/>
+      <c r="D531" s="41"/>
       <c r="E531" s="19">
         <v>2</v>
       </c>
@@ -11866,7 +11959,7 @@
     </row>
     <row r="532" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B532" s="33"/>
-      <c r="D532" s="39"/>
+      <c r="D532" s="41"/>
       <c r="E532" s="19">
         <v>5</v>
       </c>
@@ -11881,7 +11974,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B533" s="33"/>
-      <c r="D533" s="39"/>
+      <c r="D533" s="41"/>
       <c r="E533" s="19">
         <v>6</v>
       </c>
@@ -11897,7 +11990,7 @@
     <row r="534" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A534" s="31"/>
       <c r="B534" s="33"/>
-      <c r="D534" s="39"/>
+      <c r="D534" s="41"/>
       <c r="E534" s="19">
         <v>7</v>
       </c>
@@ -11925,7 +12018,7 @@
       <c r="C536" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D536" s="39" t="s">
+      <c r="D536" s="41" t="s">
         <v>424</v>
       </c>
       <c r="E536" s="19">
@@ -11942,7 +12035,7 @@
     </row>
     <row r="537" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B537" s="33"/>
-      <c r="D537" s="39"/>
+      <c r="D537" s="41"/>
       <c r="E537" s="19">
         <v>2</v>
       </c>
@@ -11960,7 +12053,7 @@
     </row>
     <row r="538" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B538" s="33"/>
-      <c r="D538" s="39"/>
+      <c r="D538" s="41"/>
       <c r="E538" s="19">
         <v>3</v>
       </c>
@@ -11975,7 +12068,7 @@
     </row>
     <row r="539" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B539" s="33"/>
-      <c r="D539" s="39"/>
+      <c r="D539" s="41"/>
       <c r="E539" s="19">
         <v>4</v>
       </c>
@@ -11994,7 +12087,7 @@
     <row r="540" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A540" s="31"/>
       <c r="B540" s="33"/>
-      <c r="D540" s="39"/>
+      <c r="D540" s="41"/>
       <c r="E540" s="19">
         <v>5</v>
       </c>
@@ -12010,7 +12103,7 @@
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="31"/>
       <c r="B541" s="33"/>
-      <c r="D541" s="39"/>
+      <c r="D541" s="41"/>
       <c r="E541" s="19">
         <v>6</v>
       </c>
@@ -12038,7 +12131,7 @@
       <c r="C543" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D543" s="39" t="s">
+      <c r="D543" s="41" t="s">
         <v>428</v>
       </c>
       <c r="E543" s="19">
@@ -12055,7 +12148,7 @@
     </row>
     <row r="544" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B544" s="33"/>
-      <c r="D544" s="39"/>
+      <c r="D544" s="41"/>
       <c r="E544" s="19">
         <v>2</v>
       </c>
@@ -12073,7 +12166,7 @@
     </row>
     <row r="545" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B545" s="33"/>
-      <c r="D545" s="39"/>
+      <c r="D545" s="41"/>
       <c r="E545" s="19">
         <v>3</v>
       </c>
@@ -12091,7 +12184,7 @@
     </row>
     <row r="546" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B546" s="33"/>
-      <c r="D546" s="39"/>
+      <c r="D546" s="41"/>
       <c r="E546" s="19">
         <v>4</v>
       </c>
@@ -12110,7 +12203,7 @@
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="31"/>
       <c r="B547" s="33"/>
-      <c r="D547" s="39"/>
+      <c r="D547" s="41"/>
       <c r="E547" s="19">
         <v>5</v>
       </c>
@@ -12126,7 +12219,7 @@
     <row r="548" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A548" s="31"/>
       <c r="B548" s="33"/>
-      <c r="D548" s="39"/>
+      <c r="D548" s="41"/>
       <c r="E548" s="19">
         <v>6</v>
       </c>
@@ -12157,7 +12250,7 @@
       <c r="C550" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D550" s="39" t="s">
+      <c r="D550" s="41" t="s">
         <v>436</v>
       </c>
       <c r="E550" s="19">
@@ -12174,7 +12267,7 @@
     </row>
     <row r="551" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B551" s="33"/>
-      <c r="D551" s="39"/>
+      <c r="D551" s="41"/>
       <c r="E551" s="19">
         <v>2</v>
       </c>
@@ -12192,7 +12285,7 @@
     </row>
     <row r="552" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B552" s="33"/>
-      <c r="D552" s="39"/>
+      <c r="D552" s="41"/>
       <c r="E552" s="19">
         <v>3</v>
       </c>
@@ -12210,7 +12303,7 @@
     </row>
     <row r="553" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B553" s="33"/>
-      <c r="D553" s="39"/>
+      <c r="D553" s="41"/>
       <c r="E553" s="19">
         <v>4</v>
       </c>
@@ -12229,7 +12322,7 @@
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="31"/>
       <c r="B554" s="33"/>
-      <c r="D554" s="39"/>
+      <c r="D554" s="41"/>
       <c r="E554" s="19">
         <v>5</v>
       </c>
@@ -12245,7 +12338,7 @@
     <row r="555" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="31"/>
       <c r="B555" s="33"/>
-      <c r="D555" s="39"/>
+      <c r="D555" s="41"/>
       <c r="E555" s="19">
         <v>6</v>
       </c>
@@ -12260,7 +12353,7 @@
     </row>
     <row r="556" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B556" s="33"/>
-      <c r="D556" s="39"/>
+      <c r="D556" s="41"/>
       <c r="E556" s="19">
         <v>7</v>
       </c>
@@ -12278,7 +12371,7 @@
     </row>
     <row r="557" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B557" s="33"/>
-      <c r="D557" s="39"/>
+      <c r="D557" s="41"/>
       <c r="E557" s="19">
         <v>8</v>
       </c>
@@ -12297,7 +12390,7 @@
     <row r="558" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A558" s="31"/>
       <c r="B558" s="33"/>
-      <c r="D558" s="39"/>
+      <c r="D558" s="41"/>
       <c r="E558" s="19">
         <v>9</v>
       </c>
@@ -12315,7 +12408,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B559" s="33"/>
-      <c r="D559" s="39"/>
+      <c r="D559" s="41"/>
       <c r="E559" s="19">
         <v>10</v>
       </c>
@@ -12343,7 +12436,7 @@
       <c r="C561" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D561" s="39" t="s">
+      <c r="D561" s="41" t="s">
         <v>438</v>
       </c>
       <c r="E561" s="19">
@@ -12360,7 +12453,7 @@
     </row>
     <row r="562" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B562" s="33"/>
-      <c r="D562" s="39"/>
+      <c r="D562" s="41"/>
       <c r="E562" s="19">
         <v>2</v>
       </c>
@@ -12378,7 +12471,7 @@
     </row>
     <row r="563" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B563" s="33"/>
-      <c r="D563" s="39"/>
+      <c r="D563" s="41"/>
       <c r="E563" s="19">
         <v>3</v>
       </c>
@@ -12396,7 +12489,7 @@
     </row>
     <row r="564" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B564" s="33"/>
-      <c r="D564" s="39"/>
+      <c r="D564" s="41"/>
       <c r="E564" s="19">
         <v>4</v>
       </c>
@@ -12415,7 +12508,7 @@
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="31"/>
       <c r="B565" s="33"/>
-      <c r="D565" s="39"/>
+      <c r="D565" s="41"/>
       <c r="E565" s="19">
         <v>5</v>
       </c>
@@ -12431,7 +12524,7 @@
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="31"/>
       <c r="B566" s="33"/>
-      <c r="D566" s="39"/>
+      <c r="D566" s="41"/>
       <c r="E566" s="19">
         <v>6</v>
       </c>
@@ -12446,7 +12539,7 @@
     </row>
     <row r="567" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B567" s="33"/>
-      <c r="D567" s="39"/>
+      <c r="D567" s="41"/>
       <c r="E567" s="19">
         <v>7</v>
       </c>
@@ -12461,7 +12554,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B568" s="33"/>
-      <c r="D568" s="39"/>
+      <c r="D568" s="41"/>
       <c r="E568" s="19">
         <v>8</v>
       </c>
@@ -12489,7 +12582,7 @@
       <c r="C570" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D570" s="39" t="s">
+      <c r="D570" s="41" t="s">
         <v>450</v>
       </c>
       <c r="E570" s="19">
@@ -12506,7 +12599,7 @@
     </row>
     <row r="571" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B571" s="33"/>
-      <c r="D571" s="39"/>
+      <c r="D571" s="41"/>
       <c r="E571" s="19">
         <v>2</v>
       </c>
@@ -12524,7 +12617,7 @@
     </row>
     <row r="572" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B572" s="33"/>
-      <c r="D572" s="39"/>
+      <c r="D572" s="41"/>
       <c r="E572" s="19">
         <v>3</v>
       </c>
@@ -12539,7 +12632,7 @@
     </row>
     <row r="573" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B573" s="33"/>
-      <c r="D573" s="39"/>
+      <c r="D573" s="41"/>
       <c r="E573" s="19">
         <v>4</v>
       </c>
@@ -12567,7 +12660,7 @@
       <c r="C575" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D575" s="39" t="s">
+      <c r="D575" s="41" t="s">
         <v>454</v>
       </c>
       <c r="E575" s="19">
@@ -12584,7 +12677,7 @@
     </row>
     <row r="576" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B576" s="33"/>
-      <c r="D576" s="39"/>
+      <c r="D576" s="41"/>
       <c r="E576" s="19">
         <v>2</v>
       </c>
@@ -12602,7 +12695,7 @@
     </row>
     <row r="577" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B577" s="33"/>
-      <c r="D577" s="39"/>
+      <c r="D577" s="41"/>
       <c r="E577" s="19">
         <v>3</v>
       </c>
@@ -12617,7 +12710,7 @@
     </row>
     <row r="578" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B578" s="33"/>
-      <c r="D578" s="39"/>
+      <c r="D578" s="41"/>
       <c r="E578" s="19">
         <v>4</v>
       </c>
@@ -12632,7 +12725,7 @@
     </row>
     <row r="579" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B579" s="33"/>
-      <c r="D579" s="39"/>
+      <c r="D579" s="41"/>
       <c r="E579" s="19">
         <v>5</v>
       </c>
@@ -12660,7 +12753,7 @@
       <c r="C581" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D581" s="39" t="s">
+      <c r="D581" s="41" t="s">
         <v>460</v>
       </c>
       <c r="E581" s="19">
@@ -12677,7 +12770,7 @@
     </row>
     <row r="582" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B582" s="33"/>
-      <c r="D582" s="39"/>
+      <c r="D582" s="41"/>
       <c r="E582" s="19">
         <v>2</v>
       </c>
@@ -12695,7 +12788,7 @@
     </row>
     <row r="583" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B583" s="33"/>
-      <c r="D583" s="39"/>
+      <c r="D583" s="41"/>
       <c r="E583" s="19">
         <v>3</v>
       </c>
@@ -12713,7 +12806,7 @@
     </row>
     <row r="584" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B584" s="33"/>
-      <c r="D584" s="39"/>
+      <c r="D584" s="41"/>
       <c r="E584" s="19">
         <v>4</v>
       </c>
@@ -12728,7 +12821,7 @@
     </row>
     <row r="585" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B585" s="33"/>
-      <c r="D585" s="39"/>
+      <c r="D585" s="41"/>
       <c r="E585" s="19">
         <v>5</v>
       </c>
@@ -12756,7 +12849,7 @@
       <c r="C587" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D587" s="39" t="s">
+      <c r="D587" s="41" t="s">
         <v>466</v>
       </c>
       <c r="E587" s="19">
@@ -12773,7 +12866,7 @@
     </row>
     <row r="588" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B588" s="33"/>
-      <c r="D588" s="39"/>
+      <c r="D588" s="41"/>
       <c r="E588" s="19">
         <v>2</v>
       </c>
@@ -12791,7 +12884,7 @@
     </row>
     <row r="589" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B589" s="33"/>
-      <c r="D589" s="39"/>
+      <c r="D589" s="41"/>
       <c r="E589" s="19">
         <v>3</v>
       </c>
@@ -12806,7 +12899,7 @@
     </row>
     <row r="590" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B590" s="33"/>
-      <c r="D590" s="39"/>
+      <c r="D590" s="41"/>
       <c r="E590" s="19">
         <v>4</v>
       </c>
@@ -12821,7 +12914,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B591" s="33"/>
-      <c r="D591" s="39"/>
+      <c r="D591" s="41"/>
       <c r="E591" s="19">
         <v>5</v>
       </c>
@@ -12836,7 +12929,7 @@
     </row>
     <row r="592" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B592" s="33"/>
-      <c r="D592" s="39"/>
+      <c r="D592" s="41"/>
       <c r="E592" s="19">
         <v>6</v>
       </c>
@@ -12864,7 +12957,7 @@
       <c r="C594" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D594" s="39" t="s">
+      <c r="D594" s="41" t="s">
         <v>471</v>
       </c>
       <c r="E594" s="19">
@@ -12881,7 +12974,7 @@
     </row>
     <row r="595" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B595" s="33"/>
-      <c r="D595" s="39"/>
+      <c r="D595" s="41"/>
       <c r="E595" s="19">
         <v>2</v>
       </c>
@@ -12899,7 +12992,7 @@
     </row>
     <row r="596" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B596" s="33"/>
-      <c r="D596" s="39"/>
+      <c r="D596" s="41"/>
       <c r="E596" s="19">
         <v>3</v>
       </c>
@@ -12914,7 +13007,7 @@
     </row>
     <row r="597" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B597" s="33"/>
-      <c r="D597" s="39"/>
+      <c r="D597" s="41"/>
       <c r="E597" s="19">
         <v>4</v>
       </c>
@@ -12929,7 +13022,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B598" s="33"/>
-      <c r="D598" s="39"/>
+      <c r="D598" s="41"/>
       <c r="E598" s="19">
         <v>5</v>
       </c>
@@ -12944,7 +13037,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B599" s="32"/>
-      <c r="D599" s="39"/>
+      <c r="D599" s="41"/>
       <c r="E599" s="19">
         <v>6</v>
       </c>
@@ -12962,18 +13055,58 @@
       <c r="J600" s="2"/>
       <c r="K600" s="2"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B601" s="32"/>
+    <row r="601" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A601" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="B601" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C601" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D601" s="41" t="s">
+        <v>475</v>
+      </c>
+      <c r="E601" s="19">
+        <v>1</v>
+      </c>
+      <c r="F601" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="G601" s="19" t="s">
+        <v>477</v>
+      </c>
       <c r="J601" s="2"/>
       <c r="K601" s="2"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B602" s="32"/>
+    <row r="602" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B602" s="39"/>
+      <c r="D602" s="41"/>
+      <c r="E602" s="19">
+        <v>2</v>
+      </c>
+      <c r="F602" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="G602" s="19" t="s">
+        <v>479</v>
+      </c>
       <c r="J602" s="2"/>
       <c r="K602" s="2"/>
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B603" s="32"/>
+      <c r="B603" s="39"/>
+      <c r="D603" s="41"/>
+      <c r="E603" s="19">
+        <v>3</v>
+      </c>
+      <c r="F603" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="G603" s="19" t="s">
+        <v>481</v>
+      </c>
       <c r="J603" s="2"/>
       <c r="K603" s="2"/>
     </row>
@@ -12982,102 +13115,282 @@
       <c r="J604" s="2"/>
       <c r="K604" s="2"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B605" s="32"/>
+    <row r="605" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A605" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="B605" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C605" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D605" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="E605" s="19">
+        <v>1</v>
+      </c>
+      <c r="F605" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="G605" s="19" t="s">
+        <v>485</v>
+      </c>
       <c r="J605" s="2"/>
       <c r="K605" s="2"/>
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B606" s="32"/>
+      <c r="B606" s="39"/>
+      <c r="D606" s="41"/>
+      <c r="E606" s="19">
+        <v>2</v>
+      </c>
+      <c r="F606" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="G606" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="H606" s="19" t="s">
+        <v>488</v>
+      </c>
       <c r="J606" s="2"/>
       <c r="K606" s="2"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B607" s="32"/>
+    <row r="607" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B607" s="39"/>
+      <c r="D607" s="41"/>
+      <c r="E607" s="19">
+        <v>3</v>
+      </c>
+      <c r="F607" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="G607" s="19" t="s">
+        <v>490</v>
+      </c>
       <c r="J607" s="2"/>
       <c r="K607" s="2"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B608" s="32"/>
+      <c r="D608" s="41"/>
+      <c r="E608" s="19">
+        <v>4</v>
+      </c>
+      <c r="F608" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="G608" s="19" t="s">
+        <v>496</v>
+      </c>
       <c r="J608" s="2"/>
       <c r="K608" s="2"/>
     </row>
-    <row r="609" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B609" s="32"/>
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B609" s="38"/>
+      <c r="D609" s="38"/>
       <c r="J609" s="2"/>
       <c r="K609" s="2"/>
     </row>
-    <row r="610" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B610" s="32"/>
+    <row r="610" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A610" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="B610" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C610" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D610" s="41" t="s">
+        <v>494</v>
+      </c>
+      <c r="E610" s="19">
+        <v>1</v>
+      </c>
+      <c r="F610" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="G610" s="19" t="s">
+        <v>485</v>
+      </c>
       <c r="J610" s="2"/>
       <c r="K610" s="2"/>
     </row>
-    <row r="611" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B611" s="32"/>
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B611" s="39"/>
+      <c r="D611" s="41"/>
+      <c r="E611" s="19">
+        <v>2</v>
+      </c>
+      <c r="F611" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="G611" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="H611" s="19" t="s">
+        <v>488</v>
+      </c>
       <c r="J611" s="2"/>
       <c r="K611" s="2"/>
     </row>
-    <row r="612" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B612" s="32"/>
+    <row r="612" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B612" s="39"/>
+      <c r="D612" s="41"/>
+      <c r="E612" s="19">
+        <v>3</v>
+      </c>
+      <c r="F612" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="G612" s="19" t="s">
+        <v>492</v>
+      </c>
       <c r="J612" s="2"/>
       <c r="K612" s="2"/>
     </row>
-    <row r="613" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B613" s="32"/>
+      <c r="D613" s="41"/>
+      <c r="E613" s="19">
+        <v>4</v>
+      </c>
+      <c r="F613" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="G613" s="19" t="s">
+        <v>496</v>
+      </c>
       <c r="J613" s="2"/>
       <c r="K613" s="2"/>
     </row>
-    <row r="614" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B614" s="32"/>
+      <c r="D614" s="41"/>
+      <c r="E614" s="19">
+        <v>5</v>
+      </c>
+      <c r="F614" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="G614" s="19" t="s">
+        <v>497</v>
+      </c>
       <c r="J614" s="2"/>
       <c r="K614" s="2"/>
     </row>
-    <row r="615" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B615" s="32"/>
       <c r="J615" s="2"/>
       <c r="K615" s="2"/>
     </row>
-    <row r="616" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B616" s="32"/>
+    <row r="616" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A616" s="29" t="s">
+        <v>498</v>
+      </c>
+      <c r="B616" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C616" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D616" s="41" t="s">
+        <v>499</v>
+      </c>
+      <c r="E616" s="19">
+        <v>1</v>
+      </c>
+      <c r="F616" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="G616" s="19" t="s">
+        <v>501</v>
+      </c>
       <c r="J616" s="2"/>
       <c r="K616" s="2"/>
     </row>
-    <row r="617" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B617" s="32"/>
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B617" s="39"/>
+      <c r="D617" s="41"/>
+      <c r="E617" s="19">
+        <v>2</v>
+      </c>
+      <c r="F617" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="G617" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="H617" s="19" t="s">
+        <v>488</v>
+      </c>
       <c r="J617" s="2"/>
       <c r="K617" s="2"/>
     </row>
-    <row r="618" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B618" s="32"/>
+    <row r="618" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B618" s="39"/>
+      <c r="D618" s="41"/>
+      <c r="E618" s="19">
+        <v>3</v>
+      </c>
+      <c r="F618" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="G618" s="19" t="s">
+        <v>492</v>
+      </c>
       <c r="J618" s="2"/>
       <c r="K618" s="2"/>
     </row>
-    <row r="619" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B619" s="32"/>
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B619" s="38"/>
+      <c r="D619" s="41"/>
+      <c r="E619" s="19">
+        <v>4</v>
+      </c>
+      <c r="F619" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="G619" s="19" t="s">
+        <v>496</v>
+      </c>
       <c r="J619" s="2"/>
       <c r="K619" s="2"/>
     </row>
-    <row r="620" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B620" s="32"/>
+    <row r="620" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B620" s="38"/>
+      <c r="D620" s="41"/>
+      <c r="E620" s="19">
+        <v>5</v>
+      </c>
+      <c r="F620" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="G620" s="19" t="s">
+        <v>497</v>
+      </c>
       <c r="J620" s="2"/>
       <c r="K620" s="2"/>
     </row>
-    <row r="621" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B621" s="32"/>
       <c r="J621" s="2"/>
       <c r="K621" s="2"/>
     </row>
-    <row r="622" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B622" s="32"/>
       <c r="J622" s="2"/>
       <c r="K622" s="2"/>
     </row>
-    <row r="623" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B623" s="32"/>
       <c r="J623" s="2"/>
       <c r="K623" s="2"/>
     </row>
-    <row r="624" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B624" s="32"/>
       <c r="J624" s="2"/>
       <c r="K624" s="2"/>
@@ -13309,12 +13622,10 @@
     </row>
     <row r="670" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B670" s="32"/>
-      <c r="J670" s="2"/>
       <c r="K670" s="2"/>
     </row>
     <row r="671" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B671" s="32"/>
-      <c r="J671" s="2"/>
       <c r="K671" s="2"/>
     </row>
     <row r="672" spans="2:11" x14ac:dyDescent="0.25">
@@ -13449,52 +13760,97 @@
       <c r="B704" s="32"/>
       <c r="K704" s="2"/>
     </row>
-    <row r="705" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B705" s="32"/>
+    <row r="705" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K705" s="2"/>
     </row>
-    <row r="706" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B706" s="32"/>
+    <row r="706" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K706" s="2"/>
     </row>
-    <row r="707" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K707" s="2"/>
     </row>
-    <row r="708" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K708" s="2"/>
     </row>
-    <row r="709" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K709" s="2"/>
     </row>
-    <row r="710" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K710" s="2"/>
     </row>
-    <row r="711" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K711" s="2"/>
     </row>
-    <row r="712" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K712" s="2"/>
     </row>
-    <row r="713" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K713" s="2"/>
     </row>
-    <row r="714" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K714" s="2"/>
     </row>
-    <row r="715" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K715" s="2"/>
-    </row>
-    <row r="716" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K716" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="77">
-    <mergeCell ref="D587:D592"/>
-    <mergeCell ref="D594:D599"/>
-    <mergeCell ref="D561:D568"/>
-    <mergeCell ref="D570:D573"/>
-    <mergeCell ref="D575:D579"/>
-    <mergeCell ref="D581:D585"/>
+  <mergeCells count="81">
+    <mergeCell ref="D616:D620"/>
+    <mergeCell ref="D601:D603"/>
+    <mergeCell ref="D605:D608"/>
+    <mergeCell ref="D610:D614"/>
+    <mergeCell ref="D492:D498"/>
+    <mergeCell ref="D500:D505"/>
+    <mergeCell ref="D507:D512"/>
+    <mergeCell ref="D514:D516"/>
+    <mergeCell ref="D470:D474"/>
+    <mergeCell ref="D476:D482"/>
+    <mergeCell ref="D484:D490"/>
+    <mergeCell ref="D446:D450"/>
+    <mergeCell ref="D452:D456"/>
+    <mergeCell ref="D458:D462"/>
+    <mergeCell ref="D464:D468"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="D119:D125"/>
+    <mergeCell ref="D182:D193"/>
+    <mergeCell ref="D195:D206"/>
+    <mergeCell ref="D208:D216"/>
+    <mergeCell ref="D218:D227"/>
+    <mergeCell ref="D229:D238"/>
+    <mergeCell ref="D240:D245"/>
+    <mergeCell ref="D247:D253"/>
+    <mergeCell ref="D255:D261"/>
+    <mergeCell ref="D263:D269"/>
+    <mergeCell ref="D271:D278"/>
+    <mergeCell ref="D52:D61"/>
+    <mergeCell ref="D434:D438"/>
+    <mergeCell ref="D428:D432"/>
+    <mergeCell ref="D440:D444"/>
+    <mergeCell ref="D170:D180"/>
+    <mergeCell ref="D69:D74"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="D86:D92"/>
+    <mergeCell ref="D127:D133"/>
+    <mergeCell ref="D135:D144"/>
+    <mergeCell ref="D146:D156"/>
+    <mergeCell ref="D158:D168"/>
+    <mergeCell ref="D94:D101"/>
+    <mergeCell ref="D103:D110"/>
+    <mergeCell ref="D112:D117"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="D32:D40"/>
+    <mergeCell ref="D42:D50"/>
+    <mergeCell ref="D280:D287"/>
+    <mergeCell ref="D289:D294"/>
+    <mergeCell ref="D296:D302"/>
+    <mergeCell ref="D304:D310"/>
+    <mergeCell ref="D312:D317"/>
+    <mergeCell ref="D416:D420"/>
+    <mergeCell ref="D319:D325"/>
+    <mergeCell ref="D327:D333"/>
+    <mergeCell ref="D335:D340"/>
+    <mergeCell ref="D342:D348"/>
+    <mergeCell ref="D350:D356"/>
     <mergeCell ref="D536:D541"/>
     <mergeCell ref="D543:D548"/>
     <mergeCell ref="D550:D559"/>
@@ -13511,65 +13867,16 @@
     <mergeCell ref="D373:D379"/>
     <mergeCell ref="D381:D386"/>
     <mergeCell ref="D388:D394"/>
-    <mergeCell ref="D416:D420"/>
-    <mergeCell ref="D319:D325"/>
-    <mergeCell ref="D327:D333"/>
-    <mergeCell ref="D335:D340"/>
-    <mergeCell ref="D342:D348"/>
-    <mergeCell ref="D350:D356"/>
-    <mergeCell ref="D280:D287"/>
-    <mergeCell ref="D289:D294"/>
-    <mergeCell ref="D296:D302"/>
-    <mergeCell ref="D304:D310"/>
-    <mergeCell ref="D312:D317"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="D32:D40"/>
-    <mergeCell ref="D42:D50"/>
-    <mergeCell ref="D52:D61"/>
-    <mergeCell ref="D434:D438"/>
-    <mergeCell ref="D428:D432"/>
-    <mergeCell ref="D440:D444"/>
-    <mergeCell ref="D170:D180"/>
-    <mergeCell ref="D69:D74"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="D86:D92"/>
-    <mergeCell ref="D127:D133"/>
-    <mergeCell ref="D135:D144"/>
-    <mergeCell ref="D146:D156"/>
-    <mergeCell ref="D158:D168"/>
-    <mergeCell ref="D94:D101"/>
-    <mergeCell ref="D103:D110"/>
-    <mergeCell ref="D112:D117"/>
-    <mergeCell ref="D446:D450"/>
-    <mergeCell ref="D452:D456"/>
-    <mergeCell ref="D458:D462"/>
-    <mergeCell ref="D464:D468"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="D119:D125"/>
-    <mergeCell ref="D182:D193"/>
-    <mergeCell ref="D195:D206"/>
-    <mergeCell ref="D208:D216"/>
-    <mergeCell ref="D218:D227"/>
-    <mergeCell ref="D229:D238"/>
-    <mergeCell ref="D240:D245"/>
-    <mergeCell ref="D247:D253"/>
-    <mergeCell ref="D255:D261"/>
-    <mergeCell ref="D263:D269"/>
-    <mergeCell ref="D271:D278"/>
-    <mergeCell ref="D492:D498"/>
-    <mergeCell ref="D500:D505"/>
-    <mergeCell ref="D507:D512"/>
-    <mergeCell ref="D514:D516"/>
-    <mergeCell ref="D470:D474"/>
-    <mergeCell ref="D476:D482"/>
-    <mergeCell ref="D484:D490"/>
+    <mergeCell ref="D587:D592"/>
+    <mergeCell ref="D594:D599"/>
+    <mergeCell ref="D561:D568"/>
+    <mergeCell ref="D570:D573"/>
+    <mergeCell ref="D575:D579"/>
+    <mergeCell ref="D581:D585"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B169:B201 B207:B235 B239:B260 B262:B286 B288:B309 B312:B332 B334:B355 B357:B378 B380:B401 B2:B164 B403:B592 B594:B598" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B169:B201 B207:B235 B239:B260 B262:B286 B288:B309 B312:B332 B334:B355 B357:B378 B380:B401 B2:B164 B403:B592 B594:B598 B601:B603 B605:B607 B610:B612 B616:B618" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C169:C201 C207:C235 C239:C260 C262:C286 C288:C309 C312:C332 C334:C355 C357:C378 C380:C401 C2:C164 C403:C1048576" xr:uid="{4613EE89-5E19-42FA-AB1F-2526DEDE59AC}">
@@ -13578,10 +13885,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J486" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J487:J671" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J487:J669" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K716" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K714" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13616,7 +13923,7 @@
       <c r="C2" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="41" t="s">
         <v>287</v>
       </c>
       <c r="E2" s="19">
@@ -13632,7 +13939,7 @@
       <c r="A3" s="30"/>
       <c r="B3" s="33"/>
       <c r="C3" s="26"/>
-      <c r="D3" s="39"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="19">
         <v>2</v>
       </c>
@@ -13648,7 +13955,7 @@
       <c r="A4" s="30"/>
       <c r="B4" s="33"/>
       <c r="C4" s="26"/>
-      <c r="D4" s="39"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="19">
         <v>3</v>
       </c>
@@ -13664,7 +13971,7 @@
       <c r="A5" s="30"/>
       <c r="B5" s="33"/>
       <c r="C5" s="26"/>
-      <c r="D5" s="39"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="19">
         <v>4</v>
       </c>
@@ -13680,7 +13987,7 @@
       <c r="A6" s="30"/>
       <c r="B6" s="33"/>
       <c r="C6" s="26"/>
-      <c r="D6" s="39"/>
+      <c r="D6" s="41"/>
       <c r="E6" s="19">
         <v>5</v>
       </c>
@@ -13696,7 +14003,7 @@
       <c r="A7" s="30"/>
       <c r="B7" s="33"/>
       <c r="C7" s="26"/>
-      <c r="D7" s="39"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="19">
         <v>6</v>
       </c>
@@ -13728,7 +14035,7 @@
       <c r="C9" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="41" t="s">
         <v>291</v>
       </c>
       <c r="E9" s="19">
@@ -13744,7 +14051,7 @@
       <c r="A10" s="30"/>
       <c r="B10" s="33"/>
       <c r="C10" s="26"/>
-      <c r="D10" s="39"/>
+      <c r="D10" s="41"/>
       <c r="E10" s="19">
         <v>2</v>
       </c>
@@ -13760,7 +14067,7 @@
       <c r="A11" s="30"/>
       <c r="B11" s="33"/>
       <c r="C11" s="26"/>
-      <c r="D11" s="39"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="19">
         <v>3</v>
       </c>
@@ -13776,7 +14083,7 @@
       <c r="A12" s="30"/>
       <c r="B12" s="33"/>
       <c r="C12" s="26"/>
-      <c r="D12" s="39"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="19">
         <v>4</v>
       </c>
@@ -13792,7 +14099,7 @@
       <c r="A13" s="30"/>
       <c r="B13" s="33"/>
       <c r="C13" s="26"/>
-      <c r="D13" s="39"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="19">
         <v>5</v>
       </c>
@@ -13808,7 +14115,7 @@
       <c r="A14" s="30"/>
       <c r="B14" s="33"/>
       <c r="C14" s="26"/>
-      <c r="D14" s="39"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="19">
         <v>6</v>
       </c>
@@ -13824,7 +14131,7 @@
       <c r="A15" s="30"/>
       <c r="B15" s="33"/>
       <c r="C15" s="26"/>
-      <c r="D15" s="39"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="19">
         <v>7</v>
       </c>
@@ -13854,7 +14161,7 @@
       <c r="C17" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="41" t="s">
         <v>294</v>
       </c>
       <c r="E17" s="19">
@@ -13870,7 +14177,7 @@
       <c r="A18" s="30"/>
       <c r="B18" s="33"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="39"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="19">
         <v>2</v>
       </c>
@@ -13886,7 +14193,7 @@
       <c r="A19" s="30"/>
       <c r="B19" s="33"/>
       <c r="C19" s="26"/>
-      <c r="D19" s="39"/>
+      <c r="D19" s="41"/>
       <c r="E19" s="19">
         <v>3</v>
       </c>
@@ -13902,7 +14209,7 @@
       <c r="A20" s="30"/>
       <c r="B20" s="33"/>
       <c r="C20" s="26"/>
-      <c r="D20" s="39"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="19">
         <v>4</v>
       </c>
@@ -13918,7 +14225,7 @@
       <c r="A21" s="30"/>
       <c r="B21" s="33"/>
       <c r="C21" s="26"/>
-      <c r="D21" s="39"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="19">
         <v>5</v>
       </c>
@@ -13934,7 +14241,7 @@
       <c r="A22" s="30"/>
       <c r="B22" s="33"/>
       <c r="C22" s="26"/>
-      <c r="D22" s="39"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="19">
         <v>6</v>
       </c>
@@ -13947,7 +14254,7 @@
       <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D23" s="39"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="19">
         <v>7</v>
       </c>

--- a/Test Case/Rijo/Test Case - Theatre.xlsx
+++ b/Test Case/Rijo/Test Case - Theatre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\Mediware\CentralRepository-Mediware\Test Case\Rijo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E47A71C-AE5E-4166-B17F-1F1D870B235E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F33F7B9-11B0-4FBC-BBEF-2B43D96410BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="593">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -2028,6 +2028,337 @@
   </si>
   <si>
     <t>Stock consumption form should be displayed</t>
+  </si>
+  <si>
+    <t>Enter consumption details 
+Category
+Item Alias
+Item 
+Batch
+Qty Consum and click on add button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumption details should be added </t>
+  </si>
+  <si>
+    <t>Stock consumption should be saved successfully</t>
+  </si>
+  <si>
+    <t>MED_THEATRE_TC_082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that user is able to view and cancel stock consumption of the patient </t>
+  </si>
+  <si>
+    <t>Click on View Previous</t>
+  </si>
+  <si>
+    <t>Previous stock consumption should be listed</t>
+  </si>
+  <si>
+    <t>Delete any of the list item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock consumption should be cancelled </t>
+  </si>
+  <si>
+    <t>MED_THEATRE_TC_083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify whether user is able to record the medicines issued to the patient </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate to Theatre&gt;&gt;Menu&gt;&gt;Transations&gt;&gt;Issued To Patient </t>
+  </si>
+  <si>
+    <t>Issued To Patient entry form should be displayed</t>
+  </si>
+  <si>
+    <t>Select the type of issue from the list 
+Direct 
+Surgery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of issue should be selected </t>
+  </si>
+  <si>
+    <t>Enter issued medicine details 
+Medicine
+Qty
+Loose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medicine issue details should be added </t>
+  </si>
+  <si>
+    <t>Issued to Patient details should be saved successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify whether user is able to view previous medicines issued to the patient </t>
+  </si>
+  <si>
+    <t>Previous medicines issued to the patient should be listed</t>
+  </si>
+  <si>
+    <t>MED_THEATRE_TC_084</t>
+  </si>
+  <si>
+    <t>MED_THEATRE_TC_085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify whether user is able to create a direct surgery request </t>
+  </si>
+  <si>
+    <t>Navigate to Theatre&gt;&gt;Menu&gt;&gt;Transations&gt;&gt;Direct Surgery Entry</t>
+  </si>
+  <si>
+    <t>Enter the following Surgery details 
+Surgery Plan Type
+Surgery Amount
+Theatre
+Operation Charges
+Doctors
+Anesthesiologist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surgery Details should be entered </t>
+  </si>
+  <si>
+    <t>Enter the following Resources details 
+Scrub Nurse
+Circulatory Nurse
+Other Staffs
+Equipments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resources Details should be entered </t>
+  </si>
+  <si>
+    <t>Enter the following OT Procedure details 
+Procedure
+From Date
+To Date 
+Qty
+Hrs
+Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OT Procedure Details should be entered </t>
+  </si>
+  <si>
+    <t>Click on Save</t>
+  </si>
+  <si>
+    <t>MED_THEATRE_TC_086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search with the patient ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient should be listed </t>
+  </si>
+  <si>
+    <t>Enter following basic details
+Surgery
+Theatre
+Surgeon
+Surgery Date and click Add button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surgery details should be added </t>
+  </si>
+  <si>
+    <t>Verify whether user is able to view and print Pending Surgery report</t>
+  </si>
+  <si>
+    <t>Navigate to Theatre&gt;&gt;Menu&gt;&gt;ORBook&gt;&gt;Pending Surgery Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pending surgery report should displayed </t>
+  </si>
+  <si>
+    <t>Apply search criteria and click search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pending request should be listed </t>
+  </si>
+  <si>
+    <t>User should be able to print the report</t>
+  </si>
+  <si>
+    <t>MED_THEATRE_TC_087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify whether user can add medical stores </t>
+  </si>
+  <si>
+    <t>Navigate to Theatre&gt;&gt;Menu&gt;&gt;Utilities&gt;&gt;Parameter Settings</t>
+  </si>
+  <si>
+    <t>Parameter settings page should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the choose medical store section, enter the name of new medical store </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New name of the store should be entered </t>
+  </si>
+  <si>
+    <t>Click on Add Medical Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Medical store should be added and marked </t>
+  </si>
+  <si>
+    <t>MED_THEATRE_TC_088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that user is able to sve the parameter settings for Surgery </t>
+  </si>
+  <si>
+    <t>In the Surgery section, set the seletion following 
+Enable Patient Registration
+Anesthesiologist Required 
+Allow Non Confirmed Surgery Requests
+Multiple Surgery Booking Request
+Diagnosis Required
+Show Payment Type
+Show Admission/Surgery Booking
+Block Surgery Request Before
+Enable Sternal Closure
+Surgery Fee Entry Mode
+Show Other Details on Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corresponding seletions should be made </t>
+  </si>
+  <si>
+    <t>Enter Surgery Procedure Category
+Surgeon Fee
+Anesthesiologist Fee
+Anesthsia Charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paramenter settings should be saved </t>
+  </si>
+  <si>
+    <t>MED_THEATRE_TC_089</t>
+  </si>
+  <si>
+    <t>To verify that user is allowed to send Emergency SMS to surgery resources</t>
+  </si>
+  <si>
+    <t>In the Booking section, set the seletion for Send Emergency SMS
+To Surgeon
+To Anesthesiologist
+To Nurses</t>
+  </si>
+  <si>
+    <t>MED_THEATRE_TC_090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify the Availability Alerts of surgery bookings </t>
+  </si>
+  <si>
+    <t>In the Booking section, set Availability Alerts for 
+Surgeron
+Anesthesiologist
+Scrub Nurses
+Circulatory Nurses
+Equipments</t>
+  </si>
+  <si>
+    <t>MED_THEATRE_TC_091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify the parameter settings of Approval on Surgery Booking </t>
+  </si>
+  <si>
+    <t>In the Approval on Surgery Booking section, set approval required for 
+Surgeron (From EMR)
+Anesthesiologist (From EMR)
+Equipment (From Theatre)
+Circulatory Nurse (From Nursing Station)
+Scrub Nurse (From Nursing Station)</t>
+  </si>
+  <si>
+    <t>MED_THEATRE_TC_092</t>
+  </si>
+  <si>
+    <t>Verify that user is allowed to set the mandaotry fields for surgery</t>
+  </si>
+  <si>
+    <t>Navigate to Theatre&gt;&gt;Menu&gt;&gt;Utilities&gt;&gt;Mandatory Fields</t>
+  </si>
+  <si>
+    <t>Mandatory Fields page should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select the check boxes for Surgery Entry and Theatre Booking </t>
+  </si>
+  <si>
+    <t>Mandatory Fields should be selected</t>
+  </si>
+  <si>
+    <t>Operation Fee 
+PAC Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click Generate and then click Update </t>
+  </si>
+  <si>
+    <t>MED_THEATRE_TC_093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify whether user is able to search a patient </t>
+  </si>
+  <si>
+    <t>Navigate to Theatre&gt;&gt;Menu&gt;&gt;Search&gt;&gt;Patient Search</t>
+  </si>
+  <si>
+    <t>Patient Search page should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apply a search criteria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patients should be listed </t>
+  </si>
+  <si>
+    <t>Click on Export To Excel</t>
+  </si>
+  <si>
+    <t>Patient lists should be exported to an Excel</t>
+  </si>
+  <si>
+    <t>MED_THEATRE_TC_094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify whether user is able to search a patient based on doctors </t>
+  </si>
+  <si>
+    <t>Navigate to Theatre&gt;&gt;Menu&gt;&gt;Search&gt;&gt;Doctor Wise Patient List</t>
+  </si>
+  <si>
+    <t>Doctor Wise Patient Lsit page should be displayed</t>
+  </si>
+  <si>
+    <t>Apply a search criteria by selecting doctor</t>
+  </si>
+  <si>
+    <t>MED_THEATRE_TC_095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify whether user is able to search a patient based on nursing station </t>
+  </si>
+  <si>
+    <t>Apply a search criteria by selecting nursing station</t>
+  </si>
+  <si>
+    <t>Nursing Station Wise Patient Lsit page should be displayed</t>
+  </si>
+  <si>
+    <t>Navigate to Theatre&gt;&gt;Menu&gt;&gt;Search&gt;&gt;Nursing Station Wise Patient List</t>
   </si>
 </sst>
 </file>
@@ -2168,7 +2499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2279,6 +2610,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2430,7 +2767,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3607,7 +3944,7 @@
       </c>
       <c r="B5" s="18">
         <f>Theatre!O2</f>
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C5" s="18">
         <f>Theatre!O3</f>
@@ -3665,7 +4002,7 @@
       </c>
       <c r="B7" s="6">
         <f t="shared" ref="B7:G7" si="0">SUM(B2:B6)</f>
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C7" s="6">
         <f t="shared" si="0"/>
@@ -3701,16 +4038,16 @@
       <c r="B10" s="15"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J12" s="40" t="s">
+      <c r="J12" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3724,11 +4061,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R714"/>
+  <dimension ref="A1:R710"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A610" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G617" sqref="G617"/>
+      <pane ySplit="1" topLeftCell="A672" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F685" sqref="F685"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3803,7 +4140,7 @@
       <c r="C2" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="44" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="19">
@@ -3825,7 +4162,7 @@
       </c>
       <c r="O2" s="17">
         <f>COUNTA(A:A)-1</f>
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="Q2" s="27" t="s">
         <v>12</v>
@@ -3839,7 +4176,7 @@
       <c r="A3" s="29"/>
       <c r="B3" s="33"/>
       <c r="C3" s="26"/>
-      <c r="D3" s="43"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="19">
         <v>2</v>
       </c>
@@ -3875,7 +4212,7 @@
       <c r="A4" s="29"/>
       <c r="B4" s="33"/>
       <c r="C4" s="26"/>
-      <c r="D4" s="43"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="19">
         <v>3</v>
       </c>
@@ -3905,7 +4242,7 @@
     <row r="5" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="29"/>
       <c r="B5" s="33"/>
-      <c r="D5" s="43"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="19">
         <v>4</v>
       </c>
@@ -3931,7 +4268,7 @@
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
       <c r="B6" s="33"/>
-      <c r="D6" s="43"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="19">
         <v>5</v>
       </c>
@@ -4038,7 +4375,7 @@
       <c r="C13" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="43" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="19">
@@ -4052,7 +4389,7 @@
     </row>
     <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="33"/>
-      <c r="D14" s="41"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="19">
         <v>2</v>
       </c>
@@ -4067,7 +4404,7 @@
     </row>
     <row r="15" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
-      <c r="D15" s="41"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="19">
         <v>3</v>
       </c>
@@ -4085,7 +4422,7 @@
     </row>
     <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
-      <c r="D16" s="41"/>
+      <c r="D16" s="43"/>
       <c r="E16" s="19">
         <v>5</v>
       </c>
@@ -4113,7 +4450,7 @@
       <c r="C18" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="43" t="s">
         <v>48</v>
       </c>
       <c r="E18" s="19">
@@ -4128,7 +4465,7 @@
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="36"/>
       <c r="B19" s="33"/>
-      <c r="D19" s="41"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="19">
         <v>2</v>
       </c>
@@ -4144,7 +4481,7 @@
     <row r="20" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="B20" s="33"/>
-      <c r="D20" s="41"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="19">
         <v>3</v>
       </c>
@@ -4163,7 +4500,7 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="36"/>
       <c r="B21" s="33"/>
-      <c r="D21" s="41"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="19">
         <v>4</v>
       </c>
@@ -4179,7 +4516,7 @@
     <row r="22" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36"/>
       <c r="B22" s="33"/>
-      <c r="D22" s="41"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="19">
         <v>5</v>
       </c>
@@ -4207,7 +4544,7 @@
       <c r="C24" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="43" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="19">
@@ -4221,7 +4558,7 @@
     </row>
     <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="33"/>
-      <c r="D25" s="41"/>
+      <c r="D25" s="43"/>
       <c r="E25" s="19">
         <v>2</v>
       </c>
@@ -4236,7 +4573,7 @@
     </row>
     <row r="26" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B26" s="33"/>
-      <c r="D26" s="41"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="19">
         <v>3</v>
       </c>
@@ -4254,7 +4591,7 @@
     </row>
     <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="33"/>
-      <c r="D27" s="41"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="19">
         <v>4</v>
       </c>
@@ -4269,7 +4606,7 @@
     </row>
     <row r="28" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B28" s="33"/>
-      <c r="D28" s="41"/>
+      <c r="D28" s="43"/>
       <c r="E28" s="19">
         <v>5</v>
       </c>
@@ -4284,7 +4621,7 @@
     </row>
     <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="33"/>
-      <c r="D29" s="41"/>
+      <c r="D29" s="43"/>
       <c r="E29" s="19">
         <v>6</v>
       </c>
@@ -4299,7 +4636,7 @@
     </row>
     <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="D30" s="41"/>
+      <c r="D30" s="43"/>
       <c r="E30" s="19">
         <v>7</v>
       </c>
@@ -4327,7 +4664,7 @@
       <c r="C32" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="43" t="s">
         <v>58</v>
       </c>
       <c r="E32" s="19">
@@ -4341,7 +4678,7 @@
     </row>
     <row r="33" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
-      <c r="D33" s="41"/>
+      <c r="D33" s="43"/>
       <c r="E33" s="19">
         <v>2</v>
       </c>
@@ -4356,7 +4693,7 @@
     </row>
     <row r="34" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B34" s="33"/>
-      <c r="D34" s="41"/>
+      <c r="D34" s="43"/>
       <c r="E34" s="19">
         <v>3</v>
       </c>
@@ -4374,7 +4711,7 @@
     </row>
     <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="33"/>
-      <c r="D35" s="41"/>
+      <c r="D35" s="43"/>
       <c r="E35" s="19">
         <v>4</v>
       </c>
@@ -4389,7 +4726,7 @@
     </row>
     <row r="36" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B36" s="33"/>
-      <c r="D36" s="41"/>
+      <c r="D36" s="43"/>
       <c r="E36" s="19">
         <v>5</v>
       </c>
@@ -4404,7 +4741,7 @@
     </row>
     <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="33"/>
-      <c r="D37" s="41"/>
+      <c r="D37" s="43"/>
       <c r="E37" s="19">
         <v>6</v>
       </c>
@@ -4419,7 +4756,7 @@
     </row>
     <row r="38" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B38" s="33"/>
-      <c r="D38" s="41"/>
+      <c r="D38" s="43"/>
       <c r="E38" s="19">
         <v>7</v>
       </c>
@@ -4434,7 +4771,7 @@
     </row>
     <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="33"/>
-      <c r="D39" s="41"/>
+      <c r="D39" s="43"/>
       <c r="E39" s="19">
         <v>8</v>
       </c>
@@ -4449,7 +4786,7 @@
     </row>
     <row r="40" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="33"/>
-      <c r="D40" s="41"/>
+      <c r="D40" s="43"/>
       <c r="E40" s="19">
         <v>9</v>
       </c>
@@ -4477,7 +4814,7 @@
       <c r="C42" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="41" t="s">
+      <c r="D42" s="43" t="s">
         <v>83</v>
       </c>
       <c r="E42" s="19">
@@ -4491,7 +4828,7 @@
     </row>
     <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="33"/>
-      <c r="D43" s="41"/>
+      <c r="D43" s="43"/>
       <c r="E43" s="19">
         <v>2</v>
       </c>
@@ -4506,7 +4843,7 @@
     </row>
     <row r="44" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="33"/>
-      <c r="D44" s="41"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="19">
         <v>3</v>
       </c>
@@ -4521,7 +4858,7 @@
     </row>
     <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="33"/>
-      <c r="D45" s="41"/>
+      <c r="D45" s="43"/>
       <c r="E45" s="19">
         <v>4</v>
       </c>
@@ -4536,7 +4873,7 @@
     </row>
     <row r="46" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B46" s="33"/>
-      <c r="D46" s="41"/>
+      <c r="D46" s="43"/>
       <c r="E46" s="19">
         <v>5</v>
       </c>
@@ -4554,7 +4891,7 @@
     </row>
     <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="33"/>
-      <c r="D47" s="41"/>
+      <c r="D47" s="43"/>
       <c r="E47" s="19">
         <v>6</v>
       </c>
@@ -4572,7 +4909,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B48" s="33"/>
-      <c r="D48" s="41"/>
+      <c r="D48" s="43"/>
       <c r="E48" s="19">
         <v>7</v>
       </c>
@@ -4587,7 +4924,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B49" s="33"/>
-      <c r="D49" s="41"/>
+      <c r="D49" s="43"/>
       <c r="E49" s="19">
         <v>8</v>
       </c>
@@ -4602,7 +4939,7 @@
     </row>
     <row r="50" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="33"/>
-      <c r="D50" s="41"/>
+      <c r="D50" s="43"/>
       <c r="E50" s="19">
         <v>9</v>
       </c>
@@ -4630,7 +4967,7 @@
       <c r="C52" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="41" t="s">
+      <c r="D52" s="43" t="s">
         <v>84</v>
       </c>
       <c r="E52" s="19">
@@ -4644,7 +4981,7 @@
     </row>
     <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="33"/>
-      <c r="D53" s="41"/>
+      <c r="D53" s="43"/>
       <c r="E53" s="19">
         <v>2</v>
       </c>
@@ -4659,7 +4996,7 @@
     </row>
     <row r="54" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="33"/>
-      <c r="D54" s="41"/>
+      <c r="D54" s="43"/>
       <c r="E54" s="19">
         <v>3</v>
       </c>
@@ -4674,7 +5011,7 @@
     </row>
     <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" s="33"/>
-      <c r="D55" s="41"/>
+      <c r="D55" s="43"/>
       <c r="E55" s="19">
         <v>4</v>
       </c>
@@ -4689,7 +5026,7 @@
     </row>
     <row r="56" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B56" s="33"/>
-      <c r="D56" s="41"/>
+      <c r="D56" s="43"/>
       <c r="E56" s="19">
         <v>5</v>
       </c>
@@ -4707,7 +5044,7 @@
     </row>
     <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B57" s="33"/>
-      <c r="D57" s="41"/>
+      <c r="D57" s="43"/>
       <c r="E57" s="19">
         <v>6</v>
       </c>
@@ -4725,7 +5062,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B58" s="33"/>
-      <c r="D58" s="41"/>
+      <c r="D58" s="43"/>
       <c r="E58" s="19">
         <v>7</v>
       </c>
@@ -4740,7 +5077,7 @@
     </row>
     <row r="59" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="33"/>
-      <c r="D59" s="41"/>
+      <c r="D59" s="43"/>
       <c r="E59" s="19">
         <v>8</v>
       </c>
@@ -4755,7 +5092,7 @@
     </row>
     <row r="60" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="33"/>
-      <c r="D60" s="41"/>
+      <c r="D60" s="43"/>
       <c r="E60" s="19">
         <v>9</v>
       </c>
@@ -4770,7 +5107,7 @@
     </row>
     <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B61" s="33"/>
-      <c r="D61" s="41"/>
+      <c r="D61" s="43"/>
       <c r="E61" s="19">
         <v>10</v>
       </c>
@@ -4798,7 +5135,7 @@
       <c r="C63" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D63" s="41" t="s">
+      <c r="D63" s="43" t="s">
         <v>91</v>
       </c>
       <c r="E63" s="19">
@@ -4812,7 +5149,7 @@
     </row>
     <row r="64" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="33"/>
-      <c r="D64" s="41"/>
+      <c r="D64" s="43"/>
       <c r="E64" s="19">
         <v>2</v>
       </c>
@@ -4827,7 +5164,7 @@
     </row>
     <row r="65" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B65" s="33"/>
-      <c r="D65" s="41"/>
+      <c r="D65" s="43"/>
       <c r="E65" s="19">
         <v>3</v>
       </c>
@@ -4842,7 +5179,7 @@
     </row>
     <row r="66" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B66" s="33"/>
-      <c r="D66" s="41"/>
+      <c r="D66" s="43"/>
       <c r="E66" s="19">
         <v>4</v>
       </c>
@@ -4857,7 +5194,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B67" s="33"/>
-      <c r="D67" s="41"/>
+      <c r="D67" s="43"/>
       <c r="E67" s="19">
         <v>5</v>
       </c>
@@ -4885,7 +5222,7 @@
       <c r="C69" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D69" s="41" t="s">
+      <c r="D69" s="43" t="s">
         <v>93</v>
       </c>
       <c r="E69" s="19">
@@ -4899,7 +5236,7 @@
     </row>
     <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B70" s="33"/>
-      <c r="D70" s="41"/>
+      <c r="D70" s="43"/>
       <c r="E70" s="19">
         <v>2</v>
       </c>
@@ -4914,7 +5251,7 @@
     </row>
     <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B71" s="33"/>
-      <c r="D71" s="41"/>
+      <c r="D71" s="43"/>
       <c r="E71" s="19">
         <v>3</v>
       </c>
@@ -4929,7 +5266,7 @@
     </row>
     <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B72" s="33"/>
-      <c r="D72" s="41"/>
+      <c r="D72" s="43"/>
       <c r="E72" s="19">
         <v>4</v>
       </c>
@@ -4944,7 +5281,7 @@
     </row>
     <row r="73" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="33"/>
-      <c r="D73" s="41"/>
+      <c r="D73" s="43"/>
       <c r="E73" s="19">
         <v>5</v>
       </c>
@@ -4959,7 +5296,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B74" s="33"/>
-      <c r="D74" s="41"/>
+      <c r="D74" s="43"/>
       <c r="E74" s="19">
         <v>6</v>
       </c>
@@ -4987,7 +5324,7 @@
       <c r="C76" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D76" s="41" t="s">
+      <c r="D76" s="43" t="s">
         <v>98</v>
       </c>
       <c r="E76" s="19">
@@ -5001,7 +5338,7 @@
     </row>
     <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B77" s="33"/>
-      <c r="D77" s="41"/>
+      <c r="D77" s="43"/>
       <c r="E77" s="19">
         <v>2</v>
       </c>
@@ -5016,7 +5353,7 @@
     </row>
     <row r="78" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="33"/>
-      <c r="D78" s="41"/>
+      <c r="D78" s="43"/>
       <c r="E78" s="19">
         <v>3</v>
       </c>
@@ -5031,7 +5368,7 @@
     </row>
     <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B79" s="33"/>
-      <c r="D79" s="41"/>
+      <c r="D79" s="43"/>
       <c r="E79" s="19">
         <v>4</v>
       </c>
@@ -5059,7 +5396,7 @@
       <c r="C81" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D81" s="41" t="s">
+      <c r="D81" s="43" t="s">
         <v>101</v>
       </c>
       <c r="E81" s="19">
@@ -5073,7 +5410,7 @@
     </row>
     <row r="82" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B82" s="33"/>
-      <c r="D82" s="41"/>
+      <c r="D82" s="43"/>
       <c r="E82" s="19">
         <v>2</v>
       </c>
@@ -5088,7 +5425,7 @@
     </row>
     <row r="83" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="33"/>
-      <c r="D83" s="41"/>
+      <c r="D83" s="43"/>
       <c r="E83" s="19">
         <v>3</v>
       </c>
@@ -5103,7 +5440,7 @@
     </row>
     <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B84" s="33"/>
-      <c r="D84" s="41"/>
+      <c r="D84" s="43"/>
       <c r="E84" s="19">
         <v>4</v>
       </c>
@@ -5132,7 +5469,7 @@
       <c r="C86" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D86" s="41" t="s">
+      <c r="D86" s="43" t="s">
         <v>107</v>
       </c>
       <c r="E86" s="19">
@@ -5146,7 +5483,7 @@
     </row>
     <row r="87" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B87" s="33"/>
-      <c r="D87" s="41"/>
+      <c r="D87" s="43"/>
       <c r="E87" s="19">
         <v>2</v>
       </c>
@@ -5161,7 +5498,7 @@
     </row>
     <row r="88" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="33"/>
-      <c r="D88" s="41"/>
+      <c r="D88" s="43"/>
       <c r="E88" s="19">
         <v>3</v>
       </c>
@@ -5176,7 +5513,7 @@
     </row>
     <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B89" s="33"/>
-      <c r="D89" s="41"/>
+      <c r="D89" s="43"/>
       <c r="E89" s="19">
         <v>4</v>
       </c>
@@ -5191,7 +5528,7 @@
     </row>
     <row r="90" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B90" s="33"/>
-      <c r="D90" s="41"/>
+      <c r="D90" s="43"/>
       <c r="E90" s="19">
         <v>5</v>
       </c>
@@ -5209,7 +5546,7 @@
     </row>
     <row r="91" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B91" s="33"/>
-      <c r="D91" s="41"/>
+      <c r="D91" s="43"/>
       <c r="E91" s="19">
         <v>6</v>
       </c>
@@ -5227,7 +5564,7 @@
     </row>
     <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B92" s="33"/>
-      <c r="D92" s="41"/>
+      <c r="D92" s="43"/>
       <c r="E92" s="19">
         <v>7</v>
       </c>
@@ -5255,7 +5592,7 @@
       <c r="C94" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D94" s="41" t="s">
+      <c r="D94" s="43" t="s">
         <v>115</v>
       </c>
       <c r="E94" s="19">
@@ -5269,7 +5606,7 @@
     </row>
     <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B95" s="33"/>
-      <c r="D95" s="41"/>
+      <c r="D95" s="43"/>
       <c r="E95" s="19">
         <v>2</v>
       </c>
@@ -5284,7 +5621,7 @@
     </row>
     <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B96" s="33"/>
-      <c r="D96" s="41"/>
+      <c r="D96" s="43"/>
       <c r="E96" s="19">
         <v>3</v>
       </c>
@@ -5299,7 +5636,7 @@
     </row>
     <row r="97" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B97" s="33"/>
-      <c r="D97" s="41"/>
+      <c r="D97" s="43"/>
       <c r="E97" s="19">
         <v>4</v>
       </c>
@@ -5314,7 +5651,7 @@
     </row>
     <row r="98" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B98" s="33"/>
-      <c r="D98" s="41"/>
+      <c r="D98" s="43"/>
       <c r="E98" s="19">
         <v>5</v>
       </c>
@@ -5332,7 +5669,7 @@
     </row>
     <row r="99" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="33"/>
-      <c r="D99" s="41"/>
+      <c r="D99" s="43"/>
       <c r="E99" s="19">
         <v>6</v>
       </c>
@@ -5350,7 +5687,7 @@
     </row>
     <row r="100" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B100" s="33"/>
-      <c r="D100" s="41"/>
+      <c r="D100" s="43"/>
       <c r="E100" s="19">
         <v>7</v>
       </c>
@@ -5365,7 +5702,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B101" s="33"/>
-      <c r="D101" s="41"/>
+      <c r="D101" s="43"/>
       <c r="E101" s="19">
         <v>8</v>
       </c>
@@ -5393,7 +5730,7 @@
       <c r="C103" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D103" s="41" t="s">
+      <c r="D103" s="43" t="s">
         <v>115</v>
       </c>
       <c r="E103" s="19">
@@ -5407,7 +5744,7 @@
     </row>
     <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B104" s="33"/>
-      <c r="D104" s="41"/>
+      <c r="D104" s="43"/>
       <c r="E104" s="19">
         <v>2</v>
       </c>
@@ -5422,7 +5759,7 @@
     </row>
     <row r="105" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="33"/>
-      <c r="D105" s="41"/>
+      <c r="D105" s="43"/>
       <c r="E105" s="19">
         <v>3</v>
       </c>
@@ -5437,7 +5774,7 @@
     </row>
     <row r="106" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B106" s="33"/>
-      <c r="D106" s="41"/>
+      <c r="D106" s="43"/>
       <c r="E106" s="19">
         <v>4</v>
       </c>
@@ -5452,7 +5789,7 @@
     </row>
     <row r="107" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B107" s="33"/>
-      <c r="D107" s="41"/>
+      <c r="D107" s="43"/>
       <c r="E107" s="19">
         <v>5</v>
       </c>
@@ -5470,7 +5807,7 @@
     </row>
     <row r="108" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B108" s="33"/>
-      <c r="D108" s="41"/>
+      <c r="D108" s="43"/>
       <c r="E108" s="19">
         <v>6</v>
       </c>
@@ -5488,7 +5825,7 @@
     </row>
     <row r="109" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="33"/>
-      <c r="D109" s="41"/>
+      <c r="D109" s="43"/>
       <c r="E109" s="19">
         <v>7</v>
       </c>
@@ -5503,7 +5840,7 @@
     </row>
     <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B110" s="33"/>
-      <c r="D110" s="41"/>
+      <c r="D110" s="43"/>
       <c r="E110" s="19">
         <v>8</v>
       </c>
@@ -5531,7 +5868,7 @@
       <c r="C112" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D112" s="41" t="s">
+      <c r="D112" s="43" t="s">
         <v>121</v>
       </c>
       <c r="E112" s="19">
@@ -5545,7 +5882,7 @@
     </row>
     <row r="113" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B113" s="33"/>
-      <c r="D113" s="41"/>
+      <c r="D113" s="43"/>
       <c r="E113" s="19">
         <v>2</v>
       </c>
@@ -5560,7 +5897,7 @@
     </row>
     <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B114" s="33"/>
-      <c r="D114" s="41"/>
+      <c r="D114" s="43"/>
       <c r="E114" s="19">
         <v>3</v>
       </c>
@@ -5575,7 +5912,7 @@
     </row>
     <row r="115" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="33"/>
-      <c r="D115" s="41"/>
+      <c r="D115" s="43"/>
       <c r="E115" s="19">
         <v>4</v>
       </c>
@@ -5590,7 +5927,7 @@
     </row>
     <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B116" s="33"/>
-      <c r="D116" s="41"/>
+      <c r="D116" s="43"/>
       <c r="E116" s="19">
         <v>5</v>
       </c>
@@ -5605,7 +5942,7 @@
     </row>
     <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B117" s="33"/>
-      <c r="D117" s="41"/>
+      <c r="D117" s="43"/>
       <c r="E117" s="19">
         <v>6</v>
       </c>
@@ -5633,7 +5970,7 @@
       <c r="C119" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D119" s="41" t="s">
+      <c r="D119" s="43" t="s">
         <v>123</v>
       </c>
       <c r="E119" s="19">
@@ -5647,7 +5984,7 @@
     </row>
     <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B120" s="33"/>
-      <c r="D120" s="41"/>
+      <c r="D120" s="43"/>
       <c r="E120" s="19">
         <v>2</v>
       </c>
@@ -5662,7 +5999,7 @@
     </row>
     <row r="121" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B121" s="33"/>
-      <c r="D121" s="41"/>
+      <c r="D121" s="43"/>
       <c r="E121" s="19">
         <v>3</v>
       </c>
@@ -5677,7 +6014,7 @@
     </row>
     <row r="122" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B122" s="33"/>
-      <c r="D122" s="41"/>
+      <c r="D122" s="43"/>
       <c r="E122" s="19">
         <v>4</v>
       </c>
@@ -5692,7 +6029,7 @@
     </row>
     <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="33"/>
-      <c r="D123" s="41"/>
+      <c r="D123" s="43"/>
       <c r="E123" s="19">
         <v>5</v>
       </c>
@@ -5707,7 +6044,7 @@
     </row>
     <row r="124" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="33"/>
-      <c r="D124" s="41"/>
+      <c r="D124" s="43"/>
       <c r="E124" s="19">
         <v>6</v>
       </c>
@@ -5722,7 +6059,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B125" s="33"/>
-      <c r="D125" s="41"/>
+      <c r="D125" s="43"/>
       <c r="E125" s="19">
         <v>7</v>
       </c>
@@ -5750,7 +6087,7 @@
       <c r="C127" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D127" s="41" t="s">
+      <c r="D127" s="43" t="s">
         <v>123</v>
       </c>
       <c r="E127" s="19">
@@ -5764,7 +6101,7 @@
     </row>
     <row r="128" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B128" s="33"/>
-      <c r="D128" s="41"/>
+      <c r="D128" s="43"/>
       <c r="E128" s="19">
         <v>2</v>
       </c>
@@ -5779,7 +6116,7 @@
     </row>
     <row r="129" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="33"/>
-      <c r="D129" s="41"/>
+      <c r="D129" s="43"/>
       <c r="E129" s="19">
         <v>3</v>
       </c>
@@ -5794,7 +6131,7 @@
     </row>
     <row r="130" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B130" s="33"/>
-      <c r="D130" s="41"/>
+      <c r="D130" s="43"/>
       <c r="E130" s="19">
         <v>4</v>
       </c>
@@ -5809,7 +6146,7 @@
     </row>
     <row r="131" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B131" s="33"/>
-      <c r="D131" s="41"/>
+      <c r="D131" s="43"/>
       <c r="E131" s="19">
         <v>5</v>
       </c>
@@ -5824,7 +6161,7 @@
     </row>
     <row r="132" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B132" s="33"/>
-      <c r="D132" s="41"/>
+      <c r="D132" s="43"/>
       <c r="E132" s="19">
         <v>6</v>
       </c>
@@ -5839,7 +6176,7 @@
     </row>
     <row r="133" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="33"/>
-      <c r="D133" s="41"/>
+      <c r="D133" s="43"/>
       <c r="E133" s="19">
         <v>7</v>
       </c>
@@ -5867,7 +6204,7 @@
       <c r="C135" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D135" s="41" t="s">
+      <c r="D135" s="43" t="s">
         <v>133</v>
       </c>
       <c r="E135" s="19">
@@ -5881,7 +6218,7 @@
     </row>
     <row r="136" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B136" s="33"/>
-      <c r="D136" s="41"/>
+      <c r="D136" s="43"/>
       <c r="E136" s="19">
         <v>2</v>
       </c>
@@ -5896,7 +6233,7 @@
     </row>
     <row r="137" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B137" s="33"/>
-      <c r="D137" s="41"/>
+      <c r="D137" s="43"/>
       <c r="E137" s="19">
         <v>3</v>
       </c>
@@ -5911,7 +6248,7 @@
     </row>
     <row r="138" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="33"/>
-      <c r="D138" s="41"/>
+      <c r="D138" s="43"/>
       <c r="E138" s="19">
         <v>4</v>
       </c>
@@ -5926,7 +6263,7 @@
     </row>
     <row r="139" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B139" s="33"/>
-      <c r="D139" s="41"/>
+      <c r="D139" s="43"/>
       <c r="E139" s="19">
         <v>5</v>
       </c>
@@ -5944,7 +6281,7 @@
     </row>
     <row r="140" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B140" s="33"/>
-      <c r="D140" s="41"/>
+      <c r="D140" s="43"/>
       <c r="E140" s="19">
         <v>6</v>
       </c>
@@ -5962,7 +6299,7 @@
     </row>
     <row r="141" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B141" s="33"/>
-      <c r="D141" s="41"/>
+      <c r="D141" s="43"/>
       <c r="E141" s="19">
         <v>7</v>
       </c>
@@ -5980,7 +6317,7 @@
     </row>
     <row r="142" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B142" s="33"/>
-      <c r="D142" s="41"/>
+      <c r="D142" s="43"/>
       <c r="E142" s="19">
         <v>8</v>
       </c>
@@ -5998,7 +6335,7 @@
     </row>
     <row r="143" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="33"/>
-      <c r="D143" s="41"/>
+      <c r="D143" s="43"/>
       <c r="E143" s="19">
         <v>9</v>
       </c>
@@ -6016,7 +6353,7 @@
     </row>
     <row r="144" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B144" s="33"/>
-      <c r="D144" s="41"/>
+      <c r="D144" s="43"/>
       <c r="E144" s="19">
         <v>10</v>
       </c>
@@ -6044,7 +6381,7 @@
       <c r="C146" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D146" s="41" t="s">
+      <c r="D146" s="43" t="s">
         <v>137</v>
       </c>
       <c r="E146" s="19">
@@ -6058,7 +6395,7 @@
     </row>
     <row r="147" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B147" s="33"/>
-      <c r="D147" s="41"/>
+      <c r="D147" s="43"/>
       <c r="E147" s="19">
         <v>2</v>
       </c>
@@ -6073,7 +6410,7 @@
     </row>
     <row r="148" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B148" s="33"/>
-      <c r="D148" s="41"/>
+      <c r="D148" s="43"/>
       <c r="E148" s="19">
         <v>3</v>
       </c>
@@ -6088,7 +6425,7 @@
     </row>
     <row r="149" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="33"/>
-      <c r="D149" s="41"/>
+      <c r="D149" s="43"/>
       <c r="E149" s="19">
         <v>4</v>
       </c>
@@ -6103,7 +6440,7 @@
     </row>
     <row r="150" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="33"/>
-      <c r="D150" s="41"/>
+      <c r="D150" s="43"/>
       <c r="E150" s="19">
         <v>5</v>
       </c>
@@ -6121,7 +6458,7 @@
     </row>
     <row r="151" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B151" s="33"/>
-      <c r="D151" s="41"/>
+      <c r="D151" s="43"/>
       <c r="E151" s="19">
         <v>6</v>
       </c>
@@ -6139,7 +6476,7 @@
     </row>
     <row r="152" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B152" s="33"/>
-      <c r="D152" s="41"/>
+      <c r="D152" s="43"/>
       <c r="E152" s="19">
         <v>7</v>
       </c>
@@ -6157,7 +6494,7 @@
     </row>
     <row r="153" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B153" s="33"/>
-      <c r="D153" s="41"/>
+      <c r="D153" s="43"/>
       <c r="E153" s="19">
         <v>8</v>
       </c>
@@ -6175,7 +6512,7 @@
     </row>
     <row r="154" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B154" s="33"/>
-      <c r="D154" s="41"/>
+      <c r="D154" s="43"/>
       <c r="E154" s="19">
         <v>9</v>
       </c>
@@ -6193,7 +6530,7 @@
     </row>
     <row r="155" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B155" s="33"/>
-      <c r="D155" s="41"/>
+      <c r="D155" s="43"/>
       <c r="E155" s="19">
         <v>10</v>
       </c>
@@ -6208,7 +6545,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B156" s="33"/>
-      <c r="D156" s="41"/>
+      <c r="D156" s="43"/>
       <c r="E156" s="19">
         <v>11</v>
       </c>
@@ -6238,7 +6575,7 @@
       <c r="C158" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D158" s="41" t="s">
+      <c r="D158" s="43" t="s">
         <v>154</v>
       </c>
       <c r="E158" s="19">
@@ -6252,7 +6589,7 @@
     </row>
     <row r="159" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B159" s="33"/>
-      <c r="D159" s="41"/>
+      <c r="D159" s="43"/>
       <c r="E159" s="19">
         <v>2</v>
       </c>
@@ -6267,7 +6604,7 @@
     </row>
     <row r="160" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B160" s="33"/>
-      <c r="D160" s="41"/>
+      <c r="D160" s="43"/>
       <c r="E160" s="19">
         <v>3</v>
       </c>
@@ -6282,7 +6619,7 @@
     </row>
     <row r="161" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B161" s="33"/>
-      <c r="D161" s="41"/>
+      <c r="D161" s="43"/>
       <c r="E161" s="19">
         <v>4</v>
       </c>
@@ -6297,7 +6634,7 @@
     </row>
     <row r="162" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B162" s="33"/>
-      <c r="D162" s="41"/>
+      <c r="D162" s="43"/>
       <c r="E162" s="19">
         <v>5</v>
       </c>
@@ -6315,7 +6652,7 @@
     </row>
     <row r="163" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B163" s="33"/>
-      <c r="D163" s="41"/>
+      <c r="D163" s="43"/>
       <c r="E163" s="19">
         <v>6</v>
       </c>
@@ -6333,7 +6670,7 @@
     </row>
     <row r="164" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B164" s="33"/>
-      <c r="D164" s="41"/>
+      <c r="D164" s="43"/>
       <c r="E164" s="19">
         <v>7</v>
       </c>
@@ -6353,7 +6690,7 @@
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
-      <c r="D165" s="41"/>
+      <c r="D165" s="43"/>
       <c r="E165" s="19">
         <v>8</v>
       </c>
@@ -6373,7 +6710,7 @@
       <c r="A166"/>
       <c r="B166"/>
       <c r="C166"/>
-      <c r="D166" s="41"/>
+      <c r="D166" s="43"/>
       <c r="E166" s="19">
         <v>9</v>
       </c>
@@ -6393,7 +6730,7 @@
       <c r="A167"/>
       <c r="B167"/>
       <c r="C167"/>
-      <c r="D167" s="41"/>
+      <c r="D167" s="43"/>
       <c r="E167" s="19">
         <v>10</v>
       </c>
@@ -6410,7 +6747,7 @@
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
-      <c r="D168" s="41"/>
+      <c r="D168" s="43"/>
       <c r="E168" s="19">
         <v>11</v>
       </c>
@@ -6439,7 +6776,7 @@
       <c r="C170" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D170" s="41" t="s">
+      <c r="D170" s="43" t="s">
         <v>199</v>
       </c>
       <c r="E170" s="19">
@@ -6453,7 +6790,7 @@
     </row>
     <row r="171" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B171" s="33"/>
-      <c r="D171" s="41"/>
+      <c r="D171" s="43"/>
       <c r="E171" s="19">
         <v>2</v>
       </c>
@@ -6468,7 +6805,7 @@
     </row>
     <row r="172" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B172" s="33"/>
-      <c r="D172" s="41"/>
+      <c r="D172" s="43"/>
       <c r="E172" s="19">
         <v>3</v>
       </c>
@@ -6483,7 +6820,7 @@
     </row>
     <row r="173" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B173" s="33"/>
-      <c r="D173" s="41"/>
+      <c r="D173" s="43"/>
       <c r="E173" s="19">
         <v>4</v>
       </c>
@@ -6498,7 +6835,7 @@
     </row>
     <row r="174" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B174" s="33"/>
-      <c r="D174" s="41"/>
+      <c r="D174" s="43"/>
       <c r="E174" s="19">
         <v>5</v>
       </c>
@@ -6516,7 +6853,7 @@
     </row>
     <row r="175" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B175" s="33"/>
-      <c r="D175" s="41"/>
+      <c r="D175" s="43"/>
       <c r="E175" s="19">
         <v>6</v>
       </c>
@@ -6534,7 +6871,7 @@
     </row>
     <row r="176" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B176" s="33"/>
-      <c r="D176" s="41"/>
+      <c r="D176" s="43"/>
       <c r="E176" s="19">
         <v>7</v>
       </c>
@@ -6552,7 +6889,7 @@
     </row>
     <row r="177" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B177" s="33"/>
-      <c r="D177" s="41"/>
+      <c r="D177" s="43"/>
       <c r="E177" s="19">
         <v>8</v>
       </c>
@@ -6570,7 +6907,7 @@
     </row>
     <row r="178" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="33"/>
-      <c r="D178" s="41"/>
+      <c r="D178" s="43"/>
       <c r="E178" s="19">
         <v>9</v>
       </c>
@@ -6588,7 +6925,7 @@
     </row>
     <row r="179" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B179" s="33"/>
-      <c r="D179" s="41"/>
+      <c r="D179" s="43"/>
       <c r="E179" s="19">
         <v>10</v>
       </c>
@@ -6603,7 +6940,7 @@
     </row>
     <row r="180" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B180" s="33"/>
-      <c r="D180" s="41"/>
+      <c r="D180" s="43"/>
       <c r="E180" s="19">
         <v>11</v>
       </c>
@@ -6631,7 +6968,7 @@
       <c r="C182" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D182" s="41" t="s">
+      <c r="D182" s="43" t="s">
         <v>202</v>
       </c>
       <c r="E182" s="19">
@@ -6645,7 +6982,7 @@
     </row>
     <row r="183" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B183" s="33"/>
-      <c r="D183" s="41"/>
+      <c r="D183" s="43"/>
       <c r="E183" s="19">
         <v>2</v>
       </c>
@@ -6660,7 +6997,7 @@
     </row>
     <row r="184" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B184" s="33"/>
-      <c r="D184" s="41"/>
+      <c r="D184" s="43"/>
       <c r="E184" s="19">
         <v>3</v>
       </c>
@@ -6675,7 +7012,7 @@
     </row>
     <row r="185" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B185" s="33"/>
-      <c r="D185" s="41"/>
+      <c r="D185" s="43"/>
       <c r="E185" s="19">
         <v>4</v>
       </c>
@@ -6690,7 +7027,7 @@
     </row>
     <row r="186" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B186" s="33"/>
-      <c r="D186" s="41"/>
+      <c r="D186" s="43"/>
       <c r="E186" s="19">
         <v>5</v>
       </c>
@@ -6708,7 +7045,7 @@
     </row>
     <row r="187" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B187" s="33"/>
-      <c r="D187" s="41"/>
+      <c r="D187" s="43"/>
       <c r="E187" s="19">
         <v>6</v>
       </c>
@@ -6726,7 +7063,7 @@
     </row>
     <row r="188" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B188" s="33"/>
-      <c r="D188" s="41"/>
+      <c r="D188" s="43"/>
       <c r="E188" s="19">
         <v>7</v>
       </c>
@@ -6744,7 +7081,7 @@
     </row>
     <row r="189" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="33"/>
-      <c r="D189" s="41"/>
+      <c r="D189" s="43"/>
       <c r="E189" s="19">
         <v>8</v>
       </c>
@@ -6762,7 +7099,7 @@
     </row>
     <row r="190" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="B190" s="33"/>
-      <c r="D190" s="41"/>
+      <c r="D190" s="43"/>
       <c r="E190" s="19">
         <v>9</v>
       </c>
@@ -6780,7 +7117,7 @@
     </row>
     <row r="191" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B191" s="33"/>
-      <c r="D191" s="41"/>
+      <c r="D191" s="43"/>
       <c r="E191" s="19">
         <v>10</v>
       </c>
@@ -6795,7 +7132,7 @@
     </row>
     <row r="192" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B192" s="33"/>
-      <c r="D192" s="41"/>
+      <c r="D192" s="43"/>
       <c r="E192" s="19">
         <v>11</v>
       </c>
@@ -6810,7 +7147,7 @@
     </row>
     <row r="193" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="33"/>
-      <c r="D193" s="41"/>
+      <c r="D193" s="43"/>
       <c r="E193" s="19">
         <v>11</v>
       </c>
@@ -6840,7 +7177,7 @@
       <c r="C195" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D195" s="41" t="s">
+      <c r="D195" s="43" t="s">
         <v>203</v>
       </c>
       <c r="E195" s="19">
@@ -6854,7 +7191,7 @@
     </row>
     <row r="196" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B196" s="33"/>
-      <c r="D196" s="41"/>
+      <c r="D196" s="43"/>
       <c r="E196" s="19">
         <v>2</v>
       </c>
@@ -6869,7 +7206,7 @@
     </row>
     <row r="197" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B197" s="33"/>
-      <c r="D197" s="41"/>
+      <c r="D197" s="43"/>
       <c r="E197" s="19">
         <v>3</v>
       </c>
@@ -6884,7 +7221,7 @@
     </row>
     <row r="198" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="33"/>
-      <c r="D198" s="41"/>
+      <c r="D198" s="43"/>
       <c r="E198" s="19">
         <v>4</v>
       </c>
@@ -6899,7 +7236,7 @@
     </row>
     <row r="199" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B199" s="33"/>
-      <c r="D199" s="41"/>
+      <c r="D199" s="43"/>
       <c r="E199" s="19">
         <v>5</v>
       </c>
@@ -6917,7 +7254,7 @@
     </row>
     <row r="200" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B200" s="33"/>
-      <c r="D200" s="41"/>
+      <c r="D200" s="43"/>
       <c r="E200" s="19">
         <v>6</v>
       </c>
@@ -6935,7 +7272,7 @@
     </row>
     <row r="201" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B201" s="33"/>
-      <c r="D201" s="41"/>
+      <c r="D201" s="43"/>
       <c r="E201" s="19">
         <v>7</v>
       </c>
@@ -6955,7 +7292,7 @@
       <c r="A202"/>
       <c r="B202"/>
       <c r="C202"/>
-      <c r="D202" s="41"/>
+      <c r="D202" s="43"/>
       <c r="E202" s="19">
         <v>8</v>
       </c>
@@ -6975,7 +7312,7 @@
       <c r="A203"/>
       <c r="B203"/>
       <c r="C203"/>
-      <c r="D203" s="41"/>
+      <c r="D203" s="43"/>
       <c r="E203" s="19">
         <v>9</v>
       </c>
@@ -6995,7 +7332,7 @@
       <c r="A204"/>
       <c r="B204"/>
       <c r="C204"/>
-      <c r="D204" s="41"/>
+      <c r="D204" s="43"/>
       <c r="E204" s="19">
         <v>10</v>
       </c>
@@ -7012,7 +7349,7 @@
       <c r="A205"/>
       <c r="B205"/>
       <c r="C205"/>
-      <c r="D205" s="41"/>
+      <c r="D205" s="43"/>
       <c r="E205" s="19">
         <v>11</v>
       </c>
@@ -7029,7 +7366,7 @@
       <c r="A206"/>
       <c r="B206"/>
       <c r="C206"/>
-      <c r="D206" s="41"/>
+      <c r="D206" s="43"/>
       <c r="E206" s="19">
         <v>12</v>
       </c>
@@ -7058,7 +7395,7 @@
       <c r="C208" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D208" s="41" t="s">
+      <c r="D208" s="43" t="s">
         <v>205</v>
       </c>
       <c r="E208" s="19">
@@ -7072,7 +7409,7 @@
     </row>
     <row r="209" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B209" s="33"/>
-      <c r="D209" s="41"/>
+      <c r="D209" s="43"/>
       <c r="E209" s="19">
         <v>2</v>
       </c>
@@ -7087,7 +7424,7 @@
     </row>
     <row r="210" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="33"/>
-      <c r="D210" s="41"/>
+      <c r="D210" s="43"/>
       <c r="E210" s="19">
         <v>3</v>
       </c>
@@ -7102,7 +7439,7 @@
     </row>
     <row r="211" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B211" s="33"/>
-      <c r="D211" s="41"/>
+      <c r="D211" s="43"/>
       <c r="E211" s="19">
         <v>4</v>
       </c>
@@ -7117,7 +7454,7 @@
     </row>
     <row r="212" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B212" s="33"/>
-      <c r="D212" s="41"/>
+      <c r="D212" s="43"/>
       <c r="E212" s="19">
         <v>5</v>
       </c>
@@ -7135,7 +7472,7 @@
     </row>
     <row r="213" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="B213" s="33"/>
-      <c r="D213" s="41"/>
+      <c r="D213" s="43"/>
       <c r="E213" s="19">
         <v>6</v>
       </c>
@@ -7153,7 +7490,7 @@
     </row>
     <row r="214" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B214" s="33"/>
-      <c r="D214" s="41"/>
+      <c r="D214" s="43"/>
       <c r="E214" s="19">
         <v>7</v>
       </c>
@@ -7168,7 +7505,7 @@
     </row>
     <row r="215" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B215" s="33"/>
-      <c r="D215" s="41"/>
+      <c r="D215" s="43"/>
       <c r="E215" s="19">
         <v>8</v>
       </c>
@@ -7183,7 +7520,7 @@
     </row>
     <row r="216" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B216" s="33"/>
-      <c r="D216" s="41"/>
+      <c r="D216" s="43"/>
       <c r="E216" s="19">
         <v>9</v>
       </c>
@@ -7211,7 +7548,7 @@
       <c r="C218" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D218" s="41" t="s">
+      <c r="D218" s="43" t="s">
         <v>208</v>
       </c>
       <c r="E218" s="19">
@@ -7225,7 +7562,7 @@
     </row>
     <row r="219" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B219" s="33"/>
-      <c r="D219" s="41"/>
+      <c r="D219" s="43"/>
       <c r="E219" s="19">
         <v>2</v>
       </c>
@@ -7240,7 +7577,7 @@
     </row>
     <row r="220" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B220" s="33"/>
-      <c r="D220" s="41"/>
+      <c r="D220" s="43"/>
       <c r="E220" s="19">
         <v>3</v>
       </c>
@@ -7255,7 +7592,7 @@
     </row>
     <row r="221" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B221" s="33"/>
-      <c r="D221" s="41"/>
+      <c r="D221" s="43"/>
       <c r="E221" s="19">
         <v>4</v>
       </c>
@@ -7270,7 +7607,7 @@
     </row>
     <row r="222" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B222" s="33"/>
-      <c r="D222" s="41"/>
+      <c r="D222" s="43"/>
       <c r="E222" s="19">
         <v>5</v>
       </c>
@@ -7288,7 +7625,7 @@
     </row>
     <row r="223" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="33"/>
-      <c r="D223" s="41"/>
+      <c r="D223" s="43"/>
       <c r="E223" s="19">
         <v>6</v>
       </c>
@@ -7306,7 +7643,7 @@
     </row>
     <row r="224" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="33"/>
-      <c r="D224" s="41"/>
+      <c r="D224" s="43"/>
       <c r="E224" s="19">
         <v>7</v>
       </c>
@@ -7321,7 +7658,7 @@
     </row>
     <row r="225" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B225" s="33"/>
-      <c r="D225" s="41"/>
+      <c r="D225" s="43"/>
       <c r="E225" s="19">
         <v>8</v>
       </c>
@@ -7336,7 +7673,7 @@
     </row>
     <row r="226" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="33"/>
-      <c r="D226" s="41"/>
+      <c r="D226" s="43"/>
       <c r="E226" s="19">
         <v>9</v>
       </c>
@@ -7351,7 +7688,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B227" s="33"/>
-      <c r="D227" s="41"/>
+      <c r="D227" s="43"/>
       <c r="E227" s="19">
         <v>10</v>
       </c>
@@ -7381,7 +7718,7 @@
       <c r="C229" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D229" s="41" t="s">
+      <c r="D229" s="43" t="s">
         <v>209</v>
       </c>
       <c r="E229" s="19">
@@ -7395,7 +7732,7 @@
     </row>
     <row r="230" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B230" s="33"/>
-      <c r="D230" s="41"/>
+      <c r="D230" s="43"/>
       <c r="E230" s="19">
         <v>2</v>
       </c>
@@ -7410,7 +7747,7 @@
     </row>
     <row r="231" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B231" s="33"/>
-      <c r="D231" s="41"/>
+      <c r="D231" s="43"/>
       <c r="E231" s="19">
         <v>3</v>
       </c>
@@ -7425,7 +7762,7 @@
     </row>
     <row r="232" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B232" s="33"/>
-      <c r="D232" s="41"/>
+      <c r="D232" s="43"/>
       <c r="E232" s="19">
         <v>4</v>
       </c>
@@ -7440,7 +7777,7 @@
     </row>
     <row r="233" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B233" s="33"/>
-      <c r="D233" s="41"/>
+      <c r="D233" s="43"/>
       <c r="E233" s="19">
         <v>5</v>
       </c>
@@ -7458,7 +7795,7 @@
     </row>
     <row r="234" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="B234" s="33"/>
-      <c r="D234" s="41"/>
+      <c r="D234" s="43"/>
       <c r="E234" s="19">
         <v>6</v>
       </c>
@@ -7476,7 +7813,7 @@
     </row>
     <row r="235" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B235" s="33"/>
-      <c r="D235" s="41"/>
+      <c r="D235" s="43"/>
       <c r="E235" s="19">
         <v>7</v>
       </c>
@@ -7493,7 +7830,7 @@
       <c r="A236"/>
       <c r="B236"/>
       <c r="C236"/>
-      <c r="D236" s="41"/>
+      <c r="D236" s="43"/>
       <c r="E236" s="19">
         <v>8</v>
       </c>
@@ -7510,7 +7847,7 @@
       <c r="A237"/>
       <c r="B237"/>
       <c r="C237"/>
-      <c r="D237" s="41"/>
+      <c r="D237" s="43"/>
       <c r="E237" s="19">
         <v>9</v>
       </c>
@@ -7527,7 +7864,7 @@
       <c r="A238"/>
       <c r="B238"/>
       <c r="C238"/>
-      <c r="D238" s="41"/>
+      <c r="D238" s="43"/>
       <c r="E238" s="19">
         <v>10</v>
       </c>
@@ -7556,7 +7893,7 @@
       <c r="C240" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D240" s="41" t="s">
+      <c r="D240" s="43" t="s">
         <v>192</v>
       </c>
       <c r="E240" s="19">
@@ -7570,7 +7907,7 @@
     </row>
     <row r="241" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B241" s="33"/>
-      <c r="D241" s="41"/>
+      <c r="D241" s="43"/>
       <c r="E241" s="19">
         <v>2</v>
       </c>
@@ -7585,7 +7922,7 @@
     </row>
     <row r="242" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B242" s="33"/>
-      <c r="D242" s="41"/>
+      <c r="D242" s="43"/>
       <c r="E242" s="19">
         <v>3</v>
       </c>
@@ -7600,7 +7937,7 @@
     </row>
     <row r="243" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="33"/>
-      <c r="D243" s="41"/>
+      <c r="D243" s="43"/>
       <c r="E243" s="19">
         <v>4</v>
       </c>
@@ -7615,7 +7952,7 @@
     </row>
     <row r="244" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B244" s="33"/>
-      <c r="D244" s="41"/>
+      <c r="D244" s="43"/>
       <c r="E244" s="19">
         <v>5</v>
       </c>
@@ -7633,7 +7970,7 @@
     </row>
     <row r="245" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B245" s="33"/>
-      <c r="D245" s="41"/>
+      <c r="D245" s="43"/>
       <c r="E245" s="19">
         <v>6</v>
       </c>
@@ -7661,7 +7998,7 @@
       <c r="C247" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D247" s="41" t="s">
+      <c r="D247" s="43" t="s">
         <v>196</v>
       </c>
       <c r="E247" s="19">
@@ -7675,7 +8012,7 @@
     </row>
     <row r="248" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B248" s="33"/>
-      <c r="D248" s="41"/>
+      <c r="D248" s="43"/>
       <c r="E248" s="19">
         <v>2</v>
       </c>
@@ -7690,7 +8027,7 @@
     </row>
     <row r="249" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B249" s="33"/>
-      <c r="D249" s="41"/>
+      <c r="D249" s="43"/>
       <c r="E249" s="19">
         <v>3</v>
       </c>
@@ -7705,7 +8042,7 @@
     </row>
     <row r="250" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B250" s="33"/>
-      <c r="D250" s="41"/>
+      <c r="D250" s="43"/>
       <c r="E250" s="19">
         <v>4</v>
       </c>
@@ -7720,7 +8057,7 @@
     </row>
     <row r="251" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B251" s="33"/>
-      <c r="D251" s="41"/>
+      <c r="D251" s="43"/>
       <c r="E251" s="19">
         <v>5</v>
       </c>
@@ -7738,7 +8075,7 @@
     </row>
     <row r="252" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B252" s="33"/>
-      <c r="D252" s="41"/>
+      <c r="D252" s="43"/>
       <c r="E252" s="19">
         <v>6</v>
       </c>
@@ -7753,7 +8090,7 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B253" s="33"/>
-      <c r="D253" s="41"/>
+      <c r="D253" s="43"/>
       <c r="E253" s="19">
         <v>7</v>
       </c>
@@ -7783,7 +8120,7 @@
       <c r="C255" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D255" s="41" t="s">
+      <c r="D255" s="43" t="s">
         <v>197</v>
       </c>
       <c r="E255" s="19">
@@ -7797,7 +8134,7 @@
     </row>
     <row r="256" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B256" s="33"/>
-      <c r="D256" s="41"/>
+      <c r="D256" s="43"/>
       <c r="E256" s="19">
         <v>2</v>
       </c>
@@ -7812,7 +8149,7 @@
     </row>
     <row r="257" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B257" s="33"/>
-      <c r="D257" s="41"/>
+      <c r="D257" s="43"/>
       <c r="E257" s="19">
         <v>3</v>
       </c>
@@ -7827,7 +8164,7 @@
     </row>
     <row r="258" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B258" s="33"/>
-      <c r="D258" s="41"/>
+      <c r="D258" s="43"/>
       <c r="E258" s="19">
         <v>4</v>
       </c>
@@ -7842,7 +8179,7 @@
     </row>
     <row r="259" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B259" s="33"/>
-      <c r="D259" s="41"/>
+      <c r="D259" s="43"/>
       <c r="E259" s="19">
         <v>5</v>
       </c>
@@ -7860,7 +8197,7 @@
     </row>
     <row r="260" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B260" s="33"/>
-      <c r="D260" s="41"/>
+      <c r="D260" s="43"/>
       <c r="E260" s="19">
         <v>6</v>
       </c>
@@ -7877,7 +8214,7 @@
       <c r="A261"/>
       <c r="B261"/>
       <c r="C261"/>
-      <c r="D261" s="41"/>
+      <c r="D261" s="43"/>
       <c r="E261" s="19">
         <v>7</v>
       </c>
@@ -7906,7 +8243,7 @@
       <c r="C263" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D263" s="41" t="s">
+      <c r="D263" s="43" t="s">
         <v>217</v>
       </c>
       <c r="E263" s="19">
@@ -7920,7 +8257,7 @@
     </row>
     <row r="264" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B264" s="33"/>
-      <c r="D264" s="41"/>
+      <c r="D264" s="43"/>
       <c r="E264" s="19">
         <v>2</v>
       </c>
@@ -7935,7 +8272,7 @@
     </row>
     <row r="265" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B265" s="33"/>
-      <c r="D265" s="41"/>
+      <c r="D265" s="43"/>
       <c r="E265" s="19">
         <v>3</v>
       </c>
@@ -7950,7 +8287,7 @@
     </row>
     <row r="266" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B266" s="33"/>
-      <c r="D266" s="41"/>
+      <c r="D266" s="43"/>
       <c r="E266" s="19">
         <v>4</v>
       </c>
@@ -7965,7 +8302,7 @@
     </row>
     <row r="267" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B267" s="33"/>
-      <c r="D267" s="41"/>
+      <c r="D267" s="43"/>
       <c r="E267" s="19">
         <v>5</v>
       </c>
@@ -7983,7 +8320,7 @@
     </row>
     <row r="268" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B268" s="33"/>
-      <c r="D268" s="41"/>
+      <c r="D268" s="43"/>
       <c r="E268" s="19">
         <v>6</v>
       </c>
@@ -7998,7 +8335,7 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B269" s="33"/>
-      <c r="D269" s="41"/>
+      <c r="D269" s="43"/>
       <c r="E269" s="19">
         <v>7</v>
       </c>
@@ -8026,7 +8363,7 @@
       <c r="C271" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D271" s="41" t="s">
+      <c r="D271" s="43" t="s">
         <v>220</v>
       </c>
       <c r="E271" s="19">
@@ -8040,7 +8377,7 @@
     </row>
     <row r="272" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B272" s="33"/>
-      <c r="D272" s="41"/>
+      <c r="D272" s="43"/>
       <c r="E272" s="19">
         <v>2</v>
       </c>
@@ -8055,7 +8392,7 @@
     </row>
     <row r="273" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B273" s="33"/>
-      <c r="D273" s="41"/>
+      <c r="D273" s="43"/>
       <c r="E273" s="19">
         <v>3</v>
       </c>
@@ -8070,7 +8407,7 @@
     </row>
     <row r="274" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B274" s="33"/>
-      <c r="D274" s="41"/>
+      <c r="D274" s="43"/>
       <c r="E274" s="19">
         <v>4</v>
       </c>
@@ -8085,7 +8422,7 @@
     </row>
     <row r="275" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B275" s="33"/>
-      <c r="D275" s="41"/>
+      <c r="D275" s="43"/>
       <c r="E275" s="19">
         <v>5</v>
       </c>
@@ -8103,7 +8440,7 @@
     </row>
     <row r="276" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B276" s="33"/>
-      <c r="D276" s="41"/>
+      <c r="D276" s="43"/>
       <c r="E276" s="19">
         <v>6</v>
       </c>
@@ -8118,7 +8455,7 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B277" s="33"/>
-      <c r="D277" s="41"/>
+      <c r="D277" s="43"/>
       <c r="E277" s="19">
         <v>7</v>
       </c>
@@ -8133,7 +8470,7 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B278" s="33"/>
-      <c r="D278" s="41"/>
+      <c r="D278" s="43"/>
       <c r="E278" s="19">
         <v>8</v>
       </c>
@@ -8163,7 +8500,7 @@
       <c r="C280" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D280" s="41" t="s">
+      <c r="D280" s="43" t="s">
         <v>221</v>
       </c>
       <c r="E280" s="19">
@@ -8177,7 +8514,7 @@
     </row>
     <row r="281" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="33"/>
-      <c r="D281" s="41"/>
+      <c r="D281" s="43"/>
       <c r="E281" s="19">
         <v>2</v>
       </c>
@@ -8192,7 +8529,7 @@
     </row>
     <row r="282" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B282" s="33"/>
-      <c r="D282" s="41"/>
+      <c r="D282" s="43"/>
       <c r="E282" s="19">
         <v>3</v>
       </c>
@@ -8207,7 +8544,7 @@
     </row>
     <row r="283" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B283" s="33"/>
-      <c r="D283" s="41"/>
+      <c r="D283" s="43"/>
       <c r="E283" s="19">
         <v>4</v>
       </c>
@@ -8222,7 +8559,7 @@
     </row>
     <row r="284" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B284" s="33"/>
-      <c r="D284" s="41"/>
+      <c r="D284" s="43"/>
       <c r="E284" s="19">
         <v>5</v>
       </c>
@@ -8240,7 +8577,7 @@
     </row>
     <row r="285" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B285" s="33"/>
-      <c r="D285" s="41"/>
+      <c r="D285" s="43"/>
       <c r="E285" s="19">
         <v>6</v>
       </c>
@@ -8255,7 +8592,7 @@
     </row>
     <row r="286" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="33"/>
-      <c r="D286" s="41"/>
+      <c r="D286" s="43"/>
       <c r="E286" s="19">
         <v>7</v>
       </c>
@@ -8272,7 +8609,7 @@
       <c r="A287"/>
       <c r="B287"/>
       <c r="C287"/>
-      <c r="D287" s="41"/>
+      <c r="D287" s="43"/>
       <c r="E287" s="19">
         <v>8</v>
       </c>
@@ -8301,7 +8638,7 @@
       <c r="C289" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D289" s="41" t="s">
+      <c r="D289" s="43" t="s">
         <v>228</v>
       </c>
       <c r="E289" s="19">
@@ -8315,7 +8652,7 @@
     </row>
     <row r="290" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B290" s="33"/>
-      <c r="D290" s="41"/>
+      <c r="D290" s="43"/>
       <c r="E290" s="19">
         <v>2</v>
       </c>
@@ -8330,7 +8667,7 @@
     </row>
     <row r="291" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B291" s="33"/>
-      <c r="D291" s="41"/>
+      <c r="D291" s="43"/>
       <c r="E291" s="19">
         <v>3</v>
       </c>
@@ -8345,7 +8682,7 @@
     </row>
     <row r="292" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B292" s="33"/>
-      <c r="D292" s="41"/>
+      <c r="D292" s="43"/>
       <c r="E292" s="19">
         <v>4</v>
       </c>
@@ -8360,7 +8697,7 @@
     </row>
     <row r="293" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B293" s="33"/>
-      <c r="D293" s="41"/>
+      <c r="D293" s="43"/>
       <c r="E293" s="19">
         <v>5</v>
       </c>
@@ -8375,7 +8712,7 @@
     </row>
     <row r="294" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B294" s="33"/>
-      <c r="D294" s="41"/>
+      <c r="D294" s="43"/>
       <c r="E294" s="19">
         <v>6</v>
       </c>
@@ -8403,7 +8740,7 @@
       <c r="C296" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D296" s="41" t="s">
+      <c r="D296" s="43" t="s">
         <v>231</v>
       </c>
       <c r="E296" s="19">
@@ -8417,7 +8754,7 @@
     </row>
     <row r="297" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B297" s="33"/>
-      <c r="D297" s="41"/>
+      <c r="D297" s="43"/>
       <c r="E297" s="19">
         <v>2</v>
       </c>
@@ -8432,7 +8769,7 @@
     </row>
     <row r="298" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="33"/>
-      <c r="D298" s="41"/>
+      <c r="D298" s="43"/>
       <c r="E298" s="19">
         <v>3</v>
       </c>
@@ -8447,7 +8784,7 @@
     </row>
     <row r="299" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B299" s="33"/>
-      <c r="D299" s="41"/>
+      <c r="D299" s="43"/>
       <c r="E299" s="19">
         <v>4</v>
       </c>
@@ -8462,7 +8799,7 @@
     </row>
     <row r="300" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B300" s="33"/>
-      <c r="D300" s="41"/>
+      <c r="D300" s="43"/>
       <c r="E300" s="19">
         <v>5</v>
       </c>
@@ -8477,7 +8814,7 @@
     </row>
     <row r="301" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B301" s="33"/>
-      <c r="D301" s="41"/>
+      <c r="D301" s="43"/>
       <c r="E301" s="19">
         <v>6</v>
       </c>
@@ -8492,7 +8829,7 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B302" s="33"/>
-      <c r="D302" s="41"/>
+      <c r="D302" s="43"/>
       <c r="E302" s="19">
         <v>7</v>
       </c>
@@ -8522,7 +8859,7 @@
       <c r="C304" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D304" s="41" t="s">
+      <c r="D304" s="43" t="s">
         <v>232</v>
       </c>
       <c r="E304" s="19">
@@ -8536,7 +8873,7 @@
     </row>
     <row r="305" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="33"/>
-      <c r="D305" s="41"/>
+      <c r="D305" s="43"/>
       <c r="E305" s="19">
         <v>2</v>
       </c>
@@ -8551,7 +8888,7 @@
     </row>
     <row r="306" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B306" s="33"/>
-      <c r="D306" s="41"/>
+      <c r="D306" s="43"/>
       <c r="E306" s="19">
         <v>3</v>
       </c>
@@ -8566,7 +8903,7 @@
     </row>
     <row r="307" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B307" s="33"/>
-      <c r="D307" s="41"/>
+      <c r="D307" s="43"/>
       <c r="E307" s="19">
         <v>4</v>
       </c>
@@ -8581,7 +8918,7 @@
     </row>
     <row r="308" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B308" s="33"/>
-      <c r="D308" s="41"/>
+      <c r="D308" s="43"/>
       <c r="E308" s="19">
         <v>5</v>
       </c>
@@ -8596,7 +8933,7 @@
     </row>
     <row r="309" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B309" s="33"/>
-      <c r="D309" s="41"/>
+      <c r="D309" s="43"/>
       <c r="E309" s="19">
         <v>6</v>
       </c>
@@ -8613,7 +8950,7 @@
       <c r="A310"/>
       <c r="B310"/>
       <c r="C310"/>
-      <c r="D310" s="41"/>
+      <c r="D310" s="43"/>
       <c r="E310" s="19">
         <v>7</v>
       </c>
@@ -8649,7 +8986,7 @@
       <c r="C312" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D312" s="41" t="s">
+      <c r="D312" s="43" t="s">
         <v>242</v>
       </c>
       <c r="E312" s="19">
@@ -8663,7 +9000,7 @@
     </row>
     <row r="313" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="33"/>
-      <c r="D313" s="41"/>
+      <c r="D313" s="43"/>
       <c r="E313" s="19">
         <v>2</v>
       </c>
@@ -8678,7 +9015,7 @@
     </row>
     <row r="314" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B314" s="33"/>
-      <c r="D314" s="41"/>
+      <c r="D314" s="43"/>
       <c r="E314" s="19">
         <v>3</v>
       </c>
@@ -8693,7 +9030,7 @@
     </row>
     <row r="315" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B315" s="33"/>
-      <c r="D315" s="41"/>
+      <c r="D315" s="43"/>
       <c r="E315" s="19">
         <v>4</v>
       </c>
@@ -8708,7 +9045,7 @@
     </row>
     <row r="316" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B316" s="33"/>
-      <c r="D316" s="41"/>
+      <c r="D316" s="43"/>
       <c r="E316" s="19">
         <v>5</v>
       </c>
@@ -8726,7 +9063,7 @@
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B317" s="33"/>
-      <c r="D317" s="41"/>
+      <c r="D317" s="43"/>
       <c r="E317" s="19">
         <v>6</v>
       </c>
@@ -8754,7 +9091,7 @@
       <c r="C319" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D319" s="41" t="s">
+      <c r="D319" s="43" t="s">
         <v>245</v>
       </c>
       <c r="E319" s="19">
@@ -8768,7 +9105,7 @@
     </row>
     <row r="320" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B320" s="33"/>
-      <c r="D320" s="41"/>
+      <c r="D320" s="43"/>
       <c r="E320" s="19">
         <v>2</v>
       </c>
@@ -8783,7 +9120,7 @@
     </row>
     <row r="321" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B321" s="33"/>
-      <c r="D321" s="41"/>
+      <c r="D321" s="43"/>
       <c r="E321" s="19">
         <v>3</v>
       </c>
@@ -8798,7 +9135,7 @@
     </row>
     <row r="322" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="33"/>
-      <c r="D322" s="41"/>
+      <c r="D322" s="43"/>
       <c r="E322" s="19">
         <v>4</v>
       </c>
@@ -8813,7 +9150,7 @@
     </row>
     <row r="323" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B323" s="33"/>
-      <c r="D323" s="41"/>
+      <c r="D323" s="43"/>
       <c r="E323" s="19">
         <v>5</v>
       </c>
@@ -8831,7 +9168,7 @@
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B324" s="33"/>
-      <c r="D324" s="41"/>
+      <c r="D324" s="43"/>
       <c r="E324" s="19">
         <v>6</v>
       </c>
@@ -8846,7 +9183,7 @@
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B325" s="33"/>
-      <c r="D325" s="41"/>
+      <c r="D325" s="43"/>
       <c r="E325" s="19">
         <v>7</v>
       </c>
@@ -8876,7 +9213,7 @@
       <c r="C327" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D327" s="41" t="s">
+      <c r="D327" s="43" t="s">
         <v>246</v>
       </c>
       <c r="E327" s="19">
@@ -8890,7 +9227,7 @@
     </row>
     <row r="328" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B328" s="33"/>
-      <c r="D328" s="41"/>
+      <c r="D328" s="43"/>
       <c r="E328" s="19">
         <v>2</v>
       </c>
@@ -8905,7 +9242,7 @@
     </row>
     <row r="329" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B329" s="33"/>
-      <c r="D329" s="41"/>
+      <c r="D329" s="43"/>
       <c r="E329" s="19">
         <v>3</v>
       </c>
@@ -8920,7 +9257,7 @@
     </row>
     <row r="330" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="33"/>
-      <c r="D330" s="41"/>
+      <c r="D330" s="43"/>
       <c r="E330" s="19">
         <v>4</v>
       </c>
@@ -8935,7 +9272,7 @@
     </row>
     <row r="331" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B331" s="33"/>
-      <c r="D331" s="41"/>
+      <c r="D331" s="43"/>
       <c r="E331" s="19">
         <v>5</v>
       </c>
@@ -8953,7 +9290,7 @@
     </row>
     <row r="332" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="33"/>
-      <c r="D332" s="41"/>
+      <c r="D332" s="43"/>
       <c r="E332" s="19">
         <v>6</v>
       </c>
@@ -8970,7 +9307,7 @@
       <c r="A333"/>
       <c r="B333"/>
       <c r="C333"/>
-      <c r="D333" s="41"/>
+      <c r="D333" s="43"/>
       <c r="E333" s="19">
         <v>7</v>
       </c>
@@ -8999,7 +9336,7 @@
       <c r="C335" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D335" s="41" t="s">
+      <c r="D335" s="43" t="s">
         <v>251</v>
       </c>
       <c r="E335" s="19">
@@ -9013,7 +9350,7 @@
     </row>
     <row r="336" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="33"/>
-      <c r="D336" s="41"/>
+      <c r="D336" s="43"/>
       <c r="E336" s="19">
         <v>2</v>
       </c>
@@ -9028,7 +9365,7 @@
     </row>
     <row r="337" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B337" s="33"/>
-      <c r="D337" s="41"/>
+      <c r="D337" s="43"/>
       <c r="E337" s="19">
         <v>3</v>
       </c>
@@ -9043,7 +9380,7 @@
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B338" s="33"/>
-      <c r="D338" s="41"/>
+      <c r="D338" s="43"/>
       <c r="E338" s="19">
         <v>4</v>
       </c>
@@ -9058,7 +9395,7 @@
     </row>
     <row r="339" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B339" s="33"/>
-      <c r="D339" s="41"/>
+      <c r="D339" s="43"/>
       <c r="E339" s="19">
         <v>5</v>
       </c>
@@ -9073,7 +9410,7 @@
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B340" s="33"/>
-      <c r="D340" s="41"/>
+      <c r="D340" s="43"/>
       <c r="E340" s="19">
         <v>6</v>
       </c>
@@ -9101,7 +9438,7 @@
       <c r="C342" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D342" s="41" t="s">
+      <c r="D342" s="43" t="s">
         <v>253</v>
       </c>
       <c r="E342" s="19">
@@ -9115,7 +9452,7 @@
     </row>
     <row r="343" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="33"/>
-      <c r="D343" s="41"/>
+      <c r="D343" s="43"/>
       <c r="E343" s="19">
         <v>2</v>
       </c>
@@ -9130,7 +9467,7 @@
     </row>
     <row r="344" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B344" s="33"/>
-      <c r="D344" s="41"/>
+      <c r="D344" s="43"/>
       <c r="E344" s="19">
         <v>3</v>
       </c>
@@ -9145,7 +9482,7 @@
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B345" s="33"/>
-      <c r="D345" s="41"/>
+      <c r="D345" s="43"/>
       <c r="E345" s="19">
         <v>4</v>
       </c>
@@ -9160,7 +9497,7 @@
     </row>
     <row r="346" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B346" s="33"/>
-      <c r="D346" s="41"/>
+      <c r="D346" s="43"/>
       <c r="E346" s="19">
         <v>5</v>
       </c>
@@ -9175,7 +9512,7 @@
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B347" s="33"/>
-      <c r="D347" s="41"/>
+      <c r="D347" s="43"/>
       <c r="E347" s="19">
         <v>6</v>
       </c>
@@ -9190,7 +9527,7 @@
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B348" s="33"/>
-      <c r="D348" s="41"/>
+      <c r="D348" s="43"/>
       <c r="E348" s="19">
         <v>7</v>
       </c>
@@ -9220,7 +9557,7 @@
       <c r="C350" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D350" s="41" t="s">
+      <c r="D350" s="43" t="s">
         <v>254</v>
       </c>
       <c r="E350" s="19">
@@ -9234,7 +9571,7 @@
     </row>
     <row r="351" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="33"/>
-      <c r="D351" s="41"/>
+      <c r="D351" s="43"/>
       <c r="E351" s="19">
         <v>2</v>
       </c>
@@ -9249,7 +9586,7 @@
     </row>
     <row r="352" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B352" s="33"/>
-      <c r="D352" s="41"/>
+      <c r="D352" s="43"/>
       <c r="E352" s="19">
         <v>3</v>
       </c>
@@ -9264,7 +9601,7 @@
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B353" s="33"/>
-      <c r="D353" s="41"/>
+      <c r="D353" s="43"/>
       <c r="E353" s="19">
         <v>4</v>
       </c>
@@ -9279,7 +9616,7 @@
     </row>
     <row r="354" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B354" s="33"/>
-      <c r="D354" s="41"/>
+      <c r="D354" s="43"/>
       <c r="E354" s="19">
         <v>5</v>
       </c>
@@ -9294,7 +9631,7 @@
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B355" s="33"/>
-      <c r="D355" s="41"/>
+      <c r="D355" s="43"/>
       <c r="E355" s="19">
         <v>6</v>
       </c>
@@ -9311,7 +9648,7 @@
       <c r="A356"/>
       <c r="B356"/>
       <c r="C356"/>
-      <c r="D356" s="41"/>
+      <c r="D356" s="43"/>
       <c r="E356" s="19">
         <v>7</v>
       </c>
@@ -9339,7 +9676,7 @@
       <c r="C358" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D358" s="41" t="s">
+      <c r="D358" s="43" t="s">
         <v>262</v>
       </c>
       <c r="E358" s="19">
@@ -9353,7 +9690,7 @@
     </row>
     <row r="359" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="33"/>
-      <c r="D359" s="41"/>
+      <c r="D359" s="43"/>
       <c r="E359" s="19">
         <v>2</v>
       </c>
@@ -9368,7 +9705,7 @@
     </row>
     <row r="360" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B360" s="33"/>
-      <c r="D360" s="41"/>
+      <c r="D360" s="43"/>
       <c r="E360" s="19">
         <v>3</v>
       </c>
@@ -9383,7 +9720,7 @@
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B361" s="33"/>
-      <c r="D361" s="41"/>
+      <c r="D361" s="43"/>
       <c r="E361" s="19">
         <v>4</v>
       </c>
@@ -9398,7 +9735,7 @@
     </row>
     <row r="362" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B362" s="33"/>
-      <c r="D362" s="41"/>
+      <c r="D362" s="43"/>
       <c r="E362" s="19">
         <v>5</v>
       </c>
@@ -9413,7 +9750,7 @@
     </row>
     <row r="363" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="33"/>
-      <c r="D363" s="41"/>
+      <c r="D363" s="43"/>
       <c r="E363" s="19">
         <v>6</v>
       </c>
@@ -9441,7 +9778,7 @@
       <c r="C365" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D365" s="41" t="s">
+      <c r="D365" s="43" t="s">
         <v>267</v>
       </c>
       <c r="E365" s="19">
@@ -9455,7 +9792,7 @@
     </row>
     <row r="366" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B366" s="33"/>
-      <c r="D366" s="41"/>
+      <c r="D366" s="43"/>
       <c r="E366" s="19">
         <v>2</v>
       </c>
@@ -9470,7 +9807,7 @@
     </row>
     <row r="367" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B367" s="33"/>
-      <c r="D367" s="41"/>
+      <c r="D367" s="43"/>
       <c r="E367" s="19">
         <v>3</v>
       </c>
@@ -9485,7 +9822,7 @@
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B368" s="33"/>
-      <c r="D368" s="41"/>
+      <c r="D368" s="43"/>
       <c r="E368" s="19">
         <v>4</v>
       </c>
@@ -9500,7 +9837,7 @@
     </row>
     <row r="369" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="33"/>
-      <c r="D369" s="41"/>
+      <c r="D369" s="43"/>
       <c r="E369" s="19">
         <v>5</v>
       </c>
@@ -9515,7 +9852,7 @@
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B370" s="33"/>
-      <c r="D370" s="41"/>
+      <c r="D370" s="43"/>
       <c r="E370" s="19">
         <v>6</v>
       </c>
@@ -9530,7 +9867,7 @@
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B371" s="33"/>
-      <c r="D371" s="41"/>
+      <c r="D371" s="43"/>
       <c r="E371" s="19">
         <v>7</v>
       </c>
@@ -9560,7 +9897,7 @@
       <c r="C373" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D373" s="41" t="s">
+      <c r="D373" s="43" t="s">
         <v>268</v>
       </c>
       <c r="E373" s="19">
@@ -9574,7 +9911,7 @@
     </row>
     <row r="374" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B374" s="33"/>
-      <c r="D374" s="41"/>
+      <c r="D374" s="43"/>
       <c r="E374" s="19">
         <v>2</v>
       </c>
@@ -9589,7 +9926,7 @@
     </row>
     <row r="375" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B375" s="33"/>
-      <c r="D375" s="41"/>
+      <c r="D375" s="43"/>
       <c r="E375" s="19">
         <v>3</v>
       </c>
@@ -9604,7 +9941,7 @@
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B376" s="33"/>
-      <c r="D376" s="41"/>
+      <c r="D376" s="43"/>
       <c r="E376" s="19">
         <v>4</v>
       </c>
@@ -9619,7 +9956,7 @@
     </row>
     <row r="377" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B377" s="33"/>
-      <c r="D377" s="41"/>
+      <c r="D377" s="43"/>
       <c r="E377" s="19">
         <v>5</v>
       </c>
@@ -9634,7 +9971,7 @@
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B378" s="33"/>
-      <c r="D378" s="41"/>
+      <c r="D378" s="43"/>
       <c r="E378" s="19">
         <v>6</v>
       </c>
@@ -9651,7 +9988,7 @@
       <c r="A379"/>
       <c r="B379"/>
       <c r="C379"/>
-      <c r="D379" s="41"/>
+      <c r="D379" s="43"/>
       <c r="E379" s="19">
         <v>7</v>
       </c>
@@ -9679,7 +10016,7 @@
       <c r="C381" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D381" s="41" t="s">
+      <c r="D381" s="43" t="s">
         <v>287</v>
       </c>
       <c r="E381" s="19">
@@ -9693,7 +10030,7 @@
     </row>
     <row r="382" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B382" s="33"/>
-      <c r="D382" s="41"/>
+      <c r="D382" s="43"/>
       <c r="E382" s="19">
         <v>2</v>
       </c>
@@ -9708,7 +10045,7 @@
     </row>
     <row r="383" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B383" s="33"/>
-      <c r="D383" s="41"/>
+      <c r="D383" s="43"/>
       <c r="E383" s="19">
         <v>3</v>
       </c>
@@ -9723,7 +10060,7 @@
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B384" s="33"/>
-      <c r="D384" s="41"/>
+      <c r="D384" s="43"/>
       <c r="E384" s="19">
         <v>4</v>
       </c>
@@ -9738,7 +10075,7 @@
     </row>
     <row r="385" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B385" s="33"/>
-      <c r="D385" s="41"/>
+      <c r="D385" s="43"/>
       <c r="E385" s="19">
         <v>5</v>
       </c>
@@ -9753,7 +10090,7 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B386" s="33"/>
-      <c r="D386" s="41"/>
+      <c r="D386" s="43"/>
       <c r="E386" s="19">
         <v>6</v>
       </c>
@@ -9781,7 +10118,7 @@
       <c r="C388" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D388" s="41" t="s">
+      <c r="D388" s="43" t="s">
         <v>291</v>
       </c>
       <c r="E388" s="19">
@@ -9795,7 +10132,7 @@
     </row>
     <row r="389" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B389" s="33"/>
-      <c r="D389" s="41"/>
+      <c r="D389" s="43"/>
       <c r="E389" s="19">
         <v>2</v>
       </c>
@@ -9810,7 +10147,7 @@
     </row>
     <row r="390" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B390" s="33"/>
-      <c r="D390" s="41"/>
+      <c r="D390" s="43"/>
       <c r="E390" s="19">
         <v>3</v>
       </c>
@@ -9825,7 +10162,7 @@
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B391" s="33"/>
-      <c r="D391" s="41"/>
+      <c r="D391" s="43"/>
       <c r="E391" s="19">
         <v>4</v>
       </c>
@@ -9840,7 +10177,7 @@
     </row>
     <row r="392" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B392" s="33"/>
-      <c r="D392" s="41"/>
+      <c r="D392" s="43"/>
       <c r="E392" s="19">
         <v>5</v>
       </c>
@@ -9855,7 +10192,7 @@
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B393" s="33"/>
-      <c r="D393" s="41"/>
+      <c r="D393" s="43"/>
       <c r="E393" s="19">
         <v>6</v>
       </c>
@@ -9870,7 +10207,7 @@
     </row>
     <row r="394" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="33"/>
-      <c r="D394" s="41"/>
+      <c r="D394" s="43"/>
       <c r="E394" s="19">
         <v>7</v>
       </c>
@@ -9900,7 +10237,7 @@
       <c r="C396" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D396" s="41" t="s">
+      <c r="D396" s="43" t="s">
         <v>294</v>
       </c>
       <c r="E396" s="19">
@@ -9914,7 +10251,7 @@
     </row>
     <row r="397" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B397" s="33"/>
-      <c r="D397" s="41"/>
+      <c r="D397" s="43"/>
       <c r="E397" s="19">
         <v>2</v>
       </c>
@@ -9929,7 +10266,7 @@
     </row>
     <row r="398" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B398" s="33"/>
-      <c r="D398" s="41"/>
+      <c r="D398" s="43"/>
       <c r="E398" s="19">
         <v>3</v>
       </c>
@@ -9944,7 +10281,7 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B399" s="33"/>
-      <c r="D399" s="41"/>
+      <c r="D399" s="43"/>
       <c r="E399" s="19">
         <v>4</v>
       </c>
@@ -9959,7 +10296,7 @@
     </row>
     <row r="400" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B400" s="33"/>
-      <c r="D400" s="41"/>
+      <c r="D400" s="43"/>
       <c r="E400" s="19">
         <v>5</v>
       </c>
@@ -9974,7 +10311,7 @@
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B401" s="33"/>
-      <c r="D401" s="41"/>
+      <c r="D401" s="43"/>
       <c r="E401" s="19">
         <v>6</v>
       </c>
@@ -9991,7 +10328,7 @@
       <c r="A402"/>
       <c r="B402"/>
       <c r="C402"/>
-      <c r="D402" s="41"/>
+      <c r="D402" s="43"/>
       <c r="E402" s="19">
         <v>7</v>
       </c>
@@ -10019,7 +10356,7 @@
       <c r="C404" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D404" s="41" t="s">
+      <c r="D404" s="43" t="s">
         <v>300</v>
       </c>
       <c r="E404" s="19">
@@ -10034,7 +10371,7 @@
     <row r="405" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A405" s="29"/>
       <c r="B405" s="33"/>
-      <c r="D405" s="41"/>
+      <c r="D405" s="43"/>
       <c r="E405" s="19">
         <v>2</v>
       </c>
@@ -10050,7 +10387,7 @@
     <row r="406" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A406" s="29"/>
       <c r="B406" s="33"/>
-      <c r="D406" s="41"/>
+      <c r="D406" s="43"/>
       <c r="E406" s="19">
         <v>3</v>
       </c>
@@ -10066,7 +10403,7 @@
     <row r="407" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A407" s="29"/>
       <c r="B407" s="33"/>
-      <c r="D407" s="41"/>
+      <c r="D407" s="43"/>
       <c r="E407" s="19">
         <v>4</v>
       </c>
@@ -10082,7 +10419,7 @@
     <row r="408" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A408" s="29"/>
       <c r="B408" s="33"/>
-      <c r="D408" s="41"/>
+      <c r="D408" s="43"/>
       <c r="E408" s="19">
         <v>5</v>
       </c>
@@ -10111,7 +10448,7 @@
       <c r="C410" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D410" s="41" t="s">
+      <c r="D410" s="43" t="s">
         <v>306</v>
       </c>
       <c r="E410" s="19">
@@ -10126,7 +10463,7 @@
     <row r="411" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A411" s="29"/>
       <c r="B411" s="33"/>
-      <c r="D411" s="41"/>
+      <c r="D411" s="43"/>
       <c r="E411" s="19">
         <v>2</v>
       </c>
@@ -10142,7 +10479,7 @@
     <row r="412" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A412" s="29"/>
       <c r="B412" s="33"/>
-      <c r="D412" s="41"/>
+      <c r="D412" s="43"/>
       <c r="E412" s="19">
         <v>3</v>
       </c>
@@ -10158,7 +10495,7 @@
     <row r="413" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A413" s="29"/>
       <c r="B413" s="33"/>
-      <c r="D413" s="41"/>
+      <c r="D413" s="43"/>
       <c r="E413" s="19">
         <v>4</v>
       </c>
@@ -10174,7 +10511,7 @@
     <row r="414" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A414" s="29"/>
       <c r="B414" s="33"/>
-      <c r="D414" s="41"/>
+      <c r="D414" s="43"/>
       <c r="E414" s="19">
         <v>5</v>
       </c>
@@ -10204,7 +10541,7 @@
       <c r="C416" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D416" s="41" t="s">
+      <c r="D416" s="43" t="s">
         <v>329</v>
       </c>
       <c r="E416" s="19">
@@ -10219,7 +10556,7 @@
     <row r="417" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A417" s="29"/>
       <c r="B417" s="33"/>
-      <c r="D417" s="41"/>
+      <c r="D417" s="43"/>
       <c r="E417" s="19">
         <v>2</v>
       </c>
@@ -10235,7 +10572,7 @@
     <row r="418" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A418" s="29"/>
       <c r="B418" s="33"/>
-      <c r="D418" s="41"/>
+      <c r="D418" s="43"/>
       <c r="E418" s="19">
         <v>3</v>
       </c>
@@ -10251,7 +10588,7 @@
     <row r="419" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A419" s="29"/>
       <c r="B419" s="33"/>
-      <c r="D419" s="41"/>
+      <c r="D419" s="43"/>
       <c r="E419" s="19">
         <v>4</v>
       </c>
@@ -10267,7 +10604,7 @@
     <row r="420" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A420" s="29"/>
       <c r="B420" s="33"/>
-      <c r="D420" s="41"/>
+      <c r="D420" s="43"/>
       <c r="E420" s="19">
         <v>5</v>
       </c>
@@ -10295,7 +10632,7 @@
       <c r="C422" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D422" s="41" t="s">
+      <c r="D422" s="43" t="s">
         <v>312</v>
       </c>
       <c r="E422" s="19">
@@ -10310,7 +10647,7 @@
     <row r="423" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A423" s="29"/>
       <c r="B423" s="33"/>
-      <c r="D423" s="41"/>
+      <c r="D423" s="43"/>
       <c r="E423" s="19">
         <v>2</v>
       </c>
@@ -10326,7 +10663,7 @@
     <row r="424" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A424" s="29"/>
       <c r="B424" s="33"/>
-      <c r="D424" s="41"/>
+      <c r="D424" s="43"/>
       <c r="E424" s="19">
         <v>3</v>
       </c>
@@ -10342,7 +10679,7 @@
     <row r="425" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A425" s="29"/>
       <c r="B425" s="33"/>
-      <c r="D425" s="41"/>
+      <c r="D425" s="43"/>
       <c r="E425" s="19">
         <v>4</v>
       </c>
@@ -10358,7 +10695,7 @@
     <row r="426" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A426" s="29"/>
       <c r="B426" s="33"/>
-      <c r="D426" s="41"/>
+      <c r="D426" s="43"/>
       <c r="E426" s="19">
         <v>5</v>
       </c>
@@ -10386,7 +10723,7 @@
       <c r="C428" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D428" s="41" t="s">
+      <c r="D428" s="43" t="s">
         <v>315</v>
       </c>
       <c r="E428" s="19">
@@ -10401,7 +10738,7 @@
     <row r="429" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A429" s="29"/>
       <c r="B429" s="33"/>
-      <c r="D429" s="41"/>
+      <c r="D429" s="43"/>
       <c r="E429" s="19">
         <v>2</v>
       </c>
@@ -10417,7 +10754,7 @@
     <row r="430" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A430" s="29"/>
       <c r="B430" s="33"/>
-      <c r="D430" s="41"/>
+      <c r="D430" s="43"/>
       <c r="E430" s="19">
         <v>3</v>
       </c>
@@ -10433,7 +10770,7 @@
     <row r="431" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A431" s="29"/>
       <c r="B431" s="33"/>
-      <c r="D431" s="41"/>
+      <c r="D431" s="43"/>
       <c r="E431" s="19">
         <v>4</v>
       </c>
@@ -10449,7 +10786,7 @@
     <row r="432" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A432" s="29"/>
       <c r="B432" s="33"/>
-      <c r="D432" s="41"/>
+      <c r="D432" s="43"/>
       <c r="E432" s="19">
         <v>5</v>
       </c>
@@ -10479,7 +10816,7 @@
       <c r="C434" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D434" s="41" t="s">
+      <c r="D434" s="43" t="s">
         <v>310</v>
       </c>
       <c r="E434" s="19">
@@ -10493,7 +10830,7 @@
     </row>
     <row r="435" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B435" s="33"/>
-      <c r="D435" s="41"/>
+      <c r="D435" s="43"/>
       <c r="E435" s="19">
         <v>2</v>
       </c>
@@ -10508,7 +10845,7 @@
     </row>
     <row r="436" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B436" s="33"/>
-      <c r="D436" s="41"/>
+      <c r="D436" s="43"/>
       <c r="E436" s="19">
         <v>3</v>
       </c>
@@ -10523,7 +10860,7 @@
     </row>
     <row r="437" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B437" s="33"/>
-      <c r="D437" s="41"/>
+      <c r="D437" s="43"/>
       <c r="E437" s="19">
         <v>4</v>
       </c>
@@ -10538,7 +10875,7 @@
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B438" s="33"/>
-      <c r="D438" s="41"/>
+      <c r="D438" s="43"/>
       <c r="E438" s="19">
         <v>5</v>
       </c>
@@ -10567,7 +10904,7 @@
       <c r="C440" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D440" s="41" t="s">
+      <c r="D440" s="43" t="s">
         <v>325</v>
       </c>
       <c r="E440" s="19">
@@ -10581,7 +10918,7 @@
     </row>
     <row r="441" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B441" s="33"/>
-      <c r="D441" s="41"/>
+      <c r="D441" s="43"/>
       <c r="E441" s="19">
         <v>2</v>
       </c>
@@ -10596,7 +10933,7 @@
     </row>
     <row r="442" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B442" s="33"/>
-      <c r="D442" s="41"/>
+      <c r="D442" s="43"/>
       <c r="E442" s="19">
         <v>3</v>
       </c>
@@ -10611,7 +10948,7 @@
     </row>
     <row r="443" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B443" s="33"/>
-      <c r="D443" s="41"/>
+      <c r="D443" s="43"/>
       <c r="E443" s="19">
         <v>4</v>
       </c>
@@ -10626,7 +10963,7 @@
     </row>
     <row r="444" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B444" s="33"/>
-      <c r="D444" s="41"/>
+      <c r="D444" s="43"/>
       <c r="E444" s="19">
         <v>5</v>
       </c>
@@ -10654,7 +10991,7 @@
       <c r="C446" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D446" s="41" t="s">
+      <c r="D446" s="43" t="s">
         <v>320</v>
       </c>
       <c r="E446" s="19">
@@ -10668,7 +11005,7 @@
     </row>
     <row r="447" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B447" s="33"/>
-      <c r="D447" s="41"/>
+      <c r="D447" s="43"/>
       <c r="E447" s="19">
         <v>2</v>
       </c>
@@ -10683,7 +11020,7 @@
     </row>
     <row r="448" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B448" s="33"/>
-      <c r="D448" s="41"/>
+      <c r="D448" s="43"/>
       <c r="E448" s="19">
         <v>3</v>
       </c>
@@ -10698,7 +11035,7 @@
     </row>
     <row r="449" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B449" s="33"/>
-      <c r="D449" s="41"/>
+      <c r="D449" s="43"/>
       <c r="E449" s="19">
         <v>4</v>
       </c>
@@ -10713,7 +11050,7 @@
     </row>
     <row r="450" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B450" s="33"/>
-      <c r="D450" s="41"/>
+      <c r="D450" s="43"/>
       <c r="E450" s="19">
         <v>5</v>
       </c>
@@ -10741,7 +11078,7 @@
       <c r="C452" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D452" s="41" t="s">
+      <c r="D452" s="43" t="s">
         <v>327</v>
       </c>
       <c r="E452" s="19">
@@ -10755,7 +11092,7 @@
     </row>
     <row r="453" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B453" s="33"/>
-      <c r="D453" s="41"/>
+      <c r="D453" s="43"/>
       <c r="E453" s="19">
         <v>2</v>
       </c>
@@ -10770,7 +11107,7 @@
     </row>
     <row r="454" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B454" s="33"/>
-      <c r="D454" s="41"/>
+      <c r="D454" s="43"/>
       <c r="E454" s="19">
         <v>3</v>
       </c>
@@ -10785,7 +11122,7 @@
     </row>
     <row r="455" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B455" s="33"/>
-      <c r="D455" s="41"/>
+      <c r="D455" s="43"/>
       <c r="E455" s="19">
         <v>4</v>
       </c>
@@ -10800,7 +11137,7 @@
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B456" s="33"/>
-      <c r="D456" s="41"/>
+      <c r="D456" s="43"/>
       <c r="E456" s="19">
         <v>5</v>
       </c>
@@ -10828,7 +11165,7 @@
       <c r="C458" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D458" s="41" t="s">
+      <c r="D458" s="43" t="s">
         <v>335</v>
       </c>
       <c r="E458" s="19">
@@ -10842,7 +11179,7 @@
     </row>
     <row r="459" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B459" s="33"/>
-      <c r="D459" s="41"/>
+      <c r="D459" s="43"/>
       <c r="E459" s="19">
         <v>2</v>
       </c>
@@ -10857,7 +11194,7 @@
     </row>
     <row r="460" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B460" s="33"/>
-      <c r="D460" s="41"/>
+      <c r="D460" s="43"/>
       <c r="E460" s="19">
         <v>3</v>
       </c>
@@ -10872,7 +11209,7 @@
     </row>
     <row r="461" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B461" s="33"/>
-      <c r="D461" s="41"/>
+      <c r="D461" s="43"/>
       <c r="E461" s="19">
         <v>4</v>
       </c>
@@ -10887,7 +11224,7 @@
     </row>
     <row r="462" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B462" s="33"/>
-      <c r="D462" s="41"/>
+      <c r="D462" s="43"/>
       <c r="E462" s="19">
         <v>5</v>
       </c>
@@ -10916,7 +11253,7 @@
       <c r="C464" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D464" s="41" t="s">
+      <c r="D464" s="43" t="s">
         <v>339</v>
       </c>
       <c r="E464" s="19">
@@ -10930,7 +11267,7 @@
     </row>
     <row r="465" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B465" s="33"/>
-      <c r="D465" s="41"/>
+      <c r="D465" s="43"/>
       <c r="E465" s="19">
         <v>2</v>
       </c>
@@ -10945,7 +11282,7 @@
     </row>
     <row r="466" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B466" s="33"/>
-      <c r="D466" s="41"/>
+      <c r="D466" s="43"/>
       <c r="E466" s="19">
         <v>3</v>
       </c>
@@ -10960,7 +11297,7 @@
     </row>
     <row r="467" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B467" s="33"/>
-      <c r="D467" s="41"/>
+      <c r="D467" s="43"/>
       <c r="E467" s="19">
         <v>4</v>
       </c>
@@ -10975,7 +11312,7 @@
     </row>
     <row r="468" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B468" s="33"/>
-      <c r="D468" s="41"/>
+      <c r="D468" s="43"/>
       <c r="E468" s="19">
         <v>5</v>
       </c>
@@ -11003,7 +11340,7 @@
       <c r="C470" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D470" s="41" t="s">
+      <c r="D470" s="43" t="s">
         <v>343</v>
       </c>
       <c r="E470" s="19">
@@ -11017,7 +11354,7 @@
     </row>
     <row r="471" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B471" s="33"/>
-      <c r="D471" s="41"/>
+      <c r="D471" s="43"/>
       <c r="E471" s="19">
         <v>2</v>
       </c>
@@ -11032,7 +11369,7 @@
     </row>
     <row r="472" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B472" s="33"/>
-      <c r="D472" s="41"/>
+      <c r="D472" s="43"/>
       <c r="E472" s="19">
         <v>3</v>
       </c>
@@ -11047,7 +11384,7 @@
     </row>
     <row r="473" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B473" s="33"/>
-      <c r="D473" s="41"/>
+      <c r="D473" s="43"/>
       <c r="E473" s="19">
         <v>4</v>
       </c>
@@ -11062,7 +11399,7 @@
     </row>
     <row r="474" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B474" s="33"/>
-      <c r="D474" s="41"/>
+      <c r="D474" s="43"/>
       <c r="E474" s="19">
         <v>5</v>
       </c>
@@ -11091,7 +11428,7 @@
       <c r="C476" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D476" s="41" t="s">
+      <c r="D476" s="43" t="s">
         <v>347</v>
       </c>
       <c r="E476" s="19">
@@ -11105,7 +11442,7 @@
     </row>
     <row r="477" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B477" s="33"/>
-      <c r="D477" s="41"/>
+      <c r="D477" s="43"/>
       <c r="E477" s="19">
         <v>2</v>
       </c>
@@ -11120,7 +11457,7 @@
     </row>
     <row r="478" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B478" s="33"/>
-      <c r="D478" s="41"/>
+      <c r="D478" s="43"/>
       <c r="E478" s="19">
         <v>3</v>
       </c>
@@ -11135,7 +11472,7 @@
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B479" s="33"/>
-      <c r="D479" s="41"/>
+      <c r="D479" s="43"/>
       <c r="E479" s="19">
         <v>4</v>
       </c>
@@ -11150,7 +11487,7 @@
     </row>
     <row r="480" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B480" s="33"/>
-      <c r="D480" s="41"/>
+      <c r="D480" s="43"/>
       <c r="E480" s="19">
         <v>5</v>
       </c>
@@ -11168,7 +11505,7 @@
     </row>
     <row r="481" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B481" s="33"/>
-      <c r="D481" s="41"/>
+      <c r="D481" s="43"/>
       <c r="E481" s="19">
         <v>6</v>
       </c>
@@ -11187,7 +11524,7 @@
     <row r="482" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A482" s="31"/>
       <c r="B482" s="33"/>
-      <c r="D482" s="41"/>
+      <c r="D482" s="43"/>
       <c r="E482" s="19">
         <v>7</v>
       </c>
@@ -11218,7 +11555,7 @@
       <c r="C484" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D484" s="41" t="s">
+      <c r="D484" s="43" t="s">
         <v>361</v>
       </c>
       <c r="E484" s="19">
@@ -11232,7 +11569,7 @@
     </row>
     <row r="485" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B485" s="33"/>
-      <c r="D485" s="41"/>
+      <c r="D485" s="43"/>
       <c r="E485" s="19">
         <v>2</v>
       </c>
@@ -11247,7 +11584,7 @@
     </row>
     <row r="486" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B486" s="33"/>
-      <c r="D486" s="41"/>
+      <c r="D486" s="43"/>
       <c r="E486" s="19">
         <v>3</v>
       </c>
@@ -11262,7 +11599,7 @@
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B487" s="33"/>
-      <c r="D487" s="41"/>
+      <c r="D487" s="43"/>
       <c r="E487" s="19">
         <v>4</v>
       </c>
@@ -11277,7 +11614,7 @@
     </row>
     <row r="488" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B488" s="33"/>
-      <c r="D488" s="41"/>
+      <c r="D488" s="43"/>
       <c r="E488" s="19">
         <v>5</v>
       </c>
@@ -11295,7 +11632,7 @@
     </row>
     <row r="489" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B489" s="33"/>
-      <c r="D489" s="41"/>
+      <c r="D489" s="43"/>
       <c r="E489" s="19">
         <v>6</v>
       </c>
@@ -11314,7 +11651,7 @@
     <row r="490" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A490" s="31"/>
       <c r="B490" s="33"/>
-      <c r="D490" s="41"/>
+      <c r="D490" s="43"/>
       <c r="E490" s="19">
         <v>7</v>
       </c>
@@ -11345,7 +11682,7 @@
       <c r="C492" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D492" s="41" t="s">
+      <c r="D492" s="43" t="s">
         <v>364</v>
       </c>
       <c r="E492" s="19">
@@ -11359,7 +11696,7 @@
     </row>
     <row r="493" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B493" s="33"/>
-      <c r="D493" s="41"/>
+      <c r="D493" s="43"/>
       <c r="E493" s="19">
         <v>2</v>
       </c>
@@ -11374,7 +11711,7 @@
     </row>
     <row r="494" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B494" s="33"/>
-      <c r="D494" s="41"/>
+      <c r="D494" s="43"/>
       <c r="E494" s="19">
         <v>3</v>
       </c>
@@ -11389,7 +11726,7 @@
     </row>
     <row r="495" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B495" s="33"/>
-      <c r="D495" s="41"/>
+      <c r="D495" s="43"/>
       <c r="E495" s="19">
         <v>4</v>
       </c>
@@ -11404,7 +11741,7 @@
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B496" s="33"/>
-      <c r="D496" s="41"/>
+      <c r="D496" s="43"/>
       <c r="E496" s="19">
         <v>5</v>
       </c>
@@ -11419,7 +11756,7 @@
     </row>
     <row r="497" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B497" s="33"/>
-      <c r="D497" s="41"/>
+      <c r="D497" s="43"/>
       <c r="E497" s="19">
         <v>6</v>
       </c>
@@ -11435,7 +11772,7 @@
     <row r="498" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A498" s="31"/>
       <c r="B498" s="33"/>
-      <c r="D498" s="41"/>
+      <c r="D498" s="43"/>
       <c r="E498" s="19">
         <v>7</v>
       </c>
@@ -11463,7 +11800,7 @@
       <c r="C500" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D500" s="41" t="s">
+      <c r="D500" s="43" t="s">
         <v>375</v>
       </c>
       <c r="E500" s="19">
@@ -11477,7 +11814,7 @@
     </row>
     <row r="501" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B501" s="33"/>
-      <c r="D501" s="41"/>
+      <c r="D501" s="43"/>
       <c r="E501" s="19">
         <v>2</v>
       </c>
@@ -11492,7 +11829,7 @@
     </row>
     <row r="502" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B502" s="33"/>
-      <c r="D502" s="41"/>
+      <c r="D502" s="43"/>
       <c r="E502" s="19">
         <v>3</v>
       </c>
@@ -11507,7 +11844,7 @@
     </row>
     <row r="503" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B503" s="33"/>
-      <c r="D503" s="41"/>
+      <c r="D503" s="43"/>
       <c r="E503" s="19">
         <v>4</v>
       </c>
@@ -11522,7 +11859,7 @@
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B504" s="33"/>
-      <c r="D504" s="41"/>
+      <c r="D504" s="43"/>
       <c r="E504" s="19">
         <v>5</v>
       </c>
@@ -11537,7 +11874,7 @@
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B505" s="33"/>
-      <c r="D505" s="41"/>
+      <c r="D505" s="43"/>
       <c r="E505" s="19">
         <v>6</v>
       </c>
@@ -11566,7 +11903,7 @@
       <c r="C507" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D507" s="41" t="s">
+      <c r="D507" s="43" t="s">
         <v>379</v>
       </c>
       <c r="E507" s="19">
@@ -11580,7 +11917,7 @@
     </row>
     <row r="508" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B508" s="33"/>
-      <c r="D508" s="41"/>
+      <c r="D508" s="43"/>
       <c r="E508" s="19">
         <v>2</v>
       </c>
@@ -11595,7 +11932,7 @@
     </row>
     <row r="509" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B509" s="33"/>
-      <c r="D509" s="41"/>
+      <c r="D509" s="43"/>
       <c r="E509" s="19">
         <v>3</v>
       </c>
@@ -11610,7 +11947,7 @@
     </row>
     <row r="510" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B510" s="33"/>
-      <c r="D510" s="41"/>
+      <c r="D510" s="43"/>
       <c r="E510" s="19">
         <v>4</v>
       </c>
@@ -11625,7 +11962,7 @@
     </row>
     <row r="511" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B511" s="33"/>
-      <c r="D511" s="41"/>
+      <c r="D511" s="43"/>
       <c r="E511" s="19">
         <v>5</v>
       </c>
@@ -11640,7 +11977,7 @@
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B512" s="33"/>
-      <c r="D512" s="41"/>
+      <c r="D512" s="43"/>
       <c r="E512" s="19">
         <v>6</v>
       </c>
@@ -11668,7 +12005,7 @@
       <c r="C514" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D514" s="41" t="s">
+      <c r="D514" s="43" t="s">
         <v>400</v>
       </c>
       <c r="E514" s="19">
@@ -11685,7 +12022,7 @@
     </row>
     <row r="515" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B515" s="33"/>
-      <c r="D515" s="41"/>
+      <c r="D515" s="43"/>
       <c r="E515" s="19">
         <v>2</v>
       </c>
@@ -11703,7 +12040,7 @@
     </row>
     <row r="516" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B516" s="33"/>
-      <c r="D516" s="41"/>
+      <c r="D516" s="43"/>
       <c r="E516" s="19">
         <v>3</v>
       </c>
@@ -11731,7 +12068,7 @@
       <c r="C518" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D518" s="41" t="s">
+      <c r="D518" s="43" t="s">
         <v>410</v>
       </c>
       <c r="E518" s="19">
@@ -11748,7 +12085,7 @@
     </row>
     <row r="519" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B519" s="33"/>
-      <c r="D519" s="41"/>
+      <c r="D519" s="43"/>
       <c r="E519" s="19">
         <v>2</v>
       </c>
@@ -11766,7 +12103,7 @@
     </row>
     <row r="520" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B520" s="33"/>
-      <c r="D520" s="41"/>
+      <c r="D520" s="43"/>
       <c r="E520" s="19">
         <v>3</v>
       </c>
@@ -11781,7 +12118,7 @@
     </row>
     <row r="521" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B521" s="33"/>
-      <c r="D521" s="41"/>
+      <c r="D521" s="43"/>
       <c r="E521" s="19">
         <v>4</v>
       </c>
@@ -11800,7 +12137,7 @@
     <row r="522" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A522" s="31"/>
       <c r="B522" s="33"/>
-      <c r="D522" s="41"/>
+      <c r="D522" s="43"/>
       <c r="E522" s="19">
         <v>5</v>
       </c>
@@ -11815,7 +12152,7 @@
     </row>
     <row r="523" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B523" s="33"/>
-      <c r="D523" s="41"/>
+      <c r="D523" s="43"/>
       <c r="E523" s="19">
         <v>6</v>
       </c>
@@ -11833,7 +12170,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B524" s="33"/>
-      <c r="D524" s="41"/>
+      <c r="D524" s="43"/>
       <c r="E524" s="19">
         <v>7</v>
       </c>
@@ -11861,7 +12198,7 @@
       <c r="C526" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D526" s="41" t="s">
+      <c r="D526" s="43" t="s">
         <v>413</v>
       </c>
       <c r="E526" s="19">
@@ -11878,7 +12215,7 @@
     </row>
     <row r="527" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B527" s="33"/>
-      <c r="D527" s="41"/>
+      <c r="D527" s="43"/>
       <c r="E527" s="19">
         <v>2</v>
       </c>
@@ -11896,7 +12233,7 @@
     </row>
     <row r="528" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B528" s="33"/>
-      <c r="D528" s="41"/>
+      <c r="D528" s="43"/>
       <c r="E528" s="19">
         <v>3</v>
       </c>
@@ -11924,7 +12261,7 @@
       <c r="C530" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D530" s="41" t="s">
+      <c r="D530" s="43" t="s">
         <v>416</v>
       </c>
       <c r="E530" s="19">
@@ -11941,7 +12278,7 @@
     </row>
     <row r="531" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B531" s="33"/>
-      <c r="D531" s="41"/>
+      <c r="D531" s="43"/>
       <c r="E531" s="19">
         <v>2</v>
       </c>
@@ -11959,7 +12296,7 @@
     </row>
     <row r="532" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B532" s="33"/>
-      <c r="D532" s="41"/>
+      <c r="D532" s="43"/>
       <c r="E532" s="19">
         <v>5</v>
       </c>
@@ -11974,7 +12311,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B533" s="33"/>
-      <c r="D533" s="41"/>
+      <c r="D533" s="43"/>
       <c r="E533" s="19">
         <v>6</v>
       </c>
@@ -11990,7 +12327,7 @@
     <row r="534" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A534" s="31"/>
       <c r="B534" s="33"/>
-      <c r="D534" s="41"/>
+      <c r="D534" s="43"/>
       <c r="E534" s="19">
         <v>7</v>
       </c>
@@ -12018,7 +12355,7 @@
       <c r="C536" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D536" s="41" t="s">
+      <c r="D536" s="43" t="s">
         <v>424</v>
       </c>
       <c r="E536" s="19">
@@ -12035,7 +12372,7 @@
     </row>
     <row r="537" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B537" s="33"/>
-      <c r="D537" s="41"/>
+      <c r="D537" s="43"/>
       <c r="E537" s="19">
         <v>2</v>
       </c>
@@ -12053,7 +12390,7 @@
     </row>
     <row r="538" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B538" s="33"/>
-      <c r="D538" s="41"/>
+      <c r="D538" s="43"/>
       <c r="E538" s="19">
         <v>3</v>
       </c>
@@ -12068,7 +12405,7 @@
     </row>
     <row r="539" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B539" s="33"/>
-      <c r="D539" s="41"/>
+      <c r="D539" s="43"/>
       <c r="E539" s="19">
         <v>4</v>
       </c>
@@ -12087,7 +12424,7 @@
     <row r="540" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A540" s="31"/>
       <c r="B540" s="33"/>
-      <c r="D540" s="41"/>
+      <c r="D540" s="43"/>
       <c r="E540" s="19">
         <v>5</v>
       </c>
@@ -12103,7 +12440,7 @@
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="31"/>
       <c r="B541" s="33"/>
-      <c r="D541" s="41"/>
+      <c r="D541" s="43"/>
       <c r="E541" s="19">
         <v>6</v>
       </c>
@@ -12131,7 +12468,7 @@
       <c r="C543" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D543" s="41" t="s">
+      <c r="D543" s="43" t="s">
         <v>428</v>
       </c>
       <c r="E543" s="19">
@@ -12148,7 +12485,7 @@
     </row>
     <row r="544" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B544" s="33"/>
-      <c r="D544" s="41"/>
+      <c r="D544" s="43"/>
       <c r="E544" s="19">
         <v>2</v>
       </c>
@@ -12166,7 +12503,7 @@
     </row>
     <row r="545" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B545" s="33"/>
-      <c r="D545" s="41"/>
+      <c r="D545" s="43"/>
       <c r="E545" s="19">
         <v>3</v>
       </c>
@@ -12184,7 +12521,7 @@
     </row>
     <row r="546" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B546" s="33"/>
-      <c r="D546" s="41"/>
+      <c r="D546" s="43"/>
       <c r="E546" s="19">
         <v>4</v>
       </c>
@@ -12203,7 +12540,7 @@
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="31"/>
       <c r="B547" s="33"/>
-      <c r="D547" s="41"/>
+      <c r="D547" s="43"/>
       <c r="E547" s="19">
         <v>5</v>
       </c>
@@ -12219,7 +12556,7 @@
     <row r="548" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A548" s="31"/>
       <c r="B548" s="33"/>
-      <c r="D548" s="41"/>
+      <c r="D548" s="43"/>
       <c r="E548" s="19">
         <v>6</v>
       </c>
@@ -12250,7 +12587,7 @@
       <c r="C550" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D550" s="41" t="s">
+      <c r="D550" s="43" t="s">
         <v>436</v>
       </c>
       <c r="E550" s="19">
@@ -12267,7 +12604,7 @@
     </row>
     <row r="551" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B551" s="33"/>
-      <c r="D551" s="41"/>
+      <c r="D551" s="43"/>
       <c r="E551" s="19">
         <v>2</v>
       </c>
@@ -12285,7 +12622,7 @@
     </row>
     <row r="552" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B552" s="33"/>
-      <c r="D552" s="41"/>
+      <c r="D552" s="43"/>
       <c r="E552" s="19">
         <v>3</v>
       </c>
@@ -12303,7 +12640,7 @@
     </row>
     <row r="553" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B553" s="33"/>
-      <c r="D553" s="41"/>
+      <c r="D553" s="43"/>
       <c r="E553" s="19">
         <v>4</v>
       </c>
@@ -12322,7 +12659,7 @@
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="31"/>
       <c r="B554" s="33"/>
-      <c r="D554" s="41"/>
+      <c r="D554" s="43"/>
       <c r="E554" s="19">
         <v>5</v>
       </c>
@@ -12338,7 +12675,7 @@
     <row r="555" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="31"/>
       <c r="B555" s="33"/>
-      <c r="D555" s="41"/>
+      <c r="D555" s="43"/>
       <c r="E555" s="19">
         <v>6</v>
       </c>
@@ -12353,7 +12690,7 @@
     </row>
     <row r="556" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B556" s="33"/>
-      <c r="D556" s="41"/>
+      <c r="D556" s="43"/>
       <c r="E556" s="19">
         <v>7</v>
       </c>
@@ -12371,7 +12708,7 @@
     </row>
     <row r="557" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B557" s="33"/>
-      <c r="D557" s="41"/>
+      <c r="D557" s="43"/>
       <c r="E557" s="19">
         <v>8</v>
       </c>
@@ -12390,7 +12727,7 @@
     <row r="558" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A558" s="31"/>
       <c r="B558" s="33"/>
-      <c r="D558" s="41"/>
+      <c r="D558" s="43"/>
       <c r="E558" s="19">
         <v>9</v>
       </c>
@@ -12408,7 +12745,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B559" s="33"/>
-      <c r="D559" s="41"/>
+      <c r="D559" s="43"/>
       <c r="E559" s="19">
         <v>10</v>
       </c>
@@ -12436,7 +12773,7 @@
       <c r="C561" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D561" s="41" t="s">
+      <c r="D561" s="43" t="s">
         <v>438</v>
       </c>
       <c r="E561" s="19">
@@ -12453,7 +12790,7 @@
     </row>
     <row r="562" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B562" s="33"/>
-      <c r="D562" s="41"/>
+      <c r="D562" s="43"/>
       <c r="E562" s="19">
         <v>2</v>
       </c>
@@ -12471,7 +12808,7 @@
     </row>
     <row r="563" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B563" s="33"/>
-      <c r="D563" s="41"/>
+      <c r="D563" s="43"/>
       <c r="E563" s="19">
         <v>3</v>
       </c>
@@ -12489,7 +12826,7 @@
     </row>
     <row r="564" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B564" s="33"/>
-      <c r="D564" s="41"/>
+      <c r="D564" s="43"/>
       <c r="E564" s="19">
         <v>4</v>
       </c>
@@ -12508,7 +12845,7 @@
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="31"/>
       <c r="B565" s="33"/>
-      <c r="D565" s="41"/>
+      <c r="D565" s="43"/>
       <c r="E565" s="19">
         <v>5</v>
       </c>
@@ -12524,7 +12861,7 @@
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="31"/>
       <c r="B566" s="33"/>
-      <c r="D566" s="41"/>
+      <c r="D566" s="43"/>
       <c r="E566" s="19">
         <v>6</v>
       </c>
@@ -12539,7 +12876,7 @@
     </row>
     <row r="567" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B567" s="33"/>
-      <c r="D567" s="41"/>
+      <c r="D567" s="43"/>
       <c r="E567" s="19">
         <v>7</v>
       </c>
@@ -12554,7 +12891,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B568" s="33"/>
-      <c r="D568" s="41"/>
+      <c r="D568" s="43"/>
       <c r="E568" s="19">
         <v>8</v>
       </c>
@@ -12582,7 +12919,7 @@
       <c r="C570" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D570" s="41" t="s">
+      <c r="D570" s="43" t="s">
         <v>450</v>
       </c>
       <c r="E570" s="19">
@@ -12599,7 +12936,7 @@
     </row>
     <row r="571" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B571" s="33"/>
-      <c r="D571" s="41"/>
+      <c r="D571" s="43"/>
       <c r="E571" s="19">
         <v>2</v>
       </c>
@@ -12617,7 +12954,7 @@
     </row>
     <row r="572" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B572" s="33"/>
-      <c r="D572" s="41"/>
+      <c r="D572" s="43"/>
       <c r="E572" s="19">
         <v>3</v>
       </c>
@@ -12632,7 +12969,7 @@
     </row>
     <row r="573" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B573" s="33"/>
-      <c r="D573" s="41"/>
+      <c r="D573" s="43"/>
       <c r="E573" s="19">
         <v>4</v>
       </c>
@@ -12660,7 +12997,7 @@
       <c r="C575" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D575" s="41" t="s">
+      <c r="D575" s="43" t="s">
         <v>454</v>
       </c>
       <c r="E575" s="19">
@@ -12677,7 +13014,7 @@
     </row>
     <row r="576" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B576" s="33"/>
-      <c r="D576" s="41"/>
+      <c r="D576" s="43"/>
       <c r="E576" s="19">
         <v>2</v>
       </c>
@@ -12695,7 +13032,7 @@
     </row>
     <row r="577" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B577" s="33"/>
-      <c r="D577" s="41"/>
+      <c r="D577" s="43"/>
       <c r="E577" s="19">
         <v>3</v>
       </c>
@@ -12710,7 +13047,7 @@
     </row>
     <row r="578" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B578" s="33"/>
-      <c r="D578" s="41"/>
+      <c r="D578" s="43"/>
       <c r="E578" s="19">
         <v>4</v>
       </c>
@@ -12725,7 +13062,7 @@
     </row>
     <row r="579" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B579" s="33"/>
-      <c r="D579" s="41"/>
+      <c r="D579" s="43"/>
       <c r="E579" s="19">
         <v>5</v>
       </c>
@@ -12753,7 +13090,7 @@
       <c r="C581" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D581" s="41" t="s">
+      <c r="D581" s="43" t="s">
         <v>460</v>
       </c>
       <c r="E581" s="19">
@@ -12770,7 +13107,7 @@
     </row>
     <row r="582" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B582" s="33"/>
-      <c r="D582" s="41"/>
+      <c r="D582" s="43"/>
       <c r="E582" s="19">
         <v>2</v>
       </c>
@@ -12788,7 +13125,7 @@
     </row>
     <row r="583" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B583" s="33"/>
-      <c r="D583" s="41"/>
+      <c r="D583" s="43"/>
       <c r="E583" s="19">
         <v>3</v>
       </c>
@@ -12806,7 +13143,7 @@
     </row>
     <row r="584" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B584" s="33"/>
-      <c r="D584" s="41"/>
+      <c r="D584" s="43"/>
       <c r="E584" s="19">
         <v>4</v>
       </c>
@@ -12821,7 +13158,7 @@
     </row>
     <row r="585" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B585" s="33"/>
-      <c r="D585" s="41"/>
+      <c r="D585" s="43"/>
       <c r="E585" s="19">
         <v>5</v>
       </c>
@@ -12849,7 +13186,7 @@
       <c r="C587" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D587" s="41" t="s">
+      <c r="D587" s="43" t="s">
         <v>466</v>
       </c>
       <c r="E587" s="19">
@@ -12866,7 +13203,7 @@
     </row>
     <row r="588" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B588" s="33"/>
-      <c r="D588" s="41"/>
+      <c r="D588" s="43"/>
       <c r="E588" s="19">
         <v>2</v>
       </c>
@@ -12884,7 +13221,7 @@
     </row>
     <row r="589" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B589" s="33"/>
-      <c r="D589" s="41"/>
+      <c r="D589" s="43"/>
       <c r="E589" s="19">
         <v>3</v>
       </c>
@@ -12899,7 +13236,7 @@
     </row>
     <row r="590" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B590" s="33"/>
-      <c r="D590" s="41"/>
+      <c r="D590" s="43"/>
       <c r="E590" s="19">
         <v>4</v>
       </c>
@@ -12914,7 +13251,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B591" s="33"/>
-      <c r="D591" s="41"/>
+      <c r="D591" s="43"/>
       <c r="E591" s="19">
         <v>5</v>
       </c>
@@ -12929,7 +13266,7 @@
     </row>
     <row r="592" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B592" s="33"/>
-      <c r="D592" s="41"/>
+      <c r="D592" s="43"/>
       <c r="E592" s="19">
         <v>6</v>
       </c>
@@ -12957,7 +13294,7 @@
       <c r="C594" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D594" s="41" t="s">
+      <c r="D594" s="43" t="s">
         <v>471</v>
       </c>
       <c r="E594" s="19">
@@ -12974,7 +13311,7 @@
     </row>
     <row r="595" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B595" s="33"/>
-      <c r="D595" s="41"/>
+      <c r="D595" s="43"/>
       <c r="E595" s="19">
         <v>2</v>
       </c>
@@ -12992,7 +13329,7 @@
     </row>
     <row r="596" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B596" s="33"/>
-      <c r="D596" s="41"/>
+      <c r="D596" s="43"/>
       <c r="E596" s="19">
         <v>3</v>
       </c>
@@ -13007,7 +13344,7 @@
     </row>
     <row r="597" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B597" s="33"/>
-      <c r="D597" s="41"/>
+      <c r="D597" s="43"/>
       <c r="E597" s="19">
         <v>4</v>
       </c>
@@ -13022,7 +13359,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B598" s="33"/>
-      <c r="D598" s="41"/>
+      <c r="D598" s="43"/>
       <c r="E598" s="19">
         <v>5</v>
       </c>
@@ -13037,7 +13374,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B599" s="32"/>
-      <c r="D599" s="41"/>
+      <c r="D599" s="43"/>
       <c r="E599" s="19">
         <v>6</v>
       </c>
@@ -13065,7 +13402,7 @@
       <c r="C601" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D601" s="41" t="s">
+      <c r="D601" s="43" t="s">
         <v>475</v>
       </c>
       <c r="E601" s="19">
@@ -13082,7 +13419,7 @@
     </row>
     <row r="602" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B602" s="39"/>
-      <c r="D602" s="41"/>
+      <c r="D602" s="43"/>
       <c r="E602" s="19">
         <v>2</v>
       </c>
@@ -13097,7 +13434,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B603" s="39"/>
-      <c r="D603" s="41"/>
+      <c r="D603" s="43"/>
       <c r="E603" s="19">
         <v>3</v>
       </c>
@@ -13125,7 +13462,7 @@
       <c r="C605" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D605" s="41" t="s">
+      <c r="D605" s="43" t="s">
         <v>483</v>
       </c>
       <c r="E605" s="19">
@@ -13142,7 +13479,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B606" s="39"/>
-      <c r="D606" s="41"/>
+      <c r="D606" s="43"/>
       <c r="E606" s="19">
         <v>2</v>
       </c>
@@ -13160,7 +13497,7 @@
     </row>
     <row r="607" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B607" s="39"/>
-      <c r="D607" s="41"/>
+      <c r="D607" s="43"/>
       <c r="E607" s="19">
         <v>3</v>
       </c>
@@ -13175,7 +13512,7 @@
     </row>
     <row r="608" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B608" s="32"/>
-      <c r="D608" s="41"/>
+      <c r="D608" s="43"/>
       <c r="E608" s="19">
         <v>4</v>
       </c>
@@ -13204,7 +13541,7 @@
       <c r="C610" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D610" s="41" t="s">
+      <c r="D610" s="43" t="s">
         <v>494</v>
       </c>
       <c r="E610" s="19">
@@ -13221,7 +13558,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B611" s="39"/>
-      <c r="D611" s="41"/>
+      <c r="D611" s="43"/>
       <c r="E611" s="19">
         <v>2</v>
       </c>
@@ -13239,7 +13576,7 @@
     </row>
     <row r="612" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B612" s="39"/>
-      <c r="D612" s="41"/>
+      <c r="D612" s="43"/>
       <c r="E612" s="19">
         <v>3</v>
       </c>
@@ -13254,7 +13591,7 @@
     </row>
     <row r="613" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B613" s="32"/>
-      <c r="D613" s="41"/>
+      <c r="D613" s="43"/>
       <c r="E613" s="19">
         <v>4</v>
       </c>
@@ -13269,7 +13606,7 @@
     </row>
     <row r="614" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B614" s="32"/>
-      <c r="D614" s="41"/>
+      <c r="D614" s="43"/>
       <c r="E614" s="19">
         <v>5</v>
       </c>
@@ -13297,7 +13634,7 @@
       <c r="C616" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D616" s="41" t="s">
+      <c r="D616" s="43" t="s">
         <v>499</v>
       </c>
       <c r="E616" s="19">
@@ -13314,7 +13651,7 @@
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B617" s="39"/>
-      <c r="D617" s="41"/>
+      <c r="D617" s="43"/>
       <c r="E617" s="19">
         <v>2</v>
       </c>
@@ -13324,30 +13661,27 @@
       <c r="G617" s="19" t="s">
         <v>487</v>
       </c>
-      <c r="H617" s="19" t="s">
-        <v>488</v>
-      </c>
       <c r="J617" s="2"/>
       <c r="K617" s="2"/>
     </row>
-    <row r="618" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B618" s="39"/>
-      <c r="D618" s="41"/>
+      <c r="D618" s="43"/>
       <c r="E618" s="19">
         <v>3</v>
       </c>
       <c r="F618" s="19" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="G618" s="19" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="J618" s="2"/>
       <c r="K618" s="2"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B619" s="38"/>
-      <c r="D619" s="41"/>
+      <c r="D619" s="43"/>
       <c r="E619" s="19">
         <v>4</v>
       </c>
@@ -13355,23 +13689,14 @@
         <v>493</v>
       </c>
       <c r="G619" s="19" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="J619" s="2"/>
       <c r="K619" s="2"/>
     </row>
-    <row r="620" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B620" s="38"/>
-      <c r="D620" s="41"/>
-      <c r="E620" s="19">
-        <v>5</v>
-      </c>
-      <c r="F620" s="19" t="s">
-        <v>495</v>
-      </c>
-      <c r="G620" s="19" t="s">
-        <v>497</v>
-      </c>
+      <c r="D620" s="43"/>
       <c r="J620" s="2"/>
       <c r="K620" s="2"/>
     </row>
@@ -13380,319 +13705,990 @@
       <c r="J621" s="2"/>
       <c r="K621" s="2"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B622" s="32"/>
+    <row r="622" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A622" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="B622" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C622" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D622" s="43" t="s">
+        <v>506</v>
+      </c>
+      <c r="E622" s="19">
+        <v>1</v>
+      </c>
+      <c r="F622" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="G622" s="19" t="s">
+        <v>501</v>
+      </c>
       <c r="J622" s="2"/>
       <c r="K622" s="2"/>
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B623" s="32"/>
+      <c r="B623" s="41"/>
+      <c r="D623" s="43"/>
+      <c r="E623" s="19">
+        <v>2</v>
+      </c>
+      <c r="F623" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="G623" s="19" t="s">
+        <v>487</v>
+      </c>
       <c r="J623" s="2"/>
       <c r="K623" s="2"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B624" s="32"/>
+    <row r="624" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="B624" s="41"/>
+      <c r="D624" s="43"/>
+      <c r="E624" s="19">
+        <v>3</v>
+      </c>
+      <c r="F624" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="G624" s="19" t="s">
+        <v>503</v>
+      </c>
       <c r="J624" s="2"/>
       <c r="K624" s="2"/>
     </row>
-    <row r="625" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B625" s="32"/>
+    <row r="625" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B625" s="40"/>
+      <c r="D625" s="43"/>
+      <c r="E625" s="19">
+        <v>4</v>
+      </c>
+      <c r="F625" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="G625" s="19" t="s">
+        <v>504</v>
+      </c>
       <c r="J625" s="2"/>
       <c r="K625" s="2"/>
     </row>
-    <row r="626" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B626" s="32"/>
+    <row r="626" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B626" s="40"/>
+      <c r="D626" s="43"/>
+      <c r="E626" s="19">
+        <v>5</v>
+      </c>
+      <c r="F626" s="19" t="s">
+        <v>507</v>
+      </c>
+      <c r="G626" s="19" t="s">
+        <v>508</v>
+      </c>
       <c r="J626" s="2"/>
       <c r="K626" s="2"/>
     </row>
-    <row r="627" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B627" s="32"/>
+      <c r="D627" s="43"/>
+      <c r="E627" s="19">
+        <v>6</v>
+      </c>
+      <c r="F627" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="G627" s="19" t="s">
+        <v>510</v>
+      </c>
       <c r="J627" s="2"/>
       <c r="K627" s="2"/>
     </row>
-    <row r="628" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B628" s="32"/>
       <c r="J628" s="2"/>
       <c r="K628" s="2"/>
     </row>
-    <row r="629" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B629" s="32"/>
+    <row r="629" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A629" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="B629" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C629" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D629" s="43" t="s">
+        <v>512</v>
+      </c>
+      <c r="E629" s="19">
+        <v>1</v>
+      </c>
+      <c r="F629" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="G629" s="19" t="s">
+        <v>514</v>
+      </c>
       <c r="J629" s="2"/>
       <c r="K629" s="2"/>
     </row>
-    <row r="630" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B630" s="32"/>
+    <row r="630" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B630" s="41"/>
+      <c r="D630" s="43"/>
+      <c r="E630" s="19">
+        <v>2</v>
+      </c>
+      <c r="F630" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="G630" s="19" t="s">
+        <v>516</v>
+      </c>
       <c r="J630" s="2"/>
       <c r="K630" s="2"/>
     </row>
-    <row r="631" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B631" s="32"/>
+    <row r="631" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B631" s="41"/>
+      <c r="D631" s="43"/>
+      <c r="E631" s="19">
+        <v>3</v>
+      </c>
+      <c r="F631" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="G631" s="19" t="s">
+        <v>518</v>
+      </c>
       <c r="J631" s="2"/>
       <c r="K631" s="2"/>
     </row>
-    <row r="632" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B632" s="32"/>
+    <row r="632" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B632" s="40"/>
+      <c r="D632" s="43"/>
+      <c r="E632" s="19">
+        <v>4</v>
+      </c>
+      <c r="F632" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="G632" s="19" t="s">
+        <v>519</v>
+      </c>
       <c r="J632" s="2"/>
       <c r="K632" s="2"/>
     </row>
-    <row r="633" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B633" s="32"/>
       <c r="J633" s="2"/>
       <c r="K633" s="2"/>
     </row>
-    <row r="634" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B634" s="32"/>
+    <row r="634" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A634" s="29" t="s">
+        <v>522</v>
+      </c>
+      <c r="B634" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C634" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D634" s="43" t="s">
+        <v>520</v>
+      </c>
+      <c r="E634" s="19">
+        <v>1</v>
+      </c>
+      <c r="F634" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="G634" s="19" t="s">
+        <v>514</v>
+      </c>
       <c r="J634" s="2"/>
       <c r="K634" s="2"/>
     </row>
-    <row r="635" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B635" s="32"/>
+    <row r="635" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B635" s="41"/>
+      <c r="D635" s="43"/>
+      <c r="E635" s="19">
+        <v>2</v>
+      </c>
+      <c r="F635" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="G635" s="19" t="s">
+        <v>516</v>
+      </c>
       <c r="J635" s="2"/>
       <c r="K635" s="2"/>
     </row>
-    <row r="636" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B636" s="32"/>
+    <row r="636" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B636" s="41"/>
+      <c r="D636" s="43"/>
+      <c r="E636" s="19">
+        <v>3</v>
+      </c>
+      <c r="F636" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="G636" s="19" t="s">
+        <v>518</v>
+      </c>
       <c r="J636" s="2"/>
       <c r="K636" s="2"/>
     </row>
-    <row r="637" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B637" s="32"/>
+    <row r="637" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B637" s="40"/>
+      <c r="D637" s="43"/>
+      <c r="E637" s="19">
+        <v>4</v>
+      </c>
+      <c r="F637" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="G637" s="19" t="s">
+        <v>519</v>
+      </c>
       <c r="J637" s="2"/>
       <c r="K637" s="2"/>
     </row>
-    <row r="638" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B638" s="32"/>
+    <row r="638" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B638" s="40"/>
+      <c r="D638" s="43"/>
+      <c r="E638" s="19">
+        <v>5</v>
+      </c>
+      <c r="F638" s="19" t="s">
+        <v>507</v>
+      </c>
+      <c r="G638" s="19" t="s">
+        <v>521</v>
+      </c>
       <c r="J638" s="2"/>
       <c r="K638" s="2"/>
     </row>
-    <row r="639" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B639" s="32"/>
       <c r="J639" s="2"/>
       <c r="K639" s="2"/>
     </row>
-    <row r="640" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B640" s="32"/>
+    <row r="640" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A640" s="29" t="s">
+        <v>523</v>
+      </c>
+      <c r="B640" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C640" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D640" s="43" t="s">
+        <v>524</v>
+      </c>
+      <c r="E640" s="19">
+        <v>1</v>
+      </c>
+      <c r="F640" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="G640" s="19" t="s">
+        <v>514</v>
+      </c>
       <c r="J640" s="2"/>
       <c r="K640" s="2"/>
     </row>
-    <row r="641" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B641" s="32"/>
+    <row r="641" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A641" s="29"/>
+      <c r="B641" s="41"/>
+      <c r="D641" s="43"/>
+      <c r="E641" s="19">
+        <v>2</v>
+      </c>
+      <c r="F641" s="19" t="s">
+        <v>534</v>
+      </c>
+      <c r="G641" s="19" t="s">
+        <v>535</v>
+      </c>
       <c r="J641" s="2"/>
       <c r="K641" s="2"/>
     </row>
-    <row r="642" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B642" s="32"/>
+    <row r="642" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A642" s="29"/>
+      <c r="B642" s="41"/>
+      <c r="D642" s="43"/>
+      <c r="E642" s="19">
+        <v>3</v>
+      </c>
+      <c r="F642" s="19" t="s">
+        <v>536</v>
+      </c>
+      <c r="G642" s="19" t="s">
+        <v>537</v>
+      </c>
       <c r="J642" s="2"/>
       <c r="K642" s="2"/>
     </row>
-    <row r="643" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B643" s="32"/>
+    <row r="643" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="B643" s="41"/>
+      <c r="D643" s="43"/>
+      <c r="E643" s="19">
+        <v>4</v>
+      </c>
+      <c r="F643" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="G643" s="19" t="s">
+        <v>527</v>
+      </c>
       <c r="J643" s="2"/>
       <c r="K643" s="2"/>
     </row>
-    <row r="644" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B644" s="32"/>
+    <row r="644" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="B644" s="41"/>
+      <c r="D644" s="43"/>
+      <c r="E644" s="19">
+        <v>5</v>
+      </c>
+      <c r="F644" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="G644" s="19" t="s">
+        <v>529</v>
+      </c>
       <c r="J644" s="2"/>
       <c r="K644" s="2"/>
     </row>
-    <row r="645" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B645" s="32"/>
+    <row r="645" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="B645" s="40"/>
+      <c r="D645" s="43"/>
+      <c r="E645" s="19">
+        <v>6</v>
+      </c>
+      <c r="F645" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="G645" s="19" t="s">
+        <v>531</v>
+      </c>
       <c r="J645" s="2"/>
       <c r="K645" s="2"/>
     </row>
-    <row r="646" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B646" s="32"/>
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B646" s="40"/>
+      <c r="D646" s="43"/>
+      <c r="E646" s="19">
+        <v>7</v>
+      </c>
+      <c r="F646" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="G646" s="19" t="s">
+        <v>431</v>
+      </c>
       <c r="J646" s="2"/>
       <c r="K646" s="2"/>
     </row>
-    <row r="647" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B647" s="32"/>
       <c r="J647" s="2"/>
       <c r="K647" s="2"/>
     </row>
-    <row r="648" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B648" s="32"/>
+    <row r="648" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A648" s="29" t="s">
+        <v>533</v>
+      </c>
+      <c r="B648" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C648" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D648" s="43" t="s">
+        <v>538</v>
+      </c>
+      <c r="E648" s="19">
+        <v>1</v>
+      </c>
+      <c r="F648" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="G648" s="19" t="s">
+        <v>540</v>
+      </c>
       <c r="J648" s="2"/>
       <c r="K648" s="2"/>
     </row>
-    <row r="649" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B649" s="32"/>
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B649" s="41"/>
+      <c r="D649" s="43"/>
+      <c r="E649" s="19">
+        <v>2</v>
+      </c>
+      <c r="F649" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="G649" s="19" t="s">
+        <v>542</v>
+      </c>
       <c r="J649" s="2"/>
       <c r="K649" s="2"/>
     </row>
-    <row r="650" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B650" s="32"/>
+    <row r="650" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B650" s="41"/>
+      <c r="D650" s="43"/>
+      <c r="E650" s="19">
+        <v>3</v>
+      </c>
+      <c r="F650" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="G650" s="19" t="s">
+        <v>543</v>
+      </c>
       <c r="J650" s="2"/>
       <c r="K650" s="2"/>
     </row>
-    <row r="651" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B651" s="32"/>
       <c r="J651" s="2"/>
       <c r="K651" s="2"/>
     </row>
-    <row r="652" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B652" s="32"/>
+    <row r="652" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A652" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="B652" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C652" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D652" s="43" t="s">
+        <v>545</v>
+      </c>
+      <c r="E652" s="19">
+        <v>1</v>
+      </c>
+      <c r="F652" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="G652" s="19" t="s">
+        <v>547</v>
+      </c>
       <c r="J652" s="2"/>
       <c r="K652" s="2"/>
     </row>
-    <row r="653" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B653" s="32"/>
+    <row r="653" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B653" s="41"/>
+      <c r="D653" s="43"/>
+      <c r="E653" s="19">
+        <v>2</v>
+      </c>
+      <c r="F653" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="G653" s="19" t="s">
+        <v>549</v>
+      </c>
       <c r="J653" s="2"/>
       <c r="K653" s="2"/>
     </row>
-    <row r="654" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B654" s="32"/>
+    <row r="654" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B654" s="41"/>
+      <c r="D654" s="43"/>
+      <c r="E654" s="19">
+        <v>3</v>
+      </c>
+      <c r="F654" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G654" s="19" t="s">
+        <v>551</v>
+      </c>
       <c r="J654" s="2"/>
       <c r="K654" s="2"/>
     </row>
-    <row r="655" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B655" s="32"/>
       <c r="J655" s="2"/>
       <c r="K655" s="2"/>
     </row>
-    <row r="656" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B656" s="32"/>
+    <row r="656" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A656" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="B656" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C656" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D656" s="43" t="s">
+        <v>553</v>
+      </c>
+      <c r="E656" s="19">
+        <v>1</v>
+      </c>
+      <c r="F656" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="G656" s="19" t="s">
+        <v>547</v>
+      </c>
       <c r="J656" s="2"/>
       <c r="K656" s="2"/>
     </row>
-    <row r="657" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B657" s="32"/>
+    <row r="657" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="B657" s="41"/>
+      <c r="D657" s="43"/>
+      <c r="E657" s="19">
+        <v>2</v>
+      </c>
+      <c r="F657" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="G657" s="19" t="s">
+        <v>555</v>
+      </c>
       <c r="J657" s="2"/>
       <c r="K657" s="2"/>
     </row>
-    <row r="658" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B658" s="32"/>
+    <row r="658" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B658" s="41"/>
+      <c r="D658" s="43"/>
+      <c r="E658" s="19">
+        <v>3</v>
+      </c>
+      <c r="F658" s="19" t="s">
+        <v>556</v>
+      </c>
+      <c r="G658" s="19" t="s">
+        <v>555</v>
+      </c>
       <c r="J658" s="2"/>
       <c r="K658" s="2"/>
     </row>
-    <row r="659" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B659" s="32"/>
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B659" s="40"/>
+      <c r="D659" s="43"/>
+      <c r="E659" s="19">
+        <v>4</v>
+      </c>
+      <c r="F659" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G659" s="19" t="s">
+        <v>557</v>
+      </c>
       <c r="J659" s="2"/>
       <c r="K659" s="2"/>
     </row>
-    <row r="660" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B660" s="32"/>
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B660" s="40"/>
       <c r="J660" s="2"/>
       <c r="K660" s="2"/>
     </row>
-    <row r="661" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B661" s="32"/>
+    <row r="661" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A661" s="29" t="s">
+        <v>558</v>
+      </c>
+      <c r="B661" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C661" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D661" s="43" t="s">
+        <v>559</v>
+      </c>
+      <c r="E661" s="19">
+        <v>1</v>
+      </c>
+      <c r="F661" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="G661" s="19" t="s">
+        <v>547</v>
+      </c>
       <c r="J661" s="2"/>
       <c r="K661" s="2"/>
     </row>
-    <row r="662" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B662" s="32"/>
+    <row r="662" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="B662" s="41"/>
+      <c r="D662" s="43"/>
+      <c r="E662" s="19">
+        <v>2</v>
+      </c>
+      <c r="F662" s="19" t="s">
+        <v>560</v>
+      </c>
+      <c r="G662" s="19" t="s">
+        <v>555</v>
+      </c>
       <c r="J662" s="2"/>
       <c r="K662" s="2"/>
     </row>
-    <row r="663" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B663" s="32"/>
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B663" s="41"/>
+      <c r="D663" s="43"/>
+      <c r="E663" s="19">
+        <v>3</v>
+      </c>
+      <c r="F663" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G663" s="19" t="s">
+        <v>557</v>
+      </c>
       <c r="J663" s="2"/>
       <c r="K663" s="2"/>
     </row>
-    <row r="664" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B664" s="32"/>
+    <row r="664" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A664" s="29" t="s">
+        <v>561</v>
+      </c>
+      <c r="B664" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C664" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D664" s="43" t="s">
+        <v>562</v>
+      </c>
+      <c r="E664" s="19">
+        <v>1</v>
+      </c>
+      <c r="F664" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="G664" s="19" t="s">
+        <v>547</v>
+      </c>
       <c r="J664" s="2"/>
       <c r="K664" s="2"/>
     </row>
-    <row r="665" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B665" s="32"/>
+    <row r="665" spans="1:11" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B665" s="41"/>
+      <c r="D665" s="43"/>
+      <c r="E665" s="19">
+        <v>2</v>
+      </c>
+      <c r="F665" s="19" t="s">
+        <v>563</v>
+      </c>
+      <c r="G665" s="19" t="s">
+        <v>555</v>
+      </c>
       <c r="J665" s="2"/>
       <c r="K665" s="2"/>
     </row>
-    <row r="666" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B666" s="32"/>
-      <c r="J666" s="2"/>
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B666" s="41"/>
+      <c r="D666" s="43"/>
+      <c r="E666" s="19">
+        <v>3</v>
+      </c>
+      <c r="F666" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G666" s="19" t="s">
+        <v>557</v>
+      </c>
       <c r="K666" s="2"/>
     </row>
-    <row r="667" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B667" s="32"/>
-      <c r="J667" s="2"/>
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B667" s="40"/>
       <c r="K667" s="2"/>
     </row>
-    <row r="668" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B668" s="32"/>
-      <c r="J668" s="2"/>
+    <row r="668" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A668" s="29" t="s">
+        <v>564</v>
+      </c>
+      <c r="B668" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C668" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D668" s="43" t="s">
+        <v>565</v>
+      </c>
+      <c r="E668" s="19">
+        <v>1</v>
+      </c>
+      <c r="F668" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="G668" s="19" t="s">
+        <v>547</v>
+      </c>
       <c r="K668" s="2"/>
     </row>
-    <row r="669" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B669" s="32"/>
-      <c r="J669" s="2"/>
+    <row r="669" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="B669" s="41"/>
+      <c r="D669" s="43"/>
+      <c r="E669" s="19">
+        <v>2</v>
+      </c>
+      <c r="F669" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="G669" s="19" t="s">
+        <v>555</v>
+      </c>
       <c r="K669" s="2"/>
     </row>
-    <row r="670" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B670" s="32"/>
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B670" s="41"/>
+      <c r="D670" s="43"/>
+      <c r="E670" s="19">
+        <v>3</v>
+      </c>
+      <c r="F670" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G670" s="19" t="s">
+        <v>557</v>
+      </c>
       <c r="K670" s="2"/>
     </row>
-    <row r="671" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B671" s="32"/>
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B671" s="40"/>
       <c r="K671" s="2"/>
     </row>
-    <row r="672" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B672" s="32"/>
+    <row r="672" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A672" s="29" t="s">
+        <v>567</v>
+      </c>
+      <c r="B672" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C672" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D672" s="43" t="s">
+        <v>568</v>
+      </c>
+      <c r="E672" s="19">
+        <v>1</v>
+      </c>
+      <c r="F672" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="G672" s="19" t="s">
+        <v>570</v>
+      </c>
       <c r="K672" s="2"/>
     </row>
-    <row r="673" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B673" s="32"/>
+    <row r="673" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B673" s="41"/>
+      <c r="D673" s="43"/>
+      <c r="E673" s="19">
+        <v>2</v>
+      </c>
+      <c r="F673" s="19" t="s">
+        <v>571</v>
+      </c>
+      <c r="G673" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="H673" s="19" t="s">
+        <v>573</v>
+      </c>
       <c r="K673" s="2"/>
     </row>
-    <row r="674" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B674" s="32"/>
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B674" s="41"/>
+      <c r="D674" s="43"/>
+      <c r="E674" s="19">
+        <v>3</v>
+      </c>
+      <c r="F674" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="G674" s="19" t="s">
+        <v>557</v>
+      </c>
       <c r="K674" s="2"/>
     </row>
-    <row r="675" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B675" s="32"/>
       <c r="K675" s="2"/>
     </row>
-    <row r="676" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B676" s="32"/>
+    <row r="676" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A676" s="29" t="s">
+        <v>575</v>
+      </c>
+      <c r="B676" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C676" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D676" s="43" t="s">
+        <v>576</v>
+      </c>
+      <c r="E676" s="19">
+        <v>1</v>
+      </c>
+      <c r="F676" s="19" t="s">
+        <v>577</v>
+      </c>
+      <c r="G676" s="19" t="s">
+        <v>578</v>
+      </c>
       <c r="K676" s="2"/>
     </row>
-    <row r="677" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B677" s="32"/>
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B677" s="41"/>
+      <c r="D677" s="43"/>
+      <c r="E677" s="19">
+        <v>2</v>
+      </c>
+      <c r="F677" s="19" t="s">
+        <v>579</v>
+      </c>
+      <c r="G677" s="19" t="s">
+        <v>580</v>
+      </c>
       <c r="K677" s="2"/>
     </row>
-    <row r="678" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B678" s="32"/>
+    <row r="678" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B678" s="41"/>
+      <c r="D678" s="43"/>
+      <c r="E678" s="19">
+        <v>3</v>
+      </c>
+      <c r="F678" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="G678" s="19" t="s">
+        <v>582</v>
+      </c>
       <c r="K678" s="2"/>
     </row>
-    <row r="679" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B679" s="32"/>
       <c r="K679" s="2"/>
     </row>
-    <row r="680" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B680" s="32"/>
+    <row r="680" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A680" s="29" t="s">
+        <v>583</v>
+      </c>
+      <c r="B680" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C680" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D680" s="43" t="s">
+        <v>584</v>
+      </c>
+      <c r="E680" s="19">
+        <v>1</v>
+      </c>
+      <c r="F680" s="19" t="s">
+        <v>585</v>
+      </c>
+      <c r="G680" s="19" t="s">
+        <v>586</v>
+      </c>
       <c r="K680" s="2"/>
     </row>
-    <row r="681" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B681" s="32"/>
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B681" s="41"/>
+      <c r="D681" s="43"/>
+      <c r="E681" s="19">
+        <v>2</v>
+      </c>
+      <c r="F681" s="19" t="s">
+        <v>587</v>
+      </c>
+      <c r="G681" s="19" t="s">
+        <v>580</v>
+      </c>
       <c r="K681" s="2"/>
     </row>
-    <row r="682" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B682" s="32"/>
+    <row r="682" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B682" s="41"/>
+      <c r="D682" s="43"/>
+      <c r="E682" s="19">
+        <v>3</v>
+      </c>
+      <c r="F682" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="G682" s="19" t="s">
+        <v>582</v>
+      </c>
       <c r="K682" s="2"/>
     </row>
-    <row r="683" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B683" s="32"/>
       <c r="K683" s="2"/>
     </row>
-    <row r="684" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B684" s="32"/>
+    <row r="684" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A684" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="B684" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C684" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D684" s="43" t="s">
+        <v>589</v>
+      </c>
+      <c r="E684" s="19">
+        <v>1</v>
+      </c>
+      <c r="F684" s="19" t="s">
+        <v>592</v>
+      </c>
+      <c r="G684" s="19" t="s">
+        <v>591</v>
+      </c>
       <c r="K684" s="2"/>
     </row>
-    <row r="685" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B685" s="32"/>
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B685" s="41"/>
+      <c r="D685" s="43"/>
+      <c r="E685" s="19">
+        <v>2</v>
+      </c>
+      <c r="F685" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="G685" s="19" t="s">
+        <v>580</v>
+      </c>
       <c r="K685" s="2"/>
     </row>
-    <row r="686" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B686" s="32"/>
+    <row r="686" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B686" s="41"/>
+      <c r="D686" s="43"/>
+      <c r="E686" s="19">
+        <v>3</v>
+      </c>
+      <c r="F686" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="G686" s="19" t="s">
+        <v>582</v>
+      </c>
       <c r="K686" s="2"/>
     </row>
-    <row r="687" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B687" s="32"/>
       <c r="K687" s="2"/>
     </row>
-    <row r="688" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B688" s="32"/>
       <c r="K688" s="2"/>
     </row>
@@ -13745,19 +14741,15 @@
       <c r="K700" s="2"/>
     </row>
     <row r="701" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B701" s="32"/>
       <c r="K701" s="2"/>
     </row>
     <row r="702" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B702" s="32"/>
       <c r="K702" s="2"/>
     </row>
     <row r="703" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B703" s="32"/>
       <c r="K703" s="2"/>
     </row>
     <row r="704" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B704" s="32"/>
       <c r="K704" s="2"/>
     </row>
     <row r="705" spans="11:11" x14ac:dyDescent="0.25">
@@ -13778,50 +14770,41 @@
     <row r="710" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K710" s="2"/>
     </row>
-    <row r="711" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K711" s="2"/>
-    </row>
-    <row r="712" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K712" s="2"/>
-    </row>
-    <row r="713" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K713" s="2"/>
-    </row>
-    <row r="714" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K714" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="D616:D620"/>
-    <mergeCell ref="D601:D603"/>
-    <mergeCell ref="D605:D608"/>
-    <mergeCell ref="D610:D614"/>
-    <mergeCell ref="D492:D498"/>
-    <mergeCell ref="D500:D505"/>
-    <mergeCell ref="D507:D512"/>
-    <mergeCell ref="D514:D516"/>
-    <mergeCell ref="D470:D474"/>
-    <mergeCell ref="D476:D482"/>
-    <mergeCell ref="D484:D490"/>
-    <mergeCell ref="D446:D450"/>
-    <mergeCell ref="D452:D456"/>
-    <mergeCell ref="D458:D462"/>
-    <mergeCell ref="D464:D468"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="D119:D125"/>
-    <mergeCell ref="D182:D193"/>
-    <mergeCell ref="D195:D206"/>
-    <mergeCell ref="D208:D216"/>
-    <mergeCell ref="D218:D227"/>
-    <mergeCell ref="D229:D238"/>
-    <mergeCell ref="D240:D245"/>
-    <mergeCell ref="D247:D253"/>
-    <mergeCell ref="D255:D261"/>
-    <mergeCell ref="D263:D269"/>
-    <mergeCell ref="D271:D278"/>
-    <mergeCell ref="D52:D61"/>
-    <mergeCell ref="D434:D438"/>
-    <mergeCell ref="D428:D432"/>
+  <mergeCells count="95">
+    <mergeCell ref="D680:D682"/>
+    <mergeCell ref="D684:D686"/>
+    <mergeCell ref="D661:D663"/>
+    <mergeCell ref="D664:D666"/>
+    <mergeCell ref="D668:D670"/>
+    <mergeCell ref="D672:D674"/>
+    <mergeCell ref="D676:D678"/>
+    <mergeCell ref="D640:D646"/>
+    <mergeCell ref="D648:D650"/>
+    <mergeCell ref="D652:D654"/>
+    <mergeCell ref="D656:D659"/>
+    <mergeCell ref="D581:D585"/>
+    <mergeCell ref="D622:D627"/>
+    <mergeCell ref="D629:D632"/>
+    <mergeCell ref="D634:D638"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D518:D524"/>
+    <mergeCell ref="D526:D528"/>
+    <mergeCell ref="D530:D534"/>
+    <mergeCell ref="D410:D414"/>
+    <mergeCell ref="D404:D408"/>
+    <mergeCell ref="D422:D426"/>
+    <mergeCell ref="D396:D402"/>
+    <mergeCell ref="D358:D363"/>
+    <mergeCell ref="D365:D371"/>
+    <mergeCell ref="D373:D379"/>
+    <mergeCell ref="D381:D386"/>
+    <mergeCell ref="D388:D394"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="D32:D40"/>
+    <mergeCell ref="D42:D50"/>
     <mergeCell ref="D440:D444"/>
     <mergeCell ref="D170:D180"/>
     <mergeCell ref="D69:D74"/>
@@ -13835,14 +14818,14 @@
     <mergeCell ref="D94:D101"/>
     <mergeCell ref="D103:D110"/>
     <mergeCell ref="D112:D117"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="D32:D40"/>
-    <mergeCell ref="D42:D50"/>
     <mergeCell ref="D280:D287"/>
     <mergeCell ref="D289:D294"/>
     <mergeCell ref="D296:D302"/>
+    <mergeCell ref="D263:D269"/>
+    <mergeCell ref="D271:D278"/>
+    <mergeCell ref="D52:D61"/>
+    <mergeCell ref="D434:D438"/>
+    <mergeCell ref="D428:D432"/>
     <mergeCell ref="D304:D310"/>
     <mergeCell ref="D312:D317"/>
     <mergeCell ref="D416:D420"/>
@@ -13851,32 +14834,43 @@
     <mergeCell ref="D335:D340"/>
     <mergeCell ref="D342:D348"/>
     <mergeCell ref="D350:D356"/>
+    <mergeCell ref="D218:D227"/>
+    <mergeCell ref="D229:D238"/>
+    <mergeCell ref="D240:D245"/>
+    <mergeCell ref="D247:D253"/>
+    <mergeCell ref="D255:D261"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="D119:D125"/>
+    <mergeCell ref="D182:D193"/>
+    <mergeCell ref="D195:D206"/>
+    <mergeCell ref="D208:D216"/>
+    <mergeCell ref="D470:D474"/>
+    <mergeCell ref="D476:D482"/>
+    <mergeCell ref="D484:D490"/>
+    <mergeCell ref="D446:D450"/>
+    <mergeCell ref="D452:D456"/>
+    <mergeCell ref="D458:D462"/>
+    <mergeCell ref="D464:D468"/>
+    <mergeCell ref="D616:D620"/>
+    <mergeCell ref="D601:D603"/>
+    <mergeCell ref="D605:D608"/>
+    <mergeCell ref="D610:D614"/>
+    <mergeCell ref="D492:D498"/>
+    <mergeCell ref="D500:D505"/>
+    <mergeCell ref="D507:D512"/>
+    <mergeCell ref="D514:D516"/>
     <mergeCell ref="D536:D541"/>
     <mergeCell ref="D543:D548"/>
     <mergeCell ref="D550:D559"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D518:D524"/>
-    <mergeCell ref="D526:D528"/>
-    <mergeCell ref="D530:D534"/>
-    <mergeCell ref="D410:D414"/>
-    <mergeCell ref="D404:D408"/>
-    <mergeCell ref="D422:D426"/>
-    <mergeCell ref="D396:D402"/>
-    <mergeCell ref="D358:D363"/>
-    <mergeCell ref="D365:D371"/>
-    <mergeCell ref="D373:D379"/>
-    <mergeCell ref="D381:D386"/>
-    <mergeCell ref="D388:D394"/>
     <mergeCell ref="D587:D592"/>
     <mergeCell ref="D594:D599"/>
     <mergeCell ref="D561:D568"/>
     <mergeCell ref="D570:D573"/>
     <mergeCell ref="D575:D579"/>
-    <mergeCell ref="D581:D585"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B169:B201 B207:B235 B239:B260 B262:B286 B288:B309 B312:B332 B334:B355 B357:B378 B380:B401 B2:B164 B403:B592 B594:B598 B601:B603 B605:B607 B610:B612 B616:B618" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B169:B201 B207:B235 B239:B260 B262:B286 B288:B309 B312:B332 B334:B355 B357:B378 B380:B401 B2:B164 B403:B592 B594:B598 B601:B603 B605:B607 B610:B612 B616:B618 B622:B624 B629:B631 B634:B636 B640:B644 B648:B650 B652:B654 B656:B658 B661:B666 B668:B670 B672:B674 B676:B678 B680:B682 B684:B686" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C169:C201 C207:C235 C239:C260 C262:C286 C288:C309 C312:C332 C334:C355 C357:C378 C380:C401 C2:C164 C403:C1048576" xr:uid="{4613EE89-5E19-42FA-AB1F-2526DEDE59AC}">
@@ -13885,10 +14879,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J486" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J487:J669" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J487:J665" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K714" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K710" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13923,7 +14917,7 @@
       <c r="C2" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="43" t="s">
         <v>287</v>
       </c>
       <c r="E2" s="19">
@@ -13939,7 +14933,7 @@
       <c r="A3" s="30"/>
       <c r="B3" s="33"/>
       <c r="C3" s="26"/>
-      <c r="D3" s="41"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="19">
         <v>2</v>
       </c>
@@ -13955,7 +14949,7 @@
       <c r="A4" s="30"/>
       <c r="B4" s="33"/>
       <c r="C4" s="26"/>
-      <c r="D4" s="41"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="19">
         <v>3</v>
       </c>
@@ -13971,7 +14965,7 @@
       <c r="A5" s="30"/>
       <c r="B5" s="33"/>
       <c r="C5" s="26"/>
-      <c r="D5" s="41"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="19">
         <v>4</v>
       </c>
@@ -13987,7 +14981,7 @@
       <c r="A6" s="30"/>
       <c r="B6" s="33"/>
       <c r="C6" s="26"/>
-      <c r="D6" s="41"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="19">
         <v>5</v>
       </c>
@@ -14003,7 +14997,7 @@
       <c r="A7" s="30"/>
       <c r="B7" s="33"/>
       <c r="C7" s="26"/>
-      <c r="D7" s="41"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="19">
         <v>6</v>
       </c>
@@ -14035,7 +15029,7 @@
       <c r="C9" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="43" t="s">
         <v>291</v>
       </c>
       <c r="E9" s="19">
@@ -14051,7 +15045,7 @@
       <c r="A10" s="30"/>
       <c r="B10" s="33"/>
       <c r="C10" s="26"/>
-      <c r="D10" s="41"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="19">
         <v>2</v>
       </c>
@@ -14067,7 +15061,7 @@
       <c r="A11" s="30"/>
       <c r="B11" s="33"/>
       <c r="C11" s="26"/>
-      <c r="D11" s="41"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="19">
         <v>3</v>
       </c>
@@ -14083,7 +15077,7 @@
       <c r="A12" s="30"/>
       <c r="B12" s="33"/>
       <c r="C12" s="26"/>
-      <c r="D12" s="41"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="19">
         <v>4</v>
       </c>
@@ -14099,7 +15093,7 @@
       <c r="A13" s="30"/>
       <c r="B13" s="33"/>
       <c r="C13" s="26"/>
-      <c r="D13" s="41"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="19">
         <v>5</v>
       </c>
@@ -14115,7 +15109,7 @@
       <c r="A14" s="30"/>
       <c r="B14" s="33"/>
       <c r="C14" s="26"/>
-      <c r="D14" s="41"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="19">
         <v>6</v>
       </c>
@@ -14131,7 +15125,7 @@
       <c r="A15" s="30"/>
       <c r="B15" s="33"/>
       <c r="C15" s="26"/>
-      <c r="D15" s="41"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="19">
         <v>7</v>
       </c>
@@ -14161,7 +15155,7 @@
       <c r="C17" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="43" t="s">
         <v>294</v>
       </c>
       <c r="E17" s="19">
@@ -14177,7 +15171,7 @@
       <c r="A18" s="30"/>
       <c r="B18" s="33"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="41"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="19">
         <v>2</v>
       </c>
@@ -14193,7 +15187,7 @@
       <c r="A19" s="30"/>
       <c r="B19" s="33"/>
       <c r="C19" s="26"/>
-      <c r="D19" s="41"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="19">
         <v>3</v>
       </c>
@@ -14209,7 +15203,7 @@
       <c r="A20" s="30"/>
       <c r="B20" s="33"/>
       <c r="C20" s="26"/>
-      <c r="D20" s="41"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="19">
         <v>4</v>
       </c>
@@ -14225,7 +15219,7 @@
       <c r="A21" s="30"/>
       <c r="B21" s="33"/>
       <c r="C21" s="26"/>
-      <c r="D21" s="41"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="19">
         <v>5</v>
       </c>
@@ -14241,7 +15235,7 @@
       <c r="A22" s="30"/>
       <c r="B22" s="33"/>
       <c r="C22" s="26"/>
-      <c r="D22" s="41"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="19">
         <v>6</v>
       </c>
@@ -14254,7 +15248,7 @@
       <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D23" s="41"/>
+      <c r="D23" s="43"/>
       <c r="E23" s="19">
         <v>7</v>
       </c>
